--- a/PROYECTO PASARELLA/RELEASE 3/PPS - [Pasarela] - [RNF - JMETER].xlsx
+++ b/PROYECTO PASARELLA/RELEASE 3/PPS - [Pasarela] - [RNF - JMETER].xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VUCE\DocumentoVuce\PROYECTO PASARELLA\RELEASE 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{681EF410-FE38-44D1-94C4-84C4C51926F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Formato 1.0 " sheetId="5" r:id="rId1"/>
     <sheet name="ejemplo" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Formato 1.0 '!$A$43:$AX$88</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Formato 1.0 '!$A$43:$BA$88</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Formato 1.0 '!$A$1:$AQ$107</definedName>
     <definedName name="Caracteristica_Evaluar">ejemplo!#REF!</definedName>
     <definedName name="Componentes">ejemplo!$A$69:$A$76</definedName>
@@ -28,7 +27,7 @@
     <definedName name="Tipo_Pruebas">ejemplo!#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Formato 1.0 '!$1:$13</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -47,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="287">
   <si>
     <t>PLAN DE PRUEBAS DE SISTEMAS</t>
   </si>
@@ -493,6 +492,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">tipo de componente según la lista
 </t>
@@ -502,6 +502,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -512,6 +513,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Ejm</t>
     </r>
@@ -520,6 +522,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>: Mercancias restringidas</t>
     </r>
@@ -573,6 +576,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">[Criterio de aceptación]
 </t>
@@ -582,6 +586,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -592,6 +597,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Ejm</t>
     </r>
@@ -600,6 +606,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>: Criterio de Aceptación 001:  Inicio de sesión de la Cuenta</t>
     </r>
@@ -611,6 +618,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">[Escenario]
 </t>
@@ -620,6 +628,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -630,6 +639,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Ejm</t>
     </r>
@@ -638,6 +648,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">: Escenario 1:  
 Acceso del Usuario </t>
@@ -769,6 +780,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>[El nombre debe describir claramente la funcionalidad o el escenario que se está probando</t>
     </r>
@@ -777,6 +789,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">] 
 </t>
@@ -788,6 +801,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Estructura:</t>
     </r>
@@ -797,6 +811,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> [Acción/ Funcionalidad]+ [Datos/Condición] + [Resultado esperado] + Ambiente/Plataforma (Opcional)
 </t>
@@ -808,6 +823,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Acción/funcionalidad </t>
     </r>
@@ -817,6 +833,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">(¿Qué se está haciendo/probando?)
 </t>
@@ -828,6 +845,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Datos/Condiciones</t>
     </r>
@@ -837,6 +855,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> (¿Qué condiciones o datos se utilizan?)
 </t>
@@ -848,6 +867,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Resultado esperado</t>
     </r>
@@ -857,6 +877,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> (¿Qué resultado se espera?)
 </t>
@@ -868,6 +889,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Ambiente/Plataforma</t>
     </r>
@@ -877,6 +899,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> (Opcional: ¿En qué entorno se prueba?)
 </t>
@@ -886,6 +909,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -896,6 +920,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Ejm</t>
     </r>
@@ -904,6 +929,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">:Iniciar sesión con un usuario y contraseña validos
 Iniciar sesión con un usuario y contraseña incorrectas </t>
@@ -1079,6 +1105,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">[Los pasos deben seguir un orden lógico y secuencial ser claros y detallados para evitar malentendidos] 
 </t>
@@ -1090,6 +1117,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Estructura:
 Número del paso:</t>
@@ -1100,6 +1128,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> Asignar un número secuencial a cada paso.
 </t>
@@ -1111,6 +1140,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Acción:</t>
     </r>
@@ -1120,6 +1150,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> Describir la acción específica que debe realizarse en cada paso.
 </t>
@@ -1130,6 +1161,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -1139,6 +1171,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1148,6 +1181,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Ejm: 
 Paso 1: </t>
@@ -1157,6 +1191,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Ingresar la URL</t>
     </r>
@@ -1166,6 +1201,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1174,6 +1210,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">https://example.com/login en el navegador
 </t>
@@ -1184,6 +1221,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Paso 2: </t>
     </r>
@@ -1192,6 +1230,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Introducir un nombre de usuario válido en el campo "Nombre de Usuario".
 </t>
@@ -1202,6 +1241,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Paso 3:</t>
     </r>
@@ -1210,6 +1250,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> Introducir una contraseña válida en el campo "Contraseña".
 </t>
@@ -1220,6 +1261,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Paso 4:</t>
     </r>
@@ -1228,6 +1270,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> Hacer clic en el botón "Iniciar Sesión".</t>
     </r>
@@ -1239,6 +1282,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">[El resultado esperado en un caso de prueba es la salida o el comportamiento que se realiza después de ejecutar el escenario. Quiere decir un resultado final sobre lo que el sistema muestra, valida o verifica]
 </t>
@@ -1249,6 +1293,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 Ejm 1: 
@@ -1259,6 +1304,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">El sistema muestra el dashboard inicial.
 </t>
@@ -1269,6 +1315,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Ejm 2</t>
     </r>
@@ -1277,6 +1324,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>: 
 El sistema valida lo siguiente:
@@ -1662,9 +1710,6 @@
     <t>Obtiene el estado de una orden de pago</t>
   </si>
   <si>
-    <t>60 repeticiones por  60 segundos con 10 repeticiones</t>
-  </si>
-  <si>
     <t>Tener disponibilidad del AP WebService
 Tablas de Base de datos disponibles para su validación
 Permisos de accesos a al sistema
@@ -1682,51 +1727,6 @@
     <t>RNF-006, RNF-009, RNF-010, RNF-013</t>
   </si>
   <si>
-    <t>Validar el performance del API router-cert-router.cert-apps.hoprodntx.vuce.gob.pe/v1/vuce-services/pasarela/pagos/ordenes-pago/sunat cuando los parametros de rendimiento son  60 repeticiones por  60 segundos con 10 repeticiones</t>
-  </si>
-  <si>
-    <t>Validar el performance del API router-cert-router.cert-apps.hoprodntx.vuce.gob.pe/v1/vuce-services/pasarela/pagos/ordenes-pago/{ordenPagoId}/anulacion cuando los parametros de rendimiento son  60 repeticiones por  60 segundos con 10 repeticiones</t>
-  </si>
-  <si>
-    <t>Validar el performance del API router-cert-router.cert-apps.hoprodntx.vuce.gob.pe/v1/vuce-services/pasarela/pagos/ordenes-pago/expirado cuando los parametros de rendimiento son  60 repeticiones por  60 segundos con 10 repeticiones</t>
-  </si>
-  <si>
-    <t>Validar el performance del API router-cert-router.cert-apps.hoprodntx.vuce.gob.pe/v1/vuce-services/pasarela/pagos/ordenes-pago/transferencia-bancaria cuando los parametros de rendimiento son  60 repeticiones por  60 segundos con 10 repeticiones</t>
-  </si>
-  <si>
-    <t>Validar el performance del API router-cert-router.cert-apps.hoprodntx.vuce.gob.pe/v1/vuce-services/pasarela/pagos/ordenes-pago/cpb/{cpb}/extorno cuando los parametros de rendimiento son  60 repeticiones por  60 segundos con 10 repeticiones</t>
-  </si>
-  <si>
-    <t>Validar el performance del API router-cert-router.cert-apps.hoprodntx.vuce.gob.pe/v1/vuce-services/pasarela/pagos/ordenes-pago/cpb/{cpb}/pago cuando los parametros de rendimiento son  60 repeticiones por  60 segundos con 10 repeticiones</t>
-  </si>
-  <si>
-    <t>Validar el performance del API router-cert-router.cert-apps.hoprodntx.vuce.gob.pe/v1/vuce-services/pasarela/pagos/ordenes-pago/{ordenPagoId}/extorno cuando los parametros de rendimiento son  60 repeticiones por  60 segundos con 10 repeticiones</t>
-  </si>
-  <si>
-    <t>Validar el performance del API router-cert-router.cert-apps.hoprodntx.vuce.gob.pe/v1/vuce-services/pasarela/pagos/ordenes-pago/{ordenPagoId}/pago cuando los parametros de rendimiento son  60 repeticiones por  60 segundos con 10 repeticiones</t>
-  </si>
-  <si>
-    <t>Validar el performance del API router-cert-router.cert-apps.hoprodntx.vuce.gob.pe/v1/vuce-services/pasarela/pagos/ordenes-pago/reasignacion cuando los parametros de rendimiento son  60 repeticiones por  60 segundos con 10 repeticiones</t>
-  </si>
-  <si>
-    <t>Validar el performance del API router-cert-router.cert-apps.hoprodntx.vuce.gob.pe/v1/vuce-services/pasarela/ordenes-pago/actualizaciondatos cuando los parametros de rendimiento son  60 repeticiones por  60 segundos con 10 repeticiones</t>
-  </si>
-  <si>
-    <t>Validar el performance del API router-cert-router.cert-apps.hoprodntx.vuce.gob.pe/v1/vuce-services/pasarela/liquidaciones/ cuando los parametros de rendimiento son  60 repeticiones por  60 segundos con 10 repeticiones</t>
-  </si>
-  <si>
-    <t>Validar el performance del API router-cert-router.cert-apps.hoprodntx.vuce.gob.pe/v1/vuce-services/pasarela/liquidaciones/reporte-mensual cuando los parametros de rendimiento son  60 repeticiones por  60 segundos con 10 repeticiones</t>
-  </si>
-  <si>
-    <t>Validar el performance del API router-cert-router.cert-apps.hoprodntx.vuce.gob.pe/v1/vuce-services/pasarela/liquidaciones/reporte-ordenes-pago?entidadId=38&amp;fechaDesde=20230901&amp;fechaHasta=20240630 cuando los parametros de rendimiento son  60 repeticiones por  60 segundos con 10 repeticiones</t>
-  </si>
-  <si>
-    <t>Validar el performance del API router-cert-router.cert-apps.hoprodntx.vuce.gob.pe/v1/vuce-services/pasarela/pagos/ordenes-pago/{ordenPagoId}/archivo cuando los parametros de rendimiento son  60 repeticiones por  60 segundos con 10 repeticiones</t>
-  </si>
-  <si>
-    <t>Validar el performance del API router-cert-router.cert-apps.hoprodntx.vuce.gob.pe/v1/vuce-services/pasarela/pagos/ordenes-pago/{ordenPagoId}/status cuando los parametros de rendimiento son  60 repeticiones por  60 segundos con 10 repeticiones</t>
-  </si>
-  <si>
     <t>Anular una Orden de Pago con el ID de la orden de pago y enviar una notificación por Kafka de la anulación</t>
   </si>
   <si>
@@ -1820,73 +1820,105 @@
 02 PODs con 712 MiB + 4 particiones de Kafka </t>
   </si>
   <si>
+    <t>RELEASE 3: Pasarela - Pruebas No funcionales</t>
+  </si>
+  <si>
+    <t>El sistema muesta como resultado, el indice que cumple dentro de la tolerancia definida en el umbral.</t>
+  </si>
+  <si>
     <t>1. Ingresar el protocolo y el dominio que perteneiente al API en "HTTP Request Defaults"
-2. Ingresar los parámetros de ingreso requeridos para la ejecución
-3. Ingresar la ruta del API en la herramienta Jmeter y su respectivo Metodo con Body Data (de ser necesario)
-4. Ingresar las caracteristas de la cabecera en el "HTTP Header Manager"
-5. Clic en el botón "Start"
-6: Se valida los umbrales esperados entre 95% a 100% de peticiones procesadas sin fallos durante 60 segundos</t>
-  </si>
-  <si>
-    <t>1. Ingresar el protocolo y el dominio que perteneiente al API en "HTTP Request Defaults"
-2. Ingresar los parámetros de ingreso requeridos para la ejecución
-3. Ingresar la ruta del API en la herramienta Jmeter y su respectivo Metodo con Body Data (de ser necesario)
-4. Ingresar las caracteristas de la cabecera en el "HTTP Header Manager"
-5. Clic en el botón "Start"
-6: Se valida los umbrales esperados al 100% de transacciones revertidas del total de transacciones realizadas</t>
-  </si>
-  <si>
-    <t>1. Ingresar el protocolo y el dominio que perteneiente al API en "HTTP Request Defaults"
-2. Ingresar los parámetros de ingreso requeridos para la ejecución
-3. Ingresar la ruta del API en la herramienta Jmeter y su respectivo Metodo con Body Data (de ser necesario)
-4. Ingresar las caracteristas de la cabecera en el "HTTP Header Manager"
-5. Clic en el botón "Start"
-6: Se valida los umbrales esperados entre 95% a 100% de peticiones procesadas sin fallos durante 40 segundos</t>
-  </si>
-  <si>
-    <t>1. Ingresar el protocolo y el dominio que perteneiente al API en "HTTP Request Defaults"
-2. Ingresar los parámetros de ingreso requeridos para la ejecución
-3. Ingresar la ruta del API en la herramienta Jmeter y su respectivo Metodo con Body Data (de ser necesario)
-4. Ingresar las caracteristas de la cabecera en el "HTTP Header Manager"
-5. Clic en el botón "Start"
-6: Se valida los umbrales esperados entre 100 ms a 4000 ms de tiempo máximo de ejecución de una transacción desde recibida la petición en el cliente</t>
-  </si>
-  <si>
-    <t>1. Ingresar el protocolo y el dominio que perteneiente al API en "HTTP Request Defaults"
-2. Ingresar los parámetros de ingreso requeridos para la ejecución
-3. Ingresar la ruta del API en la herramienta Jmeter y su respectivo Metodo con Body Data (de ser necesario)
-4. Ingresar las caracteristas de la cabecera en el "HTTP Header Manager"
-5. Clic en el botón "Start"
-6: Se valida los umbrales esperados entre 600 ms a 1500 ms el tiempo de respuesta para que la consulta que devuelva un registro</t>
-  </si>
-  <si>
-    <t>1. Ingresar el protocolo y el dominio que perteneiente al API en "HTTP Request Defaults"
-2. Ingresar los parámetros de ingreso requeridos para la ejecución
-3. Ingresar la ruta del API en la herramienta Jmeter y su respectivo Metodo con Body Data (de ser necesario)
-4. Ingresar las caracteristas de la cabecera en el "HTTP Header Manager"
-5. Clic en el botón "Start"
-6: Se valida los umbrales esperados entre  400 ms (o menor) a 2000 ms el tiempo de respuesta para que la consulta que devuelva un registro</t>
-  </si>
-  <si>
-    <t>1. Ingresar el protocolo y el dominio que perteneiente al API en "HTTP Request Defaults"
-2. Ingresar los parámetros de ingreso requeridos para la ejecución
-3. Ingresar la ruta del API en la herramienta Jmeter y su respectivo Metodo con Body Data (de ser necesario)
-4. Ingresar las caracteristas de la cabecera en el "HTTP Header Manager"
-5. Clic en el botón "Start"
-6: Se valida los umbrales esperados entre  100 ms (o menor) a 600 ms el tiempo de respuesta para que la consulta que devuelva un registro</t>
-  </si>
-  <si>
-    <t>RELEASE 3: Pasarela - Pruebas No funcionales</t>
-  </si>
-  <si>
-    <t>El sistema muesta como resultado, el indice que cumple dentro de la tolerancia definida en el umbral.</t>
+2. Ingresar las caracteristas de la cabecera en el "HTTP Header Manager"
+3. Ingresar los parámetros: Número de hilos, Ramp-up en segundos en Thread Group
+4. Ingresar la ruta del API en la herramienta Jmeter y su respectivo Metodo con Body Data (de ser necesario)
+5. Clic en el botón "Start" y validar las respuestas en el "View Results Tree" y/o "Summary Report"</t>
+  </si>
+  <si>
+    <t>Validar el performance del API /v1/vuce-services/pasarela/pagos/ordenes-pago/sunat cuando los parametros de rendimiento son 15 Peticiones x 60 Segundos x 10 Repeticiones</t>
+  </si>
+  <si>
+    <t>Validar el performance del API /v1/vuce-services/pasarela/pagos/ordenes-pago/{ordenPagoId}/anulacion cuando los parametros de rendimiento son 15 Peticiones x 60 Segundos x 10 Repeticiones</t>
+  </si>
+  <si>
+    <t>Validar el performance del API /v1/vuce-services/pasarela/pagos/ordenes-pago/expirado cuando los parametros de rendimiento son 15 Peticiones x 60 Segundos x 10 Repeticiones</t>
+  </si>
+  <si>
+    <t>Validar el performance del API /v1/vuce-services/pasarela/pagos/ordenes-pago/transferencia-bancaria cuando los parametros de rendimiento son 15 Peticiones x 60 Segundos x 10 Repeticiones</t>
+  </si>
+  <si>
+    <t>Validar el performance del API /v1/vuce-services/pasarela/pagos/ordenes-pago/cpb/{cpb}/extorno cuando los parametros de rendimiento son 15 Peticiones x 60 Segundos x 10 Repeticiones</t>
+  </si>
+  <si>
+    <t>Validar el performance del API /v1/vuce-services/pasarela/pagos/ordenes-pago/cpb/{cpb}/pago cuando los parametros de rendimiento son 15 Peticiones x 60 Segundos x 10 Repeticiones</t>
+  </si>
+  <si>
+    <t>Validar el performance del API /v1/vuce-services/pasarela/pagos/ordenes-pago/{ordenPagoId}/extorno cuando los parametros de rendimiento son 15 Peticiones x 60 Segundos x 10 Repeticiones</t>
+  </si>
+  <si>
+    <t>Validar el performance del API /v1/vuce-services/pasarela/pagos/ordenes-pago/{ordenPagoId}/pago cuando los parametros de rendimiento son 15 Peticiones x 60 Segundos x 10 Repeticiones</t>
+  </si>
+  <si>
+    <t>Validar el performance del API /v1/vuce-services/pasarela/pagos/ordenes-pago/reasignacion cuando los parametros de rendimiento son 15 Peticiones x 60 Segundos x 10 Repeticiones</t>
+  </si>
+  <si>
+    <t>Validar el performance del API /v1/vuce-services/pasarela/ordenes-pago/actualizaciondatos cuando los parametros de rendimiento son 1 Peticiones x 60 Segundos x 1 Repeticiones</t>
+  </si>
+  <si>
+    <t>Validar el performance del API /v1/vuce-services/pasarela/liquidaciones/ cuando los parametros de rendimiento son 1 Peticiones x 60 Segundos x 1 Repeticiones</t>
+  </si>
+  <si>
+    <t>Validar el performance del API /v1/vuce-services/pasarela/liquidaciones/reporte-mensual cuando los parametros de rendimiento son 1 Peticiones x 60 Segundos x 1 Repeticiones</t>
+  </si>
+  <si>
+    <t>Validar el performance del API /v1/vuce-services/pasarela/pagos/ordenes-pago/sunat cuando los parametros de rendimiento son 73 Peticiones x 40 Segundos x 10 Repeticiones</t>
+  </si>
+  <si>
+    <t>Validar el performance del API /v1/vuce-services/pasarela/pagos/ordenes-pago/{ordenPagoId}/anulacion cuando los parametros de rendimiento son 73 Peticiones x 40 Segundos x 10 Repeticiones</t>
+  </si>
+  <si>
+    <t>Validar el performance del API /v1/vuce-services/pasarela/pagos/ordenes-pago/expirado cuando los parametros de rendimiento son 73 Peticiones x 40 Segundos x 10 Repeticiones</t>
+  </si>
+  <si>
+    <t>Validar el performance del API /v1/vuce-services/pasarela/pagos/ordenes-pago/transferencia-bancaria cuando los parametros de rendimiento son 73 Peticiones x 40 Segundos x 10 Repeticiones</t>
+  </si>
+  <si>
+    <t>Validar el performance del API /v1/vuce-services/pasarela/pagos/ordenes-pago/cpb/{cpb}/extorno cuando los parametros de rendimiento son 73 Peticiones x 40 Segundos x 10 Repeticiones</t>
+  </si>
+  <si>
+    <t>Validar el performance del API /v1/vuce-services/pasarela/pagos/ordenes-pago/cpb/{cpb}/pago cuando los parametros de rendimiento son 73 Peticiones x 40 Segundos x 10 Repeticiones</t>
+  </si>
+  <si>
+    <t>Validar el performance del API /v1/vuce-services/pasarela/pagos/ordenes-pago/{ordenPagoId}/extorno cuando los parametros de rendimiento son 73 Peticiones x 40 Segundos x 10 Repeticiones</t>
+  </si>
+  <si>
+    <t>Validar el performance del API /v1/vuce-services/pasarela/pagos/ordenes-pago/{ordenPagoId}/pago cuando los parametros de rendimiento son 73 Peticiones x 40 Segundos x 10 Repeticiones</t>
+  </si>
+  <si>
+    <t>Validar el performance del API /v1/vuce-services/pasarela/pagos/ordenes-pago/reasignacion cuando los parametros de rendimiento son 73 Peticiones x 40 Segundos x 10 Repeticiones</t>
+  </si>
+  <si>
+    <t>Validar el performance del API /v1/vuce-services/pasarela/liquidaciones/reporte-ordenes-pago?entidadId=38&amp;fechaDesde=20230901&amp;fechaHasta=20240630 cuando los parametros de rendimiento son 15 Peticiones x 60 Segundos x 10 Repeticiones</t>
+  </si>
+  <si>
+    <t>Validar el performance del API /v1/vuce-services/pasarela/pagos/ordenes-pago/{ordenPagoId}/archivo cuando los parametros de rendimiento son 15 Peticiones x 60 Segundos x 10 Repeticiones</t>
+  </si>
+  <si>
+    <t>Validar el performance del API /v1/vuce-services/pasarela/pagos/ordenes-pago/{ordenPagoId}/status cuando los parametros de rendimiento son 15 Peticiones x 60 Segundos x 10 Repeticiones</t>
+  </si>
+  <si>
+    <t>15 Peticiones x 60 Segundos x 10 Repeticiones</t>
+  </si>
+  <si>
+    <t>1 Peticiones x 60 Segundos x 1 Repeticiones</t>
+  </si>
+  <si>
+    <t>73 Peticiones x 40 Segundos x 10 Repeticiones</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1993,21 +2025,10 @@
       <family val="2"/>
     </font>
     <font>
-      <i/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -2015,6 +2036,7 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2580,7 +2602,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="176">
+  <cellXfs count="177">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2748,13 +2770,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2764,6 +2786,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2782,10 +2819,40 @@
     <xf numFmtId="2" fontId="2" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2864,6 +2931,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3016,73 +3101,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -18423,11 +18448,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:AX115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O85" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AW44" sqref="AW44:AW88"/>
+    <sheetView tabSelected="1" topLeftCell="A83" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="U86" sqref="U86:Z86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -18471,373 +18496,373 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:45" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J3" s="144" t="s">
+      <c r="J3" s="165" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="144"/>
-      <c r="L3" s="144"/>
-      <c r="M3" s="144"/>
-      <c r="N3" s="144"/>
-      <c r="O3" s="144"/>
-      <c r="P3" s="144"/>
-      <c r="Q3" s="144"/>
-      <c r="R3" s="144"/>
-      <c r="S3" s="144"/>
-      <c r="T3" s="144"/>
-      <c r="U3" s="144"/>
-      <c r="V3" s="144"/>
-      <c r="W3" s="144"/>
-      <c r="X3" s="144"/>
-      <c r="Y3" s="144"/>
-      <c r="Z3" s="144"/>
-      <c r="AA3" s="144"/>
-      <c r="AB3" s="144"/>
-      <c r="AC3" s="144"/>
-      <c r="AD3" s="144"/>
-      <c r="AE3" s="144"/>
-      <c r="AF3" s="144"/>
-      <c r="AG3" s="144"/>
-      <c r="AH3" s="144"/>
-      <c r="AI3" s="144"/>
-      <c r="AJ3" s="144"/>
-      <c r="AK3" s="144"/>
-      <c r="AL3" s="144"/>
-      <c r="AM3" s="144"/>
-      <c r="AN3" s="144"/>
-      <c r="AO3" s="144"/>
-      <c r="AP3" s="144"/>
-      <c r="AQ3" s="144"/>
+      <c r="K3" s="165"/>
+      <c r="L3" s="165"/>
+      <c r="M3" s="165"/>
+      <c r="N3" s="165"/>
+      <c r="O3" s="165"/>
+      <c r="P3" s="165"/>
+      <c r="Q3" s="165"/>
+      <c r="R3" s="165"/>
+      <c r="S3" s="165"/>
+      <c r="T3" s="165"/>
+      <c r="U3" s="165"/>
+      <c r="V3" s="165"/>
+      <c r="W3" s="165"/>
+      <c r="X3" s="165"/>
+      <c r="Y3" s="165"/>
+      <c r="Z3" s="165"/>
+      <c r="AA3" s="165"/>
+      <c r="AB3" s="165"/>
+      <c r="AC3" s="165"/>
+      <c r="AD3" s="165"/>
+      <c r="AE3" s="165"/>
+      <c r="AF3" s="165"/>
+      <c r="AG3" s="165"/>
+      <c r="AH3" s="165"/>
+      <c r="AI3" s="165"/>
+      <c r="AJ3" s="165"/>
+      <c r="AK3" s="165"/>
+      <c r="AL3" s="165"/>
+      <c r="AM3" s="165"/>
+      <c r="AN3" s="165"/>
+      <c r="AO3" s="165"/>
+      <c r="AP3" s="165"/>
+      <c r="AQ3" s="165"/>
       <c r="AR3" s="37"/>
       <c r="AS3" s="37"/>
     </row>
     <row r="4" spans="1:45" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J4" s="144"/>
-      <c r="K4" s="144"/>
-      <c r="L4" s="144"/>
-      <c r="M4" s="144"/>
-      <c r="N4" s="144"/>
-      <c r="O4" s="144"/>
-      <c r="P4" s="144"/>
-      <c r="Q4" s="144"/>
-      <c r="R4" s="144"/>
-      <c r="S4" s="144"/>
-      <c r="T4" s="144"/>
-      <c r="U4" s="144"/>
-      <c r="V4" s="144"/>
-      <c r="W4" s="144"/>
-      <c r="X4" s="144"/>
-      <c r="Y4" s="144"/>
-      <c r="Z4" s="144"/>
-      <c r="AA4" s="144"/>
-      <c r="AB4" s="144"/>
-      <c r="AC4" s="144"/>
-      <c r="AD4" s="144"/>
-      <c r="AE4" s="144"/>
-      <c r="AF4" s="144"/>
-      <c r="AG4" s="144"/>
-      <c r="AH4" s="144"/>
-      <c r="AI4" s="144"/>
-      <c r="AJ4" s="144"/>
-      <c r="AK4" s="144"/>
-      <c r="AL4" s="144"/>
-      <c r="AM4" s="144"/>
-      <c r="AN4" s="144"/>
-      <c r="AO4" s="144"/>
-      <c r="AP4" s="144"/>
-      <c r="AQ4" s="144"/>
+      <c r="J4" s="165"/>
+      <c r="K4" s="165"/>
+      <c r="L4" s="165"/>
+      <c r="M4" s="165"/>
+      <c r="N4" s="165"/>
+      <c r="O4" s="165"/>
+      <c r="P4" s="165"/>
+      <c r="Q4" s="165"/>
+      <c r="R4" s="165"/>
+      <c r="S4" s="165"/>
+      <c r="T4" s="165"/>
+      <c r="U4" s="165"/>
+      <c r="V4" s="165"/>
+      <c r="W4" s="165"/>
+      <c r="X4" s="165"/>
+      <c r="Y4" s="165"/>
+      <c r="Z4" s="165"/>
+      <c r="AA4" s="165"/>
+      <c r="AB4" s="165"/>
+      <c r="AC4" s="165"/>
+      <c r="AD4" s="165"/>
+      <c r="AE4" s="165"/>
+      <c r="AF4" s="165"/>
+      <c r="AG4" s="165"/>
+      <c r="AH4" s="165"/>
+      <c r="AI4" s="165"/>
+      <c r="AJ4" s="165"/>
+      <c r="AK4" s="165"/>
+      <c r="AL4" s="165"/>
+      <c r="AM4" s="165"/>
+      <c r="AN4" s="165"/>
+      <c r="AO4" s="165"/>
+      <c r="AP4" s="165"/>
+      <c r="AQ4" s="165"/>
       <c r="AR4" s="37"/>
       <c r="AS4" s="37"/>
     </row>
     <row r="5" spans="1:45" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="6" spans="1:45" ht="6.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I7" s="145" t="s">
+      <c r="I7" s="166" t="s">
         <v>1</v>
       </c>
-      <c r="J7" s="145"/>
-      <c r="K7" s="145"/>
-      <c r="L7" s="145"/>
-      <c r="M7" s="145"/>
-      <c r="N7" s="145"/>
-      <c r="O7" s="145"/>
-      <c r="P7" s="145"/>
-      <c r="Q7" s="145"/>
-      <c r="R7" s="145"/>
-      <c r="S7" s="145"/>
-      <c r="T7" s="145"/>
-      <c r="U7" s="145"/>
-      <c r="V7" s="145"/>
-      <c r="W7" s="145"/>
-      <c r="X7" s="145"/>
-      <c r="Y7" s="145"/>
-      <c r="Z7" s="145"/>
-      <c r="AA7" s="145"/>
-      <c r="AB7" s="145"/>
-      <c r="AC7" s="145"/>
-      <c r="AD7" s="145"/>
-      <c r="AE7" s="145"/>
-      <c r="AF7" s="145"/>
-      <c r="AG7" s="145"/>
-      <c r="AH7" s="145"/>
-      <c r="AI7" s="145"/>
-      <c r="AJ7" s="145"/>
-      <c r="AK7" s="145"/>
-      <c r="AL7" s="145"/>
-      <c r="AM7" s="145"/>
-      <c r="AN7" s="145"/>
-      <c r="AO7" s="145"/>
-      <c r="AP7" s="145"/>
-      <c r="AQ7" s="145"/>
+      <c r="J7" s="166"/>
+      <c r="K7" s="166"/>
+      <c r="L7" s="166"/>
+      <c r="M7" s="166"/>
+      <c r="N7" s="166"/>
+      <c r="O7" s="166"/>
+      <c r="P7" s="166"/>
+      <c r="Q7" s="166"/>
+      <c r="R7" s="166"/>
+      <c r="S7" s="166"/>
+      <c r="T7" s="166"/>
+      <c r="U7" s="166"/>
+      <c r="V7" s="166"/>
+      <c r="W7" s="166"/>
+      <c r="X7" s="166"/>
+      <c r="Y7" s="166"/>
+      <c r="Z7" s="166"/>
+      <c r="AA7" s="166"/>
+      <c r="AB7" s="166"/>
+      <c r="AC7" s="166"/>
+      <c r="AD7" s="166"/>
+      <c r="AE7" s="166"/>
+      <c r="AF7" s="166"/>
+      <c r="AG7" s="166"/>
+      <c r="AH7" s="166"/>
+      <c r="AI7" s="166"/>
+      <c r="AJ7" s="166"/>
+      <c r="AK7" s="166"/>
+      <c r="AL7" s="166"/>
+      <c r="AM7" s="166"/>
+      <c r="AN7" s="166"/>
+      <c r="AO7" s="166"/>
+      <c r="AP7" s="166"/>
+      <c r="AQ7" s="166"/>
       <c r="AR7" s="39"/>
       <c r="AS7" s="39"/>
     </row>
     <row r="8" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I8" s="146" t="s">
+      <c r="I8" s="167" t="s">
         <v>2</v>
       </c>
-      <c r="J8" s="147"/>
-      <c r="K8" s="146" t="s">
+      <c r="J8" s="168"/>
+      <c r="K8" s="167" t="s">
         <v>3</v>
       </c>
-      <c r="L8" s="147"/>
-      <c r="M8" s="146" t="s">
+      <c r="L8" s="168"/>
+      <c r="M8" s="167" t="s">
         <v>4</v>
       </c>
-      <c r="N8" s="148"/>
-      <c r="O8" s="148"/>
-      <c r="P8" s="148"/>
-      <c r="Q8" s="148"/>
-      <c r="R8" s="148"/>
-      <c r="S8" s="148"/>
-      <c r="T8" s="148"/>
-      <c r="U8" s="148"/>
-      <c r="V8" s="148"/>
-      <c r="W8" s="148"/>
-      <c r="X8" s="148"/>
-      <c r="Y8" s="148"/>
-      <c r="Z8" s="148"/>
-      <c r="AA8" s="148"/>
-      <c r="AB8" s="148"/>
-      <c r="AC8" s="148"/>
-      <c r="AD8" s="148"/>
-      <c r="AE8" s="148"/>
-      <c r="AF8" s="148"/>
-      <c r="AG8" s="147"/>
-      <c r="AH8" s="146" t="s">
+      <c r="N8" s="169"/>
+      <c r="O8" s="169"/>
+      <c r="P8" s="169"/>
+      <c r="Q8" s="169"/>
+      <c r="R8" s="169"/>
+      <c r="S8" s="169"/>
+      <c r="T8" s="169"/>
+      <c r="U8" s="169"/>
+      <c r="V8" s="169"/>
+      <c r="W8" s="169"/>
+      <c r="X8" s="169"/>
+      <c r="Y8" s="169"/>
+      <c r="Z8" s="169"/>
+      <c r="AA8" s="169"/>
+      <c r="AB8" s="169"/>
+      <c r="AC8" s="169"/>
+      <c r="AD8" s="169"/>
+      <c r="AE8" s="169"/>
+      <c r="AF8" s="169"/>
+      <c r="AG8" s="168"/>
+      <c r="AH8" s="167" t="s">
         <v>5</v>
       </c>
-      <c r="AI8" s="148"/>
-      <c r="AJ8" s="148"/>
-      <c r="AK8" s="148"/>
-      <c r="AL8" s="148"/>
-      <c r="AM8" s="148"/>
-      <c r="AN8" s="148"/>
-      <c r="AO8" s="148"/>
-      <c r="AP8" s="148"/>
-      <c r="AQ8" s="147"/>
+      <c r="AI8" s="169"/>
+      <c r="AJ8" s="169"/>
+      <c r="AK8" s="169"/>
+      <c r="AL8" s="169"/>
+      <c r="AM8" s="169"/>
+      <c r="AN8" s="169"/>
+      <c r="AO8" s="169"/>
+      <c r="AP8" s="169"/>
+      <c r="AQ8" s="168"/>
       <c r="AR8" s="39"/>
       <c r="AS8" s="39"/>
     </row>
     <row r="9" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I9" s="122">
+      <c r="I9" s="143">
         <v>45945</v>
       </c>
-      <c r="J9" s="123"/>
-      <c r="K9" s="110" t="s">
+      <c r="J9" s="144"/>
+      <c r="K9" s="131" t="s">
         <v>6</v>
       </c>
-      <c r="L9" s="111"/>
-      <c r="M9" s="113" t="s">
-        <v>280</v>
-      </c>
-      <c r="N9" s="114"/>
-      <c r="O9" s="114"/>
-      <c r="P9" s="114"/>
-      <c r="Q9" s="114"/>
-      <c r="R9" s="114"/>
-      <c r="S9" s="114"/>
-      <c r="T9" s="114"/>
-      <c r="U9" s="114"/>
-      <c r="V9" s="114"/>
-      <c r="W9" s="114"/>
-      <c r="X9" s="114"/>
-      <c r="Y9" s="114"/>
-      <c r="Z9" s="114"/>
-      <c r="AA9" s="114"/>
-      <c r="AB9" s="114"/>
-      <c r="AC9" s="114"/>
-      <c r="AD9" s="114"/>
-      <c r="AE9" s="114"/>
-      <c r="AF9" s="114"/>
-      <c r="AG9" s="115"/>
-      <c r="AH9" s="113" t="s">
+      <c r="L9" s="132"/>
+      <c r="M9" s="134" t="s">
+        <v>257</v>
+      </c>
+      <c r="N9" s="135"/>
+      <c r="O9" s="135"/>
+      <c r="P9" s="135"/>
+      <c r="Q9" s="135"/>
+      <c r="R9" s="135"/>
+      <c r="S9" s="135"/>
+      <c r="T9" s="135"/>
+      <c r="U9" s="135"/>
+      <c r="V9" s="135"/>
+      <c r="W9" s="135"/>
+      <c r="X9" s="135"/>
+      <c r="Y9" s="135"/>
+      <c r="Z9" s="135"/>
+      <c r="AA9" s="135"/>
+      <c r="AB9" s="135"/>
+      <c r="AC9" s="135"/>
+      <c r="AD9" s="135"/>
+      <c r="AE9" s="135"/>
+      <c r="AF9" s="135"/>
+      <c r="AG9" s="136"/>
+      <c r="AH9" s="134" t="s">
         <v>183</v>
       </c>
-      <c r="AI9" s="114"/>
-      <c r="AJ9" s="114"/>
-      <c r="AK9" s="114"/>
-      <c r="AL9" s="114"/>
-      <c r="AM9" s="114"/>
-      <c r="AN9" s="114"/>
-      <c r="AO9" s="114"/>
-      <c r="AP9" s="114"/>
-      <c r="AQ9" s="115"/>
+      <c r="AI9" s="135"/>
+      <c r="AJ9" s="135"/>
+      <c r="AK9" s="135"/>
+      <c r="AL9" s="135"/>
+      <c r="AM9" s="135"/>
+      <c r="AN9" s="135"/>
+      <c r="AO9" s="135"/>
+      <c r="AP9" s="135"/>
+      <c r="AQ9" s="136"/>
       <c r="AR9" s="39"/>
       <c r="AS9" s="39"/>
     </row>
     <row r="10" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I10" s="108"/>
-      <c r="J10" s="109"/>
-      <c r="K10" s="110"/>
-      <c r="L10" s="111"/>
-      <c r="M10" s="108"/>
-      <c r="N10" s="112"/>
-      <c r="O10" s="112"/>
-      <c r="P10" s="112"/>
-      <c r="Q10" s="112"/>
-      <c r="R10" s="112"/>
-      <c r="S10" s="112"/>
-      <c r="T10" s="112"/>
-      <c r="U10" s="112"/>
-      <c r="V10" s="112"/>
-      <c r="W10" s="112"/>
-      <c r="X10" s="112"/>
-      <c r="Y10" s="112"/>
-      <c r="Z10" s="112"/>
-      <c r="AA10" s="112"/>
-      <c r="AB10" s="112"/>
-      <c r="AC10" s="112"/>
-      <c r="AD10" s="112"/>
-      <c r="AE10" s="112"/>
-      <c r="AF10" s="112"/>
-      <c r="AG10" s="109"/>
-      <c r="AH10" s="113"/>
-      <c r="AI10" s="114"/>
-      <c r="AJ10" s="114"/>
-      <c r="AK10" s="114"/>
-      <c r="AL10" s="114"/>
-      <c r="AM10" s="114"/>
-      <c r="AN10" s="114"/>
-      <c r="AO10" s="114"/>
-      <c r="AP10" s="114"/>
-      <c r="AQ10" s="115"/>
+      <c r="I10" s="129"/>
+      <c r="J10" s="130"/>
+      <c r="K10" s="131"/>
+      <c r="L10" s="132"/>
+      <c r="M10" s="129"/>
+      <c r="N10" s="133"/>
+      <c r="O10" s="133"/>
+      <c r="P10" s="133"/>
+      <c r="Q10" s="133"/>
+      <c r="R10" s="133"/>
+      <c r="S10" s="133"/>
+      <c r="T10" s="133"/>
+      <c r="U10" s="133"/>
+      <c r="V10" s="133"/>
+      <c r="W10" s="133"/>
+      <c r="X10" s="133"/>
+      <c r="Y10" s="133"/>
+      <c r="Z10" s="133"/>
+      <c r="AA10" s="133"/>
+      <c r="AB10" s="133"/>
+      <c r="AC10" s="133"/>
+      <c r="AD10" s="133"/>
+      <c r="AE10" s="133"/>
+      <c r="AF10" s="133"/>
+      <c r="AG10" s="130"/>
+      <c r="AH10" s="134"/>
+      <c r="AI10" s="135"/>
+      <c r="AJ10" s="135"/>
+      <c r="AK10" s="135"/>
+      <c r="AL10" s="135"/>
+      <c r="AM10" s="135"/>
+      <c r="AN10" s="135"/>
+      <c r="AO10" s="135"/>
+      <c r="AP10" s="135"/>
+      <c r="AQ10" s="136"/>
       <c r="AR10" s="39"/>
       <c r="AS10" s="39"/>
     </row>
     <row r="11" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I11" s="108"/>
-      <c r="J11" s="109"/>
-      <c r="K11" s="110"/>
-      <c r="L11" s="111"/>
-      <c r="M11" s="108"/>
-      <c r="N11" s="112"/>
-      <c r="O11" s="112"/>
-      <c r="P11" s="112"/>
-      <c r="Q11" s="112"/>
-      <c r="R11" s="112"/>
-      <c r="S11" s="112"/>
-      <c r="T11" s="112"/>
-      <c r="U11" s="112"/>
-      <c r="V11" s="112"/>
-      <c r="W11" s="112"/>
-      <c r="X11" s="112"/>
-      <c r="Y11" s="112"/>
-      <c r="Z11" s="112"/>
-      <c r="AA11" s="112"/>
-      <c r="AB11" s="112"/>
-      <c r="AC11" s="112"/>
-      <c r="AD11" s="112"/>
-      <c r="AE11" s="112"/>
-      <c r="AF11" s="112"/>
-      <c r="AG11" s="109"/>
-      <c r="AH11" s="113"/>
-      <c r="AI11" s="114"/>
-      <c r="AJ11" s="114"/>
-      <c r="AK11" s="114"/>
-      <c r="AL11" s="114"/>
-      <c r="AM11" s="114"/>
-      <c r="AN11" s="114"/>
-      <c r="AO11" s="114"/>
-      <c r="AP11" s="114"/>
-      <c r="AQ11" s="115"/>
+      <c r="I11" s="129"/>
+      <c r="J11" s="130"/>
+      <c r="K11" s="131"/>
+      <c r="L11" s="132"/>
+      <c r="M11" s="129"/>
+      <c r="N11" s="133"/>
+      <c r="O11" s="133"/>
+      <c r="P11" s="133"/>
+      <c r="Q11" s="133"/>
+      <c r="R11" s="133"/>
+      <c r="S11" s="133"/>
+      <c r="T11" s="133"/>
+      <c r="U11" s="133"/>
+      <c r="V11" s="133"/>
+      <c r="W11" s="133"/>
+      <c r="X11" s="133"/>
+      <c r="Y11" s="133"/>
+      <c r="Z11" s="133"/>
+      <c r="AA11" s="133"/>
+      <c r="AB11" s="133"/>
+      <c r="AC11" s="133"/>
+      <c r="AD11" s="133"/>
+      <c r="AE11" s="133"/>
+      <c r="AF11" s="133"/>
+      <c r="AG11" s="130"/>
+      <c r="AH11" s="134"/>
+      <c r="AI11" s="135"/>
+      <c r="AJ11" s="135"/>
+      <c r="AK11" s="135"/>
+      <c r="AL11" s="135"/>
+      <c r="AM11" s="135"/>
+      <c r="AN11" s="135"/>
+      <c r="AO11" s="135"/>
+      <c r="AP11" s="135"/>
+      <c r="AQ11" s="136"/>
       <c r="AR11" s="40"/>
       <c r="AS11" s="40"/>
     </row>
     <row r="12" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I12" s="122"/>
-      <c r="J12" s="123"/>
-      <c r="K12" s="124"/>
-      <c r="L12" s="125"/>
-      <c r="M12" s="113"/>
-      <c r="N12" s="114"/>
-      <c r="O12" s="114"/>
-      <c r="P12" s="114"/>
-      <c r="Q12" s="114"/>
-      <c r="R12" s="114"/>
-      <c r="S12" s="114"/>
-      <c r="T12" s="114"/>
-      <c r="U12" s="114"/>
-      <c r="V12" s="114"/>
-      <c r="W12" s="114"/>
-      <c r="X12" s="114"/>
-      <c r="Y12" s="114"/>
-      <c r="Z12" s="114"/>
-      <c r="AA12" s="114"/>
-      <c r="AB12" s="114"/>
-      <c r="AC12" s="114"/>
-      <c r="AD12" s="114"/>
-      <c r="AE12" s="114"/>
-      <c r="AF12" s="114"/>
-      <c r="AG12" s="115"/>
-      <c r="AH12" s="113"/>
-      <c r="AI12" s="114"/>
-      <c r="AJ12" s="114"/>
-      <c r="AK12" s="114"/>
-      <c r="AL12" s="114"/>
-      <c r="AM12" s="114"/>
-      <c r="AN12" s="114"/>
-      <c r="AO12" s="114"/>
-      <c r="AP12" s="114"/>
-      <c r="AQ12" s="115"/>
+      <c r="I12" s="143"/>
+      <c r="J12" s="144"/>
+      <c r="K12" s="145"/>
+      <c r="L12" s="146"/>
+      <c r="M12" s="134"/>
+      <c r="N12" s="135"/>
+      <c r="O12" s="135"/>
+      <c r="P12" s="135"/>
+      <c r="Q12" s="135"/>
+      <c r="R12" s="135"/>
+      <c r="S12" s="135"/>
+      <c r="T12" s="135"/>
+      <c r="U12" s="135"/>
+      <c r="V12" s="135"/>
+      <c r="W12" s="135"/>
+      <c r="X12" s="135"/>
+      <c r="Y12" s="135"/>
+      <c r="Z12" s="135"/>
+      <c r="AA12" s="135"/>
+      <c r="AB12" s="135"/>
+      <c r="AC12" s="135"/>
+      <c r="AD12" s="135"/>
+      <c r="AE12" s="135"/>
+      <c r="AF12" s="135"/>
+      <c r="AG12" s="136"/>
+      <c r="AH12" s="134"/>
+      <c r="AI12" s="135"/>
+      <c r="AJ12" s="135"/>
+      <c r="AK12" s="135"/>
+      <c r="AL12" s="135"/>
+      <c r="AM12" s="135"/>
+      <c r="AN12" s="135"/>
+      <c r="AO12" s="135"/>
+      <c r="AP12" s="135"/>
+      <c r="AQ12" s="136"/>
       <c r="AR12" s="40"/>
       <c r="AS12" s="16"/>
     </row>
     <row r="13" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I13" s="122"/>
-      <c r="J13" s="123"/>
-      <c r="K13" s="124"/>
-      <c r="L13" s="125"/>
-      <c r="M13" s="113"/>
-      <c r="N13" s="114"/>
-      <c r="O13" s="114"/>
-      <c r="P13" s="114"/>
-      <c r="Q13" s="114"/>
-      <c r="R13" s="114"/>
-      <c r="S13" s="114"/>
-      <c r="T13" s="114"/>
-      <c r="U13" s="114"/>
-      <c r="V13" s="114"/>
-      <c r="W13" s="114"/>
-      <c r="X13" s="114"/>
-      <c r="Y13" s="114"/>
-      <c r="Z13" s="114"/>
-      <c r="AA13" s="114"/>
-      <c r="AB13" s="114"/>
-      <c r="AC13" s="114"/>
-      <c r="AD13" s="114"/>
-      <c r="AE13" s="114"/>
-      <c r="AF13" s="114"/>
-      <c r="AG13" s="115"/>
-      <c r="AH13" s="113"/>
-      <c r="AI13" s="114"/>
-      <c r="AJ13" s="114"/>
-      <c r="AK13" s="114"/>
-      <c r="AL13" s="114"/>
-      <c r="AM13" s="114"/>
-      <c r="AN13" s="114"/>
-      <c r="AO13" s="114"/>
-      <c r="AP13" s="114"/>
-      <c r="AQ13" s="115"/>
+      <c r="I13" s="143"/>
+      <c r="J13" s="144"/>
+      <c r="K13" s="145"/>
+      <c r="L13" s="146"/>
+      <c r="M13" s="134"/>
+      <c r="N13" s="135"/>
+      <c r="O13" s="135"/>
+      <c r="P13" s="135"/>
+      <c r="Q13" s="135"/>
+      <c r="R13" s="135"/>
+      <c r="S13" s="135"/>
+      <c r="T13" s="135"/>
+      <c r="U13" s="135"/>
+      <c r="V13" s="135"/>
+      <c r="W13" s="135"/>
+      <c r="X13" s="135"/>
+      <c r="Y13" s="135"/>
+      <c r="Z13" s="135"/>
+      <c r="AA13" s="135"/>
+      <c r="AB13" s="135"/>
+      <c r="AC13" s="135"/>
+      <c r="AD13" s="135"/>
+      <c r="AE13" s="135"/>
+      <c r="AF13" s="135"/>
+      <c r="AG13" s="136"/>
+      <c r="AH13" s="134"/>
+      <c r="AI13" s="135"/>
+      <c r="AJ13" s="135"/>
+      <c r="AK13" s="135"/>
+      <c r="AL13" s="135"/>
+      <c r="AM13" s="135"/>
+      <c r="AN13" s="135"/>
+      <c r="AO13" s="135"/>
+      <c r="AP13" s="135"/>
+      <c r="AQ13" s="136"/>
       <c r="AR13" s="40"/>
       <c r="AS13" s="16"/>
     </row>
@@ -18885,150 +18910,150 @@
     </row>
     <row r="16" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A16" s="15"/>
-      <c r="B16" s="116" t="s">
+      <c r="B16" s="137" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="117"/>
-      <c r="D16" s="117"/>
-      <c r="E16" s="117"/>
-      <c r="F16" s="117"/>
-      <c r="G16" s="117"/>
-      <c r="H16" s="117"/>
-      <c r="I16" s="118"/>
-      <c r="J16" s="119" t="s">
-        <v>230</v>
-      </c>
-      <c r="K16" s="120"/>
-      <c r="L16" s="120"/>
-      <c r="M16" s="120"/>
-      <c r="N16" s="120"/>
-      <c r="O16" s="120"/>
-      <c r="P16" s="120"/>
-      <c r="Q16" s="120"/>
-      <c r="R16" s="120"/>
-      <c r="S16" s="120"/>
-      <c r="T16" s="120"/>
-      <c r="U16" s="120"/>
-      <c r="V16" s="120"/>
-      <c r="W16" s="120"/>
-      <c r="X16" s="120"/>
-      <c r="Y16" s="120"/>
-      <c r="Z16" s="120"/>
-      <c r="AA16" s="120"/>
-      <c r="AB16" s="120"/>
-      <c r="AC16" s="120"/>
-      <c r="AD16" s="120"/>
-      <c r="AE16" s="120"/>
-      <c r="AF16" s="120"/>
-      <c r="AG16" s="120"/>
-      <c r="AH16" s="120"/>
-      <c r="AI16" s="120"/>
-      <c r="AJ16" s="120"/>
-      <c r="AK16" s="120"/>
-      <c r="AL16" s="120"/>
-      <c r="AM16" s="120"/>
-      <c r="AN16" s="120"/>
-      <c r="AO16" s="120"/>
-      <c r="AP16" s="120"/>
-      <c r="AQ16" s="121"/>
+      <c r="C16" s="138"/>
+      <c r="D16" s="138"/>
+      <c r="E16" s="138"/>
+      <c r="F16" s="138"/>
+      <c r="G16" s="138"/>
+      <c r="H16" s="138"/>
+      <c r="I16" s="139"/>
+      <c r="J16" s="140" t="s">
+        <v>229</v>
+      </c>
+      <c r="K16" s="141"/>
+      <c r="L16" s="141"/>
+      <c r="M16" s="141"/>
+      <c r="N16" s="141"/>
+      <c r="O16" s="141"/>
+      <c r="P16" s="141"/>
+      <c r="Q16" s="141"/>
+      <c r="R16" s="141"/>
+      <c r="S16" s="141"/>
+      <c r="T16" s="141"/>
+      <c r="U16" s="141"/>
+      <c r="V16" s="141"/>
+      <c r="W16" s="141"/>
+      <c r="X16" s="141"/>
+      <c r="Y16" s="141"/>
+      <c r="Z16" s="141"/>
+      <c r="AA16" s="141"/>
+      <c r="AB16" s="141"/>
+      <c r="AC16" s="141"/>
+      <c r="AD16" s="141"/>
+      <c r="AE16" s="141"/>
+      <c r="AF16" s="141"/>
+      <c r="AG16" s="141"/>
+      <c r="AH16" s="141"/>
+      <c r="AI16" s="141"/>
+      <c r="AJ16" s="141"/>
+      <c r="AK16" s="141"/>
+      <c r="AL16" s="141"/>
+      <c r="AM16" s="141"/>
+      <c r="AN16" s="141"/>
+      <c r="AO16" s="141"/>
+      <c r="AP16" s="141"/>
+      <c r="AQ16" s="142"/>
       <c r="AR16" s="40"/>
       <c r="AS16" s="40"/>
     </row>
     <row r="17" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A17" s="15"/>
-      <c r="B17" s="116" t="s">
+      <c r="B17" s="137" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="117"/>
-      <c r="D17" s="117"/>
-      <c r="E17" s="117"/>
-      <c r="F17" s="117"/>
-      <c r="G17" s="117"/>
-      <c r="H17" s="117"/>
-      <c r="I17" s="118"/>
-      <c r="J17" s="132"/>
-      <c r="K17" s="133"/>
-      <c r="L17" s="133"/>
-      <c r="M17" s="133"/>
-      <c r="N17" s="133"/>
-      <c r="O17" s="133"/>
-      <c r="P17" s="133"/>
-      <c r="Q17" s="133"/>
-      <c r="R17" s="133"/>
-      <c r="S17" s="133"/>
-      <c r="T17" s="133"/>
-      <c r="U17" s="133"/>
-      <c r="V17" s="133"/>
-      <c r="W17" s="133"/>
-      <c r="X17" s="133"/>
-      <c r="Y17" s="133"/>
-      <c r="Z17" s="133"/>
-      <c r="AA17" s="133"/>
-      <c r="AB17" s="133"/>
-      <c r="AC17" s="133"/>
-      <c r="AD17" s="133"/>
-      <c r="AE17" s="133"/>
-      <c r="AF17" s="133"/>
-      <c r="AG17" s="133"/>
-      <c r="AH17" s="133"/>
-      <c r="AI17" s="133"/>
-      <c r="AJ17" s="133"/>
-      <c r="AK17" s="133"/>
-      <c r="AL17" s="133"/>
-      <c r="AM17" s="133"/>
-      <c r="AN17" s="133"/>
-      <c r="AO17" s="133"/>
-      <c r="AP17" s="133"/>
-      <c r="AQ17" s="134"/>
+      <c r="C17" s="138"/>
+      <c r="D17" s="138"/>
+      <c r="E17" s="138"/>
+      <c r="F17" s="138"/>
+      <c r="G17" s="138"/>
+      <c r="H17" s="138"/>
+      <c r="I17" s="139"/>
+      <c r="J17" s="153"/>
+      <c r="K17" s="154"/>
+      <c r="L17" s="154"/>
+      <c r="M17" s="154"/>
+      <c r="N17" s="154"/>
+      <c r="O17" s="154"/>
+      <c r="P17" s="154"/>
+      <c r="Q17" s="154"/>
+      <c r="R17" s="154"/>
+      <c r="S17" s="154"/>
+      <c r="T17" s="154"/>
+      <c r="U17" s="154"/>
+      <c r="V17" s="154"/>
+      <c r="W17" s="154"/>
+      <c r="X17" s="154"/>
+      <c r="Y17" s="154"/>
+      <c r="Z17" s="154"/>
+      <c r="AA17" s="154"/>
+      <c r="AB17" s="154"/>
+      <c r="AC17" s="154"/>
+      <c r="AD17" s="154"/>
+      <c r="AE17" s="154"/>
+      <c r="AF17" s="154"/>
+      <c r="AG17" s="154"/>
+      <c r="AH17" s="154"/>
+      <c r="AI17" s="154"/>
+      <c r="AJ17" s="154"/>
+      <c r="AK17" s="154"/>
+      <c r="AL17" s="154"/>
+      <c r="AM17" s="154"/>
+      <c r="AN17" s="154"/>
+      <c r="AO17" s="154"/>
+      <c r="AP17" s="154"/>
+      <c r="AQ17" s="155"/>
       <c r="AR17" s="43"/>
       <c r="AS17" s="43"/>
     </row>
     <row r="18" spans="1:45" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="15"/>
-      <c r="B18" s="149" t="s">
+      <c r="B18" s="170" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="150"/>
-      <c r="D18" s="150"/>
-      <c r="E18" s="150"/>
-      <c r="F18" s="150"/>
-      <c r="G18" s="150"/>
-      <c r="H18" s="150"/>
-      <c r="I18" s="151"/>
-      <c r="J18" s="152"/>
-      <c r="K18" s="153"/>
-      <c r="L18" s="153"/>
-      <c r="M18" s="153"/>
-      <c r="N18" s="153"/>
-      <c r="O18" s="153"/>
-      <c r="P18" s="153"/>
-      <c r="Q18" s="153"/>
-      <c r="R18" s="153"/>
-      <c r="S18" s="153"/>
-      <c r="T18" s="153"/>
-      <c r="U18" s="153"/>
-      <c r="V18" s="153"/>
-      <c r="W18" s="153"/>
-      <c r="X18" s="153"/>
-      <c r="Y18" s="153"/>
-      <c r="Z18" s="153"/>
-      <c r="AA18" s="153"/>
-      <c r="AB18" s="153"/>
-      <c r="AC18" s="153"/>
-      <c r="AD18" s="153"/>
-      <c r="AE18" s="153"/>
-      <c r="AF18" s="153"/>
-      <c r="AG18" s="153"/>
-      <c r="AH18" s="153"/>
-      <c r="AI18" s="153"/>
-      <c r="AJ18" s="153"/>
-      <c r="AK18" s="153"/>
-      <c r="AL18" s="153"/>
-      <c r="AM18" s="153"/>
-      <c r="AN18" s="153"/>
-      <c r="AO18" s="153"/>
-      <c r="AP18" s="153"/>
-      <c r="AQ18" s="154"/>
+      <c r="C18" s="171"/>
+      <c r="D18" s="171"/>
+      <c r="E18" s="171"/>
+      <c r="F18" s="171"/>
+      <c r="G18" s="171"/>
+      <c r="H18" s="171"/>
+      <c r="I18" s="172"/>
+      <c r="J18" s="173"/>
+      <c r="K18" s="174"/>
+      <c r="L18" s="174"/>
+      <c r="M18" s="174"/>
+      <c r="N18" s="174"/>
+      <c r="O18" s="174"/>
+      <c r="P18" s="174"/>
+      <c r="Q18" s="174"/>
+      <c r="R18" s="174"/>
+      <c r="S18" s="174"/>
+      <c r="T18" s="174"/>
+      <c r="U18" s="174"/>
+      <c r="V18" s="174"/>
+      <c r="W18" s="174"/>
+      <c r="X18" s="174"/>
+      <c r="Y18" s="174"/>
+      <c r="Z18" s="174"/>
+      <c r="AA18" s="174"/>
+      <c r="AB18" s="174"/>
+      <c r="AC18" s="174"/>
+      <c r="AD18" s="174"/>
+      <c r="AE18" s="174"/>
+      <c r="AF18" s="174"/>
+      <c r="AG18" s="174"/>
+      <c r="AH18" s="174"/>
+      <c r="AI18" s="174"/>
+      <c r="AJ18" s="174"/>
+      <c r="AK18" s="174"/>
+      <c r="AL18" s="174"/>
+      <c r="AM18" s="174"/>
+      <c r="AN18" s="174"/>
+      <c r="AO18" s="174"/>
+      <c r="AP18" s="174"/>
+      <c r="AQ18" s="175"/>
       <c r="AR18" s="43"/>
       <c r="AS18" s="43"/>
     </row>
@@ -19166,292 +19191,292 @@
       </c>
     </row>
     <row r="23" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="B23" s="126" t="s">
+      <c r="B23" s="147" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="127"/>
-      <c r="D23" s="127"/>
-      <c r="E23" s="127"/>
-      <c r="F23" s="127"/>
-      <c r="G23" s="128"/>
-      <c r="H23" s="129" t="s">
+      <c r="C23" s="148"/>
+      <c r="D23" s="148"/>
+      <c r="E23" s="148"/>
+      <c r="F23" s="148"/>
+      <c r="G23" s="149"/>
+      <c r="H23" s="150" t="s">
         <v>13</v>
       </c>
-      <c r="I23" s="130"/>
-      <c r="J23" s="130"/>
-      <c r="K23" s="130"/>
-      <c r="L23" s="130"/>
-      <c r="M23" s="130"/>
-      <c r="N23" s="130"/>
-      <c r="O23" s="130"/>
-      <c r="P23" s="130"/>
-      <c r="Q23" s="130"/>
-      <c r="R23" s="130"/>
-      <c r="S23" s="130"/>
-      <c r="T23" s="130"/>
-      <c r="U23" s="130"/>
-      <c r="V23" s="130"/>
-      <c r="W23" s="130"/>
-      <c r="X23" s="130"/>
-      <c r="Y23" s="130"/>
-      <c r="Z23" s="130"/>
-      <c r="AA23" s="130"/>
-      <c r="AB23" s="130"/>
-      <c r="AC23" s="130"/>
-      <c r="AD23" s="130"/>
-      <c r="AE23" s="130"/>
-      <c r="AF23" s="130"/>
-      <c r="AG23" s="130"/>
-      <c r="AH23" s="130"/>
-      <c r="AI23" s="130"/>
-      <c r="AJ23" s="130"/>
-      <c r="AK23" s="130"/>
-      <c r="AL23" s="130"/>
-      <c r="AM23" s="130"/>
-      <c r="AN23" s="130"/>
-      <c r="AO23" s="130"/>
-      <c r="AP23" s="130"/>
-      <c r="AQ23" s="131"/>
+      <c r="I23" s="151"/>
+      <c r="J23" s="151"/>
+      <c r="K23" s="151"/>
+      <c r="L23" s="151"/>
+      <c r="M23" s="151"/>
+      <c r="N23" s="151"/>
+      <c r="O23" s="151"/>
+      <c r="P23" s="151"/>
+      <c r="Q23" s="151"/>
+      <c r="R23" s="151"/>
+      <c r="S23" s="151"/>
+      <c r="T23" s="151"/>
+      <c r="U23" s="151"/>
+      <c r="V23" s="151"/>
+      <c r="W23" s="151"/>
+      <c r="X23" s="151"/>
+      <c r="Y23" s="151"/>
+      <c r="Z23" s="151"/>
+      <c r="AA23" s="151"/>
+      <c r="AB23" s="151"/>
+      <c r="AC23" s="151"/>
+      <c r="AD23" s="151"/>
+      <c r="AE23" s="151"/>
+      <c r="AF23" s="151"/>
+      <c r="AG23" s="151"/>
+      <c r="AH23" s="151"/>
+      <c r="AI23" s="151"/>
+      <c r="AJ23" s="151"/>
+      <c r="AK23" s="151"/>
+      <c r="AL23" s="151"/>
+      <c r="AM23" s="151"/>
+      <c r="AN23" s="151"/>
+      <c r="AO23" s="151"/>
+      <c r="AP23" s="151"/>
+      <c r="AQ23" s="152"/>
     </row>
     <row r="24" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="B24" s="135" t="s">
+      <c r="B24" s="156" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="136"/>
-      <c r="D24" s="136"/>
-      <c r="E24" s="136"/>
-      <c r="F24" s="136"/>
-      <c r="G24" s="137"/>
-      <c r="H24" s="99" t="s">
+      <c r="C24" s="157"/>
+      <c r="D24" s="157"/>
+      <c r="E24" s="157"/>
+      <c r="F24" s="157"/>
+      <c r="G24" s="158"/>
+      <c r="H24" s="114" t="s">
         <v>15</v>
       </c>
-      <c r="I24" s="100"/>
-      <c r="J24" s="100"/>
-      <c r="K24" s="100"/>
-      <c r="L24" s="100"/>
-      <c r="M24" s="100"/>
-      <c r="N24" s="100"/>
-      <c r="O24" s="100"/>
-      <c r="P24" s="100"/>
-      <c r="Q24" s="100"/>
-      <c r="R24" s="100"/>
-      <c r="S24" s="100"/>
-      <c r="T24" s="100"/>
-      <c r="U24" s="100"/>
-      <c r="V24" s="100"/>
-      <c r="W24" s="100"/>
-      <c r="X24" s="100"/>
-      <c r="Y24" s="100"/>
-      <c r="Z24" s="100"/>
-      <c r="AA24" s="100"/>
-      <c r="AB24" s="100"/>
-      <c r="AC24" s="100"/>
-      <c r="AD24" s="100"/>
-      <c r="AE24" s="100"/>
-      <c r="AF24" s="100"/>
-      <c r="AG24" s="100"/>
-      <c r="AH24" s="100"/>
-      <c r="AI24" s="100"/>
-      <c r="AJ24" s="100"/>
-      <c r="AK24" s="100"/>
-      <c r="AL24" s="100"/>
-      <c r="AM24" s="100"/>
-      <c r="AN24" s="100"/>
-      <c r="AO24" s="100"/>
-      <c r="AP24" s="100"/>
-      <c r="AQ24" s="101"/>
+      <c r="I24" s="115"/>
+      <c r="J24" s="115"/>
+      <c r="K24" s="115"/>
+      <c r="L24" s="115"/>
+      <c r="M24" s="115"/>
+      <c r="N24" s="115"/>
+      <c r="O24" s="115"/>
+      <c r="P24" s="115"/>
+      <c r="Q24" s="115"/>
+      <c r="R24" s="115"/>
+      <c r="S24" s="115"/>
+      <c r="T24" s="115"/>
+      <c r="U24" s="115"/>
+      <c r="V24" s="115"/>
+      <c r="W24" s="115"/>
+      <c r="X24" s="115"/>
+      <c r="Y24" s="115"/>
+      <c r="Z24" s="115"/>
+      <c r="AA24" s="115"/>
+      <c r="AB24" s="115"/>
+      <c r="AC24" s="115"/>
+      <c r="AD24" s="115"/>
+      <c r="AE24" s="115"/>
+      <c r="AF24" s="115"/>
+      <c r="AG24" s="115"/>
+      <c r="AH24" s="115"/>
+      <c r="AI24" s="115"/>
+      <c r="AJ24" s="115"/>
+      <c r="AK24" s="115"/>
+      <c r="AL24" s="115"/>
+      <c r="AM24" s="115"/>
+      <c r="AN24" s="115"/>
+      <c r="AO24" s="115"/>
+      <c r="AP24" s="115"/>
+      <c r="AQ24" s="116"/>
     </row>
     <row r="25" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="B25" s="135" t="s">
+      <c r="B25" s="156" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="136"/>
-      <c r="D25" s="136"/>
-      <c r="E25" s="136"/>
-      <c r="F25" s="136"/>
-      <c r="G25" s="137"/>
-      <c r="H25" s="99" t="s">
+      <c r="C25" s="157"/>
+      <c r="D25" s="157"/>
+      <c r="E25" s="157"/>
+      <c r="F25" s="157"/>
+      <c r="G25" s="158"/>
+      <c r="H25" s="114" t="s">
         <v>184</v>
       </c>
-      <c r="I25" s="100"/>
-      <c r="J25" s="100"/>
-      <c r="K25" s="100"/>
-      <c r="L25" s="100"/>
-      <c r="M25" s="100"/>
-      <c r="N25" s="100"/>
-      <c r="O25" s="100"/>
-      <c r="P25" s="100"/>
-      <c r="Q25" s="100"/>
-      <c r="R25" s="100"/>
-      <c r="S25" s="100"/>
-      <c r="T25" s="100"/>
-      <c r="U25" s="100"/>
-      <c r="V25" s="100"/>
-      <c r="W25" s="100"/>
-      <c r="X25" s="100"/>
-      <c r="Y25" s="100"/>
-      <c r="Z25" s="100"/>
-      <c r="AA25" s="100"/>
-      <c r="AB25" s="100"/>
-      <c r="AC25" s="100"/>
-      <c r="AD25" s="100"/>
-      <c r="AE25" s="100"/>
-      <c r="AF25" s="100"/>
-      <c r="AG25" s="100"/>
-      <c r="AH25" s="100"/>
-      <c r="AI25" s="100"/>
-      <c r="AJ25" s="100"/>
-      <c r="AK25" s="100"/>
-      <c r="AL25" s="100"/>
-      <c r="AM25" s="100"/>
-      <c r="AN25" s="100"/>
-      <c r="AO25" s="100"/>
-      <c r="AP25" s="100"/>
-      <c r="AQ25" s="101"/>
+      <c r="I25" s="115"/>
+      <c r="J25" s="115"/>
+      <c r="K25" s="115"/>
+      <c r="L25" s="115"/>
+      <c r="M25" s="115"/>
+      <c r="N25" s="115"/>
+      <c r="O25" s="115"/>
+      <c r="P25" s="115"/>
+      <c r="Q25" s="115"/>
+      <c r="R25" s="115"/>
+      <c r="S25" s="115"/>
+      <c r="T25" s="115"/>
+      <c r="U25" s="115"/>
+      <c r="V25" s="115"/>
+      <c r="W25" s="115"/>
+      <c r="X25" s="115"/>
+      <c r="Y25" s="115"/>
+      <c r="Z25" s="115"/>
+      <c r="AA25" s="115"/>
+      <c r="AB25" s="115"/>
+      <c r="AC25" s="115"/>
+      <c r="AD25" s="115"/>
+      <c r="AE25" s="115"/>
+      <c r="AF25" s="115"/>
+      <c r="AG25" s="115"/>
+      <c r="AH25" s="115"/>
+      <c r="AI25" s="115"/>
+      <c r="AJ25" s="115"/>
+      <c r="AK25" s="115"/>
+      <c r="AL25" s="115"/>
+      <c r="AM25" s="115"/>
+      <c r="AN25" s="115"/>
+      <c r="AO25" s="115"/>
+      <c r="AP25" s="115"/>
+      <c r="AQ25" s="116"/>
     </row>
     <row r="26" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="B26" s="135" t="s">
+      <c r="B26" s="156" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="136"/>
-      <c r="D26" s="136"/>
-      <c r="E26" s="136"/>
-      <c r="F26" s="136"/>
-      <c r="G26" s="137"/>
-      <c r="H26" s="99" t="s">
+      <c r="C26" s="157"/>
+      <c r="D26" s="157"/>
+      <c r="E26" s="157"/>
+      <c r="F26" s="157"/>
+      <c r="G26" s="158"/>
+      <c r="H26" s="114" t="s">
         <v>184</v>
       </c>
-      <c r="I26" s="100"/>
-      <c r="J26" s="100"/>
-      <c r="K26" s="100"/>
-      <c r="L26" s="100"/>
-      <c r="M26" s="100"/>
-      <c r="N26" s="100"/>
-      <c r="O26" s="100"/>
-      <c r="P26" s="100"/>
-      <c r="Q26" s="100"/>
-      <c r="R26" s="100"/>
-      <c r="S26" s="100"/>
-      <c r="T26" s="100"/>
-      <c r="U26" s="100"/>
-      <c r="V26" s="100"/>
-      <c r="W26" s="100"/>
-      <c r="X26" s="100"/>
-      <c r="Y26" s="100"/>
-      <c r="Z26" s="100"/>
-      <c r="AA26" s="100"/>
-      <c r="AB26" s="100"/>
-      <c r="AC26" s="100"/>
-      <c r="AD26" s="100"/>
-      <c r="AE26" s="100"/>
-      <c r="AF26" s="100"/>
-      <c r="AG26" s="100"/>
-      <c r="AH26" s="100"/>
-      <c r="AI26" s="100"/>
-      <c r="AJ26" s="100"/>
-      <c r="AK26" s="100"/>
-      <c r="AL26" s="100"/>
-      <c r="AM26" s="100"/>
-      <c r="AN26" s="100"/>
-      <c r="AO26" s="100"/>
-      <c r="AP26" s="100"/>
-      <c r="AQ26" s="101"/>
+      <c r="I26" s="115"/>
+      <c r="J26" s="115"/>
+      <c r="K26" s="115"/>
+      <c r="L26" s="115"/>
+      <c r="M26" s="115"/>
+      <c r="N26" s="115"/>
+      <c r="O26" s="115"/>
+      <c r="P26" s="115"/>
+      <c r="Q26" s="115"/>
+      <c r="R26" s="115"/>
+      <c r="S26" s="115"/>
+      <c r="T26" s="115"/>
+      <c r="U26" s="115"/>
+      <c r="V26" s="115"/>
+      <c r="W26" s="115"/>
+      <c r="X26" s="115"/>
+      <c r="Y26" s="115"/>
+      <c r="Z26" s="115"/>
+      <c r="AA26" s="115"/>
+      <c r="AB26" s="115"/>
+      <c r="AC26" s="115"/>
+      <c r="AD26" s="115"/>
+      <c r="AE26" s="115"/>
+      <c r="AF26" s="115"/>
+      <c r="AG26" s="115"/>
+      <c r="AH26" s="115"/>
+      <c r="AI26" s="115"/>
+      <c r="AJ26" s="115"/>
+      <c r="AK26" s="115"/>
+      <c r="AL26" s="115"/>
+      <c r="AM26" s="115"/>
+      <c r="AN26" s="115"/>
+      <c r="AO26" s="115"/>
+      <c r="AP26" s="115"/>
+      <c r="AQ26" s="116"/>
     </row>
     <row r="27" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="B27" s="96" t="s">
+      <c r="B27" s="111" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="97"/>
-      <c r="D27" s="97"/>
-      <c r="E27" s="97"/>
-      <c r="F27" s="97"/>
-      <c r="G27" s="98"/>
-      <c r="H27" s="99" t="s">
+      <c r="C27" s="112"/>
+      <c r="D27" s="112"/>
+      <c r="E27" s="112"/>
+      <c r="F27" s="112"/>
+      <c r="G27" s="113"/>
+      <c r="H27" s="114" t="s">
         <v>184</v>
       </c>
-      <c r="I27" s="100"/>
-      <c r="J27" s="100"/>
-      <c r="K27" s="100"/>
-      <c r="L27" s="100"/>
-      <c r="M27" s="100"/>
-      <c r="N27" s="100"/>
-      <c r="O27" s="100"/>
-      <c r="P27" s="100"/>
-      <c r="Q27" s="100"/>
-      <c r="R27" s="100"/>
-      <c r="S27" s="100"/>
-      <c r="T27" s="100"/>
-      <c r="U27" s="100"/>
-      <c r="V27" s="100"/>
-      <c r="W27" s="100"/>
-      <c r="X27" s="100"/>
-      <c r="Y27" s="100"/>
-      <c r="Z27" s="100"/>
-      <c r="AA27" s="100"/>
-      <c r="AB27" s="100"/>
-      <c r="AC27" s="100"/>
-      <c r="AD27" s="100"/>
-      <c r="AE27" s="100"/>
-      <c r="AF27" s="100"/>
-      <c r="AG27" s="100"/>
-      <c r="AH27" s="100"/>
-      <c r="AI27" s="100"/>
-      <c r="AJ27" s="100"/>
-      <c r="AK27" s="100"/>
-      <c r="AL27" s="100"/>
-      <c r="AM27" s="100"/>
-      <c r="AN27" s="100"/>
-      <c r="AO27" s="100"/>
-      <c r="AP27" s="100"/>
-      <c r="AQ27" s="101"/>
+      <c r="I27" s="115"/>
+      <c r="J27" s="115"/>
+      <c r="K27" s="115"/>
+      <c r="L27" s="115"/>
+      <c r="M27" s="115"/>
+      <c r="N27" s="115"/>
+      <c r="O27" s="115"/>
+      <c r="P27" s="115"/>
+      <c r="Q27" s="115"/>
+      <c r="R27" s="115"/>
+      <c r="S27" s="115"/>
+      <c r="T27" s="115"/>
+      <c r="U27" s="115"/>
+      <c r="V27" s="115"/>
+      <c r="W27" s="115"/>
+      <c r="X27" s="115"/>
+      <c r="Y27" s="115"/>
+      <c r="Z27" s="115"/>
+      <c r="AA27" s="115"/>
+      <c r="AB27" s="115"/>
+      <c r="AC27" s="115"/>
+      <c r="AD27" s="115"/>
+      <c r="AE27" s="115"/>
+      <c r="AF27" s="115"/>
+      <c r="AG27" s="115"/>
+      <c r="AH27" s="115"/>
+      <c r="AI27" s="115"/>
+      <c r="AJ27" s="115"/>
+      <c r="AK27" s="115"/>
+      <c r="AL27" s="115"/>
+      <c r="AM27" s="115"/>
+      <c r="AN27" s="115"/>
+      <c r="AO27" s="115"/>
+      <c r="AP27" s="115"/>
+      <c r="AQ27" s="116"/>
     </row>
     <row r="28" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="B28" s="138" t="s">
+      <c r="B28" s="159" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="139"/>
-      <c r="D28" s="139"/>
-      <c r="E28" s="139"/>
-      <c r="F28" s="139"/>
-      <c r="G28" s="140"/>
-      <c r="H28" s="99" t="s">
+      <c r="C28" s="160"/>
+      <c r="D28" s="160"/>
+      <c r="E28" s="160"/>
+      <c r="F28" s="160"/>
+      <c r="G28" s="161"/>
+      <c r="H28" s="114" t="s">
         <v>184</v>
       </c>
-      <c r="I28" s="100"/>
-      <c r="J28" s="100"/>
-      <c r="K28" s="100"/>
-      <c r="L28" s="100"/>
-      <c r="M28" s="100"/>
-      <c r="N28" s="100"/>
-      <c r="O28" s="100"/>
-      <c r="P28" s="100"/>
-      <c r="Q28" s="100"/>
-      <c r="R28" s="100"/>
-      <c r="S28" s="100"/>
-      <c r="T28" s="100"/>
-      <c r="U28" s="100"/>
-      <c r="V28" s="100"/>
-      <c r="W28" s="100"/>
-      <c r="X28" s="100"/>
-      <c r="Y28" s="100"/>
-      <c r="Z28" s="100"/>
-      <c r="AA28" s="100"/>
-      <c r="AB28" s="100"/>
-      <c r="AC28" s="100"/>
-      <c r="AD28" s="100"/>
-      <c r="AE28" s="100"/>
-      <c r="AF28" s="100"/>
-      <c r="AG28" s="100"/>
-      <c r="AH28" s="100"/>
-      <c r="AI28" s="100"/>
-      <c r="AJ28" s="100"/>
-      <c r="AK28" s="100"/>
-      <c r="AL28" s="100"/>
-      <c r="AM28" s="100"/>
-      <c r="AN28" s="100"/>
-      <c r="AO28" s="100"/>
-      <c r="AP28" s="100"/>
-      <c r="AQ28" s="101"/>
+      <c r="I28" s="115"/>
+      <c r="J28" s="115"/>
+      <c r="K28" s="115"/>
+      <c r="L28" s="115"/>
+      <c r="M28" s="115"/>
+      <c r="N28" s="115"/>
+      <c r="O28" s="115"/>
+      <c r="P28" s="115"/>
+      <c r="Q28" s="115"/>
+      <c r="R28" s="115"/>
+      <c r="S28" s="115"/>
+      <c r="T28" s="115"/>
+      <c r="U28" s="115"/>
+      <c r="V28" s="115"/>
+      <c r="W28" s="115"/>
+      <c r="X28" s="115"/>
+      <c r="Y28" s="115"/>
+      <c r="Z28" s="115"/>
+      <c r="AA28" s="115"/>
+      <c r="AB28" s="115"/>
+      <c r="AC28" s="115"/>
+      <c r="AD28" s="115"/>
+      <c r="AE28" s="115"/>
+      <c r="AF28" s="115"/>
+      <c r="AG28" s="115"/>
+      <c r="AH28" s="115"/>
+      <c r="AI28" s="115"/>
+      <c r="AJ28" s="115"/>
+      <c r="AK28" s="115"/>
+      <c r="AL28" s="115"/>
+      <c r="AM28" s="115"/>
+      <c r="AN28" s="115"/>
+      <c r="AO28" s="115"/>
+      <c r="AP28" s="115"/>
+      <c r="AQ28" s="116"/>
     </row>
     <row r="29" spans="1:45" x14ac:dyDescent="0.2">
       <c r="B29" s="8"/>
@@ -19541,11 +19566,11 @@
         <v>26</v>
       </c>
       <c r="AD30" s="11"/>
-      <c r="AF30" s="94" t="s">
+      <c r="AF30" s="109" t="s">
         <v>27</v>
       </c>
-      <c r="AG30" s="94"/>
-      <c r="AH30" s="95"/>
+      <c r="AG30" s="109"/>
+      <c r="AH30" s="110"/>
       <c r="AI30" s="11"/>
       <c r="AK30" s="6" t="s">
         <v>19</v>
@@ -19690,26 +19715,26 @@
     </row>
     <row r="34" spans="1:50" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="15"/>
-      <c r="B34" s="141" t="s">
+      <c r="B34" s="162" t="s">
         <v>29</v>
       </c>
-      <c r="C34" s="142"/>
-      <c r="D34" s="142"/>
-      <c r="E34" s="142"/>
-      <c r="F34" s="142"/>
-      <c r="G34" s="142"/>
-      <c r="H34" s="142"/>
-      <c r="I34" s="143"/>
-      <c r="J34" s="85" t="s">
+      <c r="C34" s="163"/>
+      <c r="D34" s="163"/>
+      <c r="E34" s="163"/>
+      <c r="F34" s="163"/>
+      <c r="G34" s="163"/>
+      <c r="H34" s="163"/>
+      <c r="I34" s="164"/>
+      <c r="J34" s="100" t="s">
         <v>30</v>
       </c>
-      <c r="K34" s="86"/>
-      <c r="L34" s="87"/>
-      <c r="M34" s="91" t="s">
+      <c r="K34" s="101"/>
+      <c r="L34" s="102"/>
+      <c r="M34" s="106" t="s">
         <v>31</v>
       </c>
-      <c r="N34" s="92"/>
-      <c r="O34" s="93"/>
+      <c r="N34" s="107"/>
+      <c r="O34" s="108"/>
       <c r="P34" s="5"/>
       <c r="Q34" s="5"/>
       <c r="R34" s="5"/>
@@ -19741,28 +19766,28 @@
     </row>
     <row r="35" spans="1:50" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="15"/>
-      <c r="B35" s="105" t="s">
+      <c r="B35" s="126" t="s">
         <v>32</v>
       </c>
-      <c r="C35" s="106"/>
-      <c r="D35" s="106"/>
-      <c r="E35" s="106"/>
-      <c r="F35" s="106"/>
-      <c r="G35" s="106"/>
-      <c r="H35" s="106"/>
-      <c r="I35" s="107"/>
-      <c r="J35" s="71">
+      <c r="C35" s="127"/>
+      <c r="D35" s="127"/>
+      <c r="E35" s="127"/>
+      <c r="F35" s="127"/>
+      <c r="G35" s="127"/>
+      <c r="H35" s="127"/>
+      <c r="I35" s="128"/>
+      <c r="J35" s="76">
         <f>COUNTIF($AX:$AX,"CONFORME")</f>
         <v>0</v>
       </c>
-      <c r="K35" s="72"/>
-      <c r="L35" s="73"/>
-      <c r="M35" s="74">
+      <c r="K35" s="77"/>
+      <c r="L35" s="78"/>
+      <c r="M35" s="79">
         <f>ROUND((J35/$J$39)*100,0)</f>
         <v>0</v>
       </c>
-      <c r="N35" s="75"/>
-      <c r="O35" s="76"/>
+      <c r="N35" s="80"/>
+      <c r="O35" s="81"/>
       <c r="P35" s="5"/>
       <c r="Q35" s="5"/>
       <c r="R35" s="5"/>
@@ -19794,28 +19819,28 @@
     </row>
     <row r="36" spans="1:50" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="15"/>
-      <c r="B36" s="82" t="s">
+      <c r="B36" s="97" t="s">
         <v>33</v>
       </c>
-      <c r="C36" s="83"/>
-      <c r="D36" s="83"/>
-      <c r="E36" s="83"/>
-      <c r="F36" s="83"/>
-      <c r="G36" s="83"/>
-      <c r="H36" s="83"/>
-      <c r="I36" s="84"/>
-      <c r="J36" s="71">
+      <c r="C36" s="98"/>
+      <c r="D36" s="98"/>
+      <c r="E36" s="98"/>
+      <c r="F36" s="98"/>
+      <c r="G36" s="98"/>
+      <c r="H36" s="98"/>
+      <c r="I36" s="99"/>
+      <c r="J36" s="76">
         <f>COUNTIF($AX:$AX,"NO CONFORME")</f>
         <v>0</v>
       </c>
-      <c r="K36" s="72"/>
-      <c r="L36" s="73"/>
-      <c r="M36" s="74">
+      <c r="K36" s="77"/>
+      <c r="L36" s="78"/>
+      <c r="M36" s="79">
         <f t="shared" ref="M36:M39" si="0">ROUND((J36/$J$39)*100,0)</f>
         <v>0</v>
       </c>
-      <c r="N36" s="75"/>
-      <c r="O36" s="76"/>
+      <c r="N36" s="80"/>
+      <c r="O36" s="81"/>
       <c r="P36" s="5"/>
       <c r="Q36" s="5"/>
       <c r="R36" s="5"/>
@@ -19847,28 +19872,28 @@
     </row>
     <row r="37" spans="1:50" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="15"/>
-      <c r="B37" s="82" t="s">
+      <c r="B37" s="97" t="s">
         <v>34</v>
       </c>
-      <c r="C37" s="83"/>
-      <c r="D37" s="83"/>
-      <c r="E37" s="83"/>
-      <c r="F37" s="83"/>
-      <c r="G37" s="83"/>
-      <c r="H37" s="83"/>
-      <c r="I37" s="84"/>
-      <c r="J37" s="71">
+      <c r="C37" s="98"/>
+      <c r="D37" s="98"/>
+      <c r="E37" s="98"/>
+      <c r="F37" s="98"/>
+      <c r="G37" s="98"/>
+      <c r="H37" s="98"/>
+      <c r="I37" s="99"/>
+      <c r="J37" s="76">
         <f>COUNTIF($AX:$AX,"NO APLICA")</f>
         <v>0</v>
       </c>
-      <c r="K37" s="72"/>
-      <c r="L37" s="73"/>
-      <c r="M37" s="74">
+      <c r="K37" s="77"/>
+      <c r="L37" s="78"/>
+      <c r="M37" s="79">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N37" s="75"/>
-      <c r="O37" s="76"/>
+      <c r="N37" s="80"/>
+      <c r="O37" s="81"/>
       <c r="P37" s="5"/>
       <c r="Q37" s="5"/>
       <c r="R37" s="5"/>
@@ -19900,28 +19925,28 @@
     </row>
     <row r="38" spans="1:50" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="15"/>
-      <c r="B38" s="79" t="s">
+      <c r="B38" s="94" t="s">
         <v>35</v>
       </c>
-      <c r="C38" s="80"/>
-      <c r="D38" s="80"/>
-      <c r="E38" s="80"/>
-      <c r="F38" s="80"/>
-      <c r="G38" s="80"/>
-      <c r="H38" s="80"/>
-      <c r="I38" s="81"/>
-      <c r="J38" s="71">
+      <c r="C38" s="95"/>
+      <c r="D38" s="95"/>
+      <c r="E38" s="95"/>
+      <c r="F38" s="95"/>
+      <c r="G38" s="95"/>
+      <c r="H38" s="95"/>
+      <c r="I38" s="96"/>
+      <c r="J38" s="76">
         <f>COUNTIF($AX:$AX,"PENDIENTE")</f>
         <v>45</v>
       </c>
-      <c r="K38" s="72"/>
-      <c r="L38" s="73"/>
-      <c r="M38" s="74">
+      <c r="K38" s="77"/>
+      <c r="L38" s="78"/>
+      <c r="M38" s="79">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="N38" s="75"/>
-      <c r="O38" s="76"/>
+      <c r="N38" s="80"/>
+      <c r="O38" s="81"/>
       <c r="P38" s="5"/>
       <c r="Q38" s="5"/>
       <c r="R38" s="5"/>
@@ -19953,28 +19978,28 @@
     </row>
     <row r="39" spans="1:50" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="15"/>
-      <c r="B39" s="88" t="s">
+      <c r="B39" s="103" t="s">
         <v>36</v>
       </c>
-      <c r="C39" s="89"/>
-      <c r="D39" s="89"/>
-      <c r="E39" s="89"/>
-      <c r="F39" s="89"/>
-      <c r="G39" s="89"/>
-      <c r="H39" s="89"/>
-      <c r="I39" s="90"/>
-      <c r="J39" s="85">
+      <c r="C39" s="104"/>
+      <c r="D39" s="104"/>
+      <c r="E39" s="104"/>
+      <c r="F39" s="104"/>
+      <c r="G39" s="104"/>
+      <c r="H39" s="104"/>
+      <c r="I39" s="105"/>
+      <c r="J39" s="100">
         <f>SUM(J35:L38)</f>
         <v>45</v>
       </c>
-      <c r="K39" s="86"/>
-      <c r="L39" s="87"/>
-      <c r="M39" s="74">
+      <c r="K39" s="101"/>
+      <c r="L39" s="102"/>
+      <c r="M39" s="79">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="N39" s="75"/>
-      <c r="O39" s="76"/>
+      <c r="N39" s="80"/>
+      <c r="O39" s="81"/>
       <c r="P39" s="5"/>
       <c r="Q39" s="5"/>
       <c r="R39" s="5"/>
@@ -20140,68 +20165,68 @@
       <c r="AX42" s="4"/>
     </row>
     <row r="43" spans="1:50" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="104" t="s">
+      <c r="B43" s="119" t="s">
         <v>38</v>
       </c>
-      <c r="C43" s="78"/>
-      <c r="D43" s="77" t="s">
+      <c r="C43" s="91"/>
+      <c r="D43" s="90" t="s">
         <v>39</v>
       </c>
-      <c r="E43" s="78"/>
-      <c r="F43" s="77" t="s">
+      <c r="E43" s="91"/>
+      <c r="F43" s="90" t="s">
         <v>40</v>
       </c>
-      <c r="G43" s="78"/>
-      <c r="H43" s="77" t="s">
+      <c r="G43" s="91"/>
+      <c r="H43" s="90" t="s">
         <v>41</v>
       </c>
-      <c r="I43" s="77"/>
-      <c r="J43" s="77" t="s">
+      <c r="I43" s="90"/>
+      <c r="J43" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="K43" s="77"/>
-      <c r="L43" s="77"/>
-      <c r="M43" s="77" t="s">
+      <c r="K43" s="90"/>
+      <c r="L43" s="90"/>
+      <c r="M43" s="90" t="s">
         <v>43</v>
       </c>
-      <c r="N43" s="77"/>
-      <c r="O43" s="77"/>
-      <c r="P43" s="77" t="s">
+      <c r="N43" s="90"/>
+      <c r="O43" s="90"/>
+      <c r="P43" s="90" t="s">
         <v>44</v>
       </c>
-      <c r="Q43" s="77"/>
-      <c r="R43" s="77"/>
-      <c r="S43" s="77" t="s">
+      <c r="Q43" s="90"/>
+      <c r="R43" s="90"/>
+      <c r="S43" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="T43" s="77"/>
-      <c r="U43" s="77" t="s">
+      <c r="T43" s="90"/>
+      <c r="U43" s="90" t="s">
         <v>46</v>
       </c>
-      <c r="V43" s="77"/>
-      <c r="W43" s="77"/>
-      <c r="X43" s="77"/>
-      <c r="Y43" s="77"/>
-      <c r="Z43" s="77"/>
-      <c r="AA43" s="77" t="s">
+      <c r="V43" s="90"/>
+      <c r="W43" s="90"/>
+      <c r="X43" s="90"/>
+      <c r="Y43" s="90"/>
+      <c r="Z43" s="90"/>
+      <c r="AA43" s="90" t="s">
         <v>47</v>
       </c>
-      <c r="AB43" s="77"/>
-      <c r="AC43" s="77"/>
-      <c r="AD43" s="77"/>
-      <c r="AE43" s="77"/>
-      <c r="AF43" s="77"/>
-      <c r="AG43" s="77"/>
-      <c r="AH43" s="77"/>
-      <c r="AI43" s="77"/>
-      <c r="AJ43" s="77"/>
-      <c r="AK43" s="77"/>
-      <c r="AL43" s="77"/>
-      <c r="AM43" s="77"/>
-      <c r="AN43" s="77"/>
-      <c r="AO43" s="77"/>
-      <c r="AP43" s="77"/>
-      <c r="AQ43" s="77"/>
+      <c r="AB43" s="90"/>
+      <c r="AC43" s="90"/>
+      <c r="AD43" s="90"/>
+      <c r="AE43" s="90"/>
+      <c r="AF43" s="90"/>
+      <c r="AG43" s="90"/>
+      <c r="AH43" s="90"/>
+      <c r="AI43" s="90"/>
+      <c r="AJ43" s="90"/>
+      <c r="AK43" s="90"/>
+      <c r="AL43" s="90"/>
+      <c r="AM43" s="90"/>
+      <c r="AN43" s="90"/>
+      <c r="AO43" s="90"/>
+      <c r="AP43" s="90"/>
+      <c r="AQ43" s="90"/>
       <c r="AR43" s="38" t="s">
         <v>48</v>
       </c>
@@ -20225,3827 +20250,3827 @@
       </c>
     </row>
     <row r="44" spans="1:50" ht="203.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="166" t="s">
+      <c r="B44" s="125" t="s">
         <v>160</v>
       </c>
-      <c r="C44" s="162"/>
-      <c r="D44" s="167" t="s">
+      <c r="C44" s="93"/>
+      <c r="D44" s="92" t="s">
         <v>218</v>
       </c>
-      <c r="E44" s="162"/>
-      <c r="F44" s="168" t="s">
+      <c r="E44" s="93"/>
+      <c r="F44" s="120" t="s">
         <v>216</v>
       </c>
-      <c r="G44" s="169"/>
-      <c r="H44" s="170" t="s">
-        <v>261</v>
-      </c>
-      <c r="I44" s="171"/>
-      <c r="J44" s="155" t="s">
-        <v>266</v>
-      </c>
-      <c r="K44" s="156"/>
-      <c r="L44" s="157"/>
-      <c r="M44" s="162">
+      <c r="G44" s="121"/>
+      <c r="H44" s="84" t="s">
+        <v>245</v>
+      </c>
+      <c r="I44" s="86"/>
+      <c r="J44" s="122" t="s">
+        <v>250</v>
+      </c>
+      <c r="K44" s="123"/>
+      <c r="L44" s="124"/>
+      <c r="M44" s="93">
         <v>2</v>
       </c>
-      <c r="N44" s="162"/>
-      <c r="O44" s="162"/>
-      <c r="P44" s="162">
+      <c r="N44" s="93"/>
+      <c r="O44" s="93"/>
+      <c r="P44" s="93">
         <v>1</v>
       </c>
-      <c r="Q44" s="162"/>
-      <c r="R44" s="162"/>
-      <c r="S44" s="163">
+      <c r="Q44" s="93"/>
+      <c r="R44" s="93"/>
+      <c r="S44" s="82">
         <v>3</v>
       </c>
-      <c r="T44" s="164"/>
-      <c r="U44" s="155" t="s">
-        <v>231</v>
-      </c>
-      <c r="V44" s="156"/>
-      <c r="W44" s="156"/>
-      <c r="X44" s="156"/>
-      <c r="Y44" s="156"/>
-      <c r="Z44" s="157"/>
-      <c r="AA44" s="158" t="s">
+      <c r="T44" s="83"/>
+      <c r="U44" s="84" t="s">
+        <v>260</v>
+      </c>
+      <c r="V44" s="85"/>
+      <c r="W44" s="85"/>
+      <c r="X44" s="85"/>
+      <c r="Y44" s="85"/>
+      <c r="Z44" s="86"/>
+      <c r="AA44" s="87" t="s">
         <v>223</v>
       </c>
-      <c r="AB44" s="159"/>
-      <c r="AC44" s="159"/>
-      <c r="AD44" s="159"/>
-      <c r="AE44" s="159"/>
-      <c r="AF44" s="159"/>
-      <c r="AG44" s="159"/>
-      <c r="AH44" s="159"/>
-      <c r="AI44" s="159"/>
-      <c r="AJ44" s="159"/>
-      <c r="AK44" s="159"/>
-      <c r="AL44" s="159"/>
-      <c r="AM44" s="159"/>
-      <c r="AN44" s="159"/>
-      <c r="AO44" s="159"/>
-      <c r="AP44" s="159"/>
-      <c r="AQ44" s="160"/>
-      <c r="AR44" s="161" t="s">
+      <c r="AB44" s="88"/>
+      <c r="AC44" s="88"/>
+      <c r="AD44" s="88"/>
+      <c r="AE44" s="88"/>
+      <c r="AF44" s="88"/>
+      <c r="AG44" s="88"/>
+      <c r="AH44" s="88"/>
+      <c r="AI44" s="88"/>
+      <c r="AJ44" s="88"/>
+      <c r="AK44" s="88"/>
+      <c r="AL44" s="88"/>
+      <c r="AM44" s="88"/>
+      <c r="AN44" s="88"/>
+      <c r="AO44" s="88"/>
+      <c r="AP44" s="88"/>
+      <c r="AQ44" s="89"/>
+      <c r="AR44" s="71" t="s">
         <v>156</v>
       </c>
-      <c r="AS44" s="161" t="s">
+      <c r="AS44" s="71" t="s">
         <v>152</v>
       </c>
-      <c r="AT44" s="172" t="s">
-        <v>270</v>
-      </c>
-      <c r="AU44" s="172" t="s">
-        <v>227</v>
-      </c>
-      <c r="AV44" s="174" t="s">
-        <v>273</v>
-      </c>
-      <c r="AW44" s="175" t="s">
-        <v>281</v>
-      </c>
-      <c r="AX44" s="173" t="s">
+      <c r="AT44" s="72" t="s">
+        <v>254</v>
+      </c>
+      <c r="AU44" s="72" t="s">
+        <v>284</v>
+      </c>
+      <c r="AV44" s="74" t="s">
+        <v>259</v>
+      </c>
+      <c r="AW44" s="75" t="s">
+        <v>258</v>
+      </c>
+      <c r="AX44" s="73" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="45" spans="1:50" ht="203.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="166" t="s">
+      <c r="B45" s="125" t="s">
         <v>161</v>
       </c>
-      <c r="C45" s="162"/>
-      <c r="D45" s="167" t="s">
+      <c r="C45" s="93"/>
+      <c r="D45" s="92" t="s">
         <v>218</v>
       </c>
-      <c r="E45" s="162"/>
-      <c r="F45" s="168" t="s">
+      <c r="E45" s="93"/>
+      <c r="F45" s="120" t="s">
         <v>216</v>
       </c>
-      <c r="G45" s="169"/>
-      <c r="H45" s="170" t="s">
+      <c r="G45" s="121"/>
+      <c r="H45" s="84" t="s">
+        <v>245</v>
+      </c>
+      <c r="I45" s="86"/>
+      <c r="J45" s="122" t="s">
+        <v>250</v>
+      </c>
+      <c r="K45" s="123"/>
+      <c r="L45" s="124"/>
+      <c r="M45" s="93">
+        <v>2</v>
+      </c>
+      <c r="N45" s="93"/>
+      <c r="O45" s="93"/>
+      <c r="P45" s="93">
+        <v>1</v>
+      </c>
+      <c r="Q45" s="93"/>
+      <c r="R45" s="93"/>
+      <c r="S45" s="93">
+        <v>3</v>
+      </c>
+      <c r="T45" s="93"/>
+      <c r="U45" s="84" t="s">
         <v>261</v>
       </c>
-      <c r="I45" s="171"/>
-      <c r="J45" s="155" t="s">
-        <v>266</v>
-      </c>
-      <c r="K45" s="156"/>
-      <c r="L45" s="157"/>
-      <c r="M45" s="162">
-        <v>2</v>
-      </c>
-      <c r="N45" s="162"/>
-      <c r="O45" s="162"/>
-      <c r="P45" s="162">
-        <v>1</v>
-      </c>
-      <c r="Q45" s="162"/>
-      <c r="R45" s="162"/>
-      <c r="S45" s="162">
-        <v>3</v>
-      </c>
-      <c r="T45" s="162"/>
-      <c r="U45" s="155" t="s">
-        <v>232</v>
-      </c>
-      <c r="V45" s="156"/>
-      <c r="W45" s="156"/>
-      <c r="X45" s="156"/>
-      <c r="Y45" s="156"/>
-      <c r="Z45" s="157"/>
-      <c r="AA45" s="158" t="s">
-        <v>246</v>
-      </c>
-      <c r="AB45" s="159"/>
-      <c r="AC45" s="159"/>
-      <c r="AD45" s="159"/>
-      <c r="AE45" s="159"/>
-      <c r="AF45" s="159"/>
-      <c r="AG45" s="159"/>
-      <c r="AH45" s="159"/>
-      <c r="AI45" s="159"/>
-      <c r="AJ45" s="159"/>
-      <c r="AK45" s="159"/>
-      <c r="AL45" s="159"/>
-      <c r="AM45" s="159"/>
-      <c r="AN45" s="159"/>
-      <c r="AO45" s="159"/>
-      <c r="AP45" s="159"/>
-      <c r="AQ45" s="160"/>
-      <c r="AR45" s="161" t="s">
+      <c r="V45" s="85"/>
+      <c r="W45" s="85"/>
+      <c r="X45" s="85"/>
+      <c r="Y45" s="85"/>
+      <c r="Z45" s="86"/>
+      <c r="AA45" s="87" t="s">
+        <v>230</v>
+      </c>
+      <c r="AB45" s="88"/>
+      <c r="AC45" s="88"/>
+      <c r="AD45" s="88"/>
+      <c r="AE45" s="88"/>
+      <c r="AF45" s="88"/>
+      <c r="AG45" s="88"/>
+      <c r="AH45" s="88"/>
+      <c r="AI45" s="88"/>
+      <c r="AJ45" s="88"/>
+      <c r="AK45" s="88"/>
+      <c r="AL45" s="88"/>
+      <c r="AM45" s="88"/>
+      <c r="AN45" s="88"/>
+      <c r="AO45" s="88"/>
+      <c r="AP45" s="88"/>
+      <c r="AQ45" s="89"/>
+      <c r="AR45" s="71" t="s">
         <v>156</v>
       </c>
-      <c r="AS45" s="161" t="s">
+      <c r="AS45" s="71" t="s">
         <v>152</v>
       </c>
-      <c r="AT45" s="172" t="s">
-        <v>270</v>
-      </c>
-      <c r="AU45" s="172" t="s">
-        <v>227</v>
-      </c>
-      <c r="AV45" s="174" t="s">
-        <v>273</v>
-      </c>
-      <c r="AW45" s="175" t="s">
-        <v>281</v>
-      </c>
-      <c r="AX45" s="173" t="s">
+      <c r="AT45" s="72" t="s">
+        <v>254</v>
+      </c>
+      <c r="AU45" s="72" t="s">
+        <v>284</v>
+      </c>
+      <c r="AV45" s="74" t="s">
+        <v>259</v>
+      </c>
+      <c r="AW45" s="75" t="s">
+        <v>258</v>
+      </c>
+      <c r="AX45" s="73" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="46" spans="1:50" ht="203.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="166" t="s">
+      <c r="B46" s="125" t="s">
         <v>162</v>
       </c>
-      <c r="C46" s="162"/>
-      <c r="D46" s="167" t="s">
+      <c r="C46" s="93"/>
+      <c r="D46" s="92" t="s">
         <v>218</v>
       </c>
-      <c r="E46" s="162"/>
-      <c r="F46" s="168" t="s">
+      <c r="E46" s="93"/>
+      <c r="F46" s="120" t="s">
         <v>216</v>
       </c>
-      <c r="G46" s="169"/>
-      <c r="H46" s="170" t="s">
-        <v>261</v>
-      </c>
-      <c r="I46" s="171"/>
-      <c r="J46" s="155" t="s">
-        <v>266</v>
-      </c>
-      <c r="K46" s="156"/>
-      <c r="L46" s="157"/>
-      <c r="M46" s="162">
+      <c r="G46" s="121"/>
+      <c r="H46" s="84" t="s">
+        <v>245</v>
+      </c>
+      <c r="I46" s="86"/>
+      <c r="J46" s="122" t="s">
+        <v>250</v>
+      </c>
+      <c r="K46" s="123"/>
+      <c r="L46" s="124"/>
+      <c r="M46" s="93">
         <v>2</v>
       </c>
-      <c r="N46" s="162"/>
-      <c r="O46" s="162"/>
-      <c r="P46" s="163">
+      <c r="N46" s="93"/>
+      <c r="O46" s="93"/>
+      <c r="P46" s="82">
         <v>1</v>
       </c>
-      <c r="Q46" s="165"/>
-      <c r="R46" s="164"/>
-      <c r="S46" s="162">
+      <c r="Q46" s="176"/>
+      <c r="R46" s="83"/>
+      <c r="S46" s="93">
         <v>3</v>
       </c>
-      <c r="T46" s="162"/>
-      <c r="U46" s="155" t="s">
-        <v>233</v>
-      </c>
-      <c r="V46" s="156"/>
-      <c r="W46" s="156"/>
-      <c r="X46" s="156"/>
-      <c r="Y46" s="156"/>
-      <c r="Z46" s="157"/>
-      <c r="AA46" s="158" t="s">
-        <v>247</v>
-      </c>
-      <c r="AB46" s="159"/>
-      <c r="AC46" s="159"/>
-      <c r="AD46" s="159"/>
-      <c r="AE46" s="159"/>
-      <c r="AF46" s="159"/>
-      <c r="AG46" s="159"/>
-      <c r="AH46" s="159"/>
-      <c r="AI46" s="159"/>
-      <c r="AJ46" s="159"/>
-      <c r="AK46" s="159"/>
-      <c r="AL46" s="159"/>
-      <c r="AM46" s="159"/>
-      <c r="AN46" s="159"/>
-      <c r="AO46" s="159"/>
-      <c r="AP46" s="159"/>
-      <c r="AQ46" s="160"/>
-      <c r="AR46" s="161" t="s">
+      <c r="T46" s="93"/>
+      <c r="U46" s="84" t="s">
+        <v>262</v>
+      </c>
+      <c r="V46" s="85"/>
+      <c r="W46" s="85"/>
+      <c r="X46" s="85"/>
+      <c r="Y46" s="85"/>
+      <c r="Z46" s="86"/>
+      <c r="AA46" s="87" t="s">
+        <v>231</v>
+      </c>
+      <c r="AB46" s="88"/>
+      <c r="AC46" s="88"/>
+      <c r="AD46" s="88"/>
+      <c r="AE46" s="88"/>
+      <c r="AF46" s="88"/>
+      <c r="AG46" s="88"/>
+      <c r="AH46" s="88"/>
+      <c r="AI46" s="88"/>
+      <c r="AJ46" s="88"/>
+      <c r="AK46" s="88"/>
+      <c r="AL46" s="88"/>
+      <c r="AM46" s="88"/>
+      <c r="AN46" s="88"/>
+      <c r="AO46" s="88"/>
+      <c r="AP46" s="88"/>
+      <c r="AQ46" s="89"/>
+      <c r="AR46" s="71" t="s">
         <v>156</v>
       </c>
-      <c r="AS46" s="161" t="s">
+      <c r="AS46" s="71" t="s">
         <v>152</v>
       </c>
-      <c r="AT46" s="172" t="s">
-        <v>270</v>
-      </c>
-      <c r="AU46" s="172" t="s">
-        <v>227</v>
-      </c>
-      <c r="AV46" s="174" t="s">
-        <v>273</v>
-      </c>
-      <c r="AW46" s="175" t="s">
-        <v>281</v>
-      </c>
-      <c r="AX46" s="173" t="s">
+      <c r="AT46" s="72" t="s">
+        <v>254</v>
+      </c>
+      <c r="AU46" s="72" t="s">
+        <v>284</v>
+      </c>
+      <c r="AV46" s="74" t="s">
+        <v>259</v>
+      </c>
+      <c r="AW46" s="75" t="s">
+        <v>258</v>
+      </c>
+      <c r="AX46" s="73" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="47" spans="1:50" ht="203.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="166" t="s">
+      <c r="B47" s="125" t="s">
         <v>163</v>
       </c>
-      <c r="C47" s="162"/>
-      <c r="D47" s="167" t="s">
+      <c r="C47" s="93"/>
+      <c r="D47" s="92" t="s">
         <v>218</v>
       </c>
-      <c r="E47" s="162"/>
-      <c r="F47" s="168" t="s">
+      <c r="E47" s="93"/>
+      <c r="F47" s="120" t="s">
         <v>216</v>
       </c>
-      <c r="G47" s="169"/>
-      <c r="H47" s="170" t="s">
-        <v>261</v>
-      </c>
-      <c r="I47" s="171"/>
-      <c r="J47" s="155" t="s">
-        <v>266</v>
-      </c>
-      <c r="K47" s="156"/>
-      <c r="L47" s="157"/>
-      <c r="M47" s="162">
+      <c r="G47" s="121"/>
+      <c r="H47" s="84" t="s">
+        <v>245</v>
+      </c>
+      <c r="I47" s="86"/>
+      <c r="J47" s="122" t="s">
+        <v>250</v>
+      </c>
+      <c r="K47" s="123"/>
+      <c r="L47" s="124"/>
+      <c r="M47" s="93">
         <v>2</v>
       </c>
-      <c r="N47" s="162"/>
-      <c r="O47" s="162"/>
-      <c r="P47" s="163">
+      <c r="N47" s="93"/>
+      <c r="O47" s="93"/>
+      <c r="P47" s="82">
         <v>1</v>
       </c>
-      <c r="Q47" s="165"/>
-      <c r="R47" s="164"/>
-      <c r="S47" s="162">
+      <c r="Q47" s="176"/>
+      <c r="R47" s="83"/>
+      <c r="S47" s="93">
         <v>3</v>
       </c>
-      <c r="T47" s="162"/>
-      <c r="U47" s="155" t="s">
-        <v>234</v>
-      </c>
-      <c r="V47" s="156"/>
-      <c r="W47" s="156"/>
-      <c r="X47" s="156"/>
-      <c r="Y47" s="156"/>
-      <c r="Z47" s="157"/>
-      <c r="AA47" s="158" t="s">
-        <v>248</v>
-      </c>
-      <c r="AB47" s="159"/>
-      <c r="AC47" s="159"/>
-      <c r="AD47" s="159"/>
-      <c r="AE47" s="159"/>
-      <c r="AF47" s="159"/>
-      <c r="AG47" s="159"/>
-      <c r="AH47" s="159"/>
-      <c r="AI47" s="159"/>
-      <c r="AJ47" s="159"/>
-      <c r="AK47" s="159"/>
-      <c r="AL47" s="159"/>
-      <c r="AM47" s="159"/>
-      <c r="AN47" s="159"/>
-      <c r="AO47" s="159"/>
-      <c r="AP47" s="159"/>
-      <c r="AQ47" s="160"/>
-      <c r="AR47" s="161" t="s">
+      <c r="T47" s="93"/>
+      <c r="U47" s="84" t="s">
+        <v>263</v>
+      </c>
+      <c r="V47" s="85"/>
+      <c r="W47" s="85"/>
+      <c r="X47" s="85"/>
+      <c r="Y47" s="85"/>
+      <c r="Z47" s="86"/>
+      <c r="AA47" s="87" t="s">
+        <v>232</v>
+      </c>
+      <c r="AB47" s="88"/>
+      <c r="AC47" s="88"/>
+      <c r="AD47" s="88"/>
+      <c r="AE47" s="88"/>
+      <c r="AF47" s="88"/>
+      <c r="AG47" s="88"/>
+      <c r="AH47" s="88"/>
+      <c r="AI47" s="88"/>
+      <c r="AJ47" s="88"/>
+      <c r="AK47" s="88"/>
+      <c r="AL47" s="88"/>
+      <c r="AM47" s="88"/>
+      <c r="AN47" s="88"/>
+      <c r="AO47" s="88"/>
+      <c r="AP47" s="88"/>
+      <c r="AQ47" s="89"/>
+      <c r="AR47" s="71" t="s">
         <v>156</v>
       </c>
-      <c r="AS47" s="161" t="s">
+      <c r="AS47" s="71" t="s">
         <v>152</v>
       </c>
-      <c r="AT47" s="172" t="s">
-        <v>270</v>
-      </c>
-      <c r="AU47" s="172" t="s">
-        <v>227</v>
-      </c>
-      <c r="AV47" s="174" t="s">
-        <v>273</v>
-      </c>
-      <c r="AW47" s="175" t="s">
-        <v>281</v>
-      </c>
-      <c r="AX47" s="173" t="s">
+      <c r="AT47" s="72" t="s">
+        <v>254</v>
+      </c>
+      <c r="AU47" s="72" t="s">
+        <v>284</v>
+      </c>
+      <c r="AV47" s="74" t="s">
+        <v>259</v>
+      </c>
+      <c r="AW47" s="75" t="s">
+        <v>258</v>
+      </c>
+      <c r="AX47" s="73" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="48" spans="1:50" ht="203.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="166" t="s">
+      <c r="B48" s="125" t="s">
         <v>164</v>
       </c>
-      <c r="C48" s="162"/>
-      <c r="D48" s="167" t="s">
+      <c r="C48" s="93"/>
+      <c r="D48" s="92" t="s">
         <v>218</v>
       </c>
-      <c r="E48" s="162"/>
-      <c r="F48" s="168" t="s">
+      <c r="E48" s="93"/>
+      <c r="F48" s="120" t="s">
         <v>216</v>
       </c>
-      <c r="G48" s="169"/>
-      <c r="H48" s="170" t="s">
-        <v>261</v>
-      </c>
-      <c r="I48" s="171"/>
-      <c r="J48" s="155" t="s">
-        <v>266</v>
-      </c>
-      <c r="K48" s="156"/>
-      <c r="L48" s="157"/>
-      <c r="M48" s="162">
+      <c r="G48" s="121"/>
+      <c r="H48" s="84" t="s">
+        <v>245</v>
+      </c>
+      <c r="I48" s="86"/>
+      <c r="J48" s="122" t="s">
+        <v>250</v>
+      </c>
+      <c r="K48" s="123"/>
+      <c r="L48" s="124"/>
+      <c r="M48" s="93">
         <v>2</v>
       </c>
-      <c r="N48" s="162"/>
-      <c r="O48" s="162"/>
-      <c r="P48" s="163">
+      <c r="N48" s="93"/>
+      <c r="O48" s="93"/>
+      <c r="P48" s="82">
         <v>1</v>
       </c>
-      <c r="Q48" s="165"/>
-      <c r="R48" s="164"/>
-      <c r="S48" s="162">
+      <c r="Q48" s="176"/>
+      <c r="R48" s="83"/>
+      <c r="S48" s="93">
         <v>3</v>
       </c>
-      <c r="T48" s="162"/>
-      <c r="U48" s="155" t="s">
-        <v>235</v>
-      </c>
-      <c r="V48" s="156"/>
-      <c r="W48" s="156"/>
-      <c r="X48" s="156"/>
-      <c r="Y48" s="156"/>
-      <c r="Z48" s="157"/>
-      <c r="AA48" s="158" t="s">
-        <v>249</v>
-      </c>
-      <c r="AB48" s="159"/>
-      <c r="AC48" s="159"/>
-      <c r="AD48" s="159"/>
-      <c r="AE48" s="159"/>
-      <c r="AF48" s="159"/>
-      <c r="AG48" s="159"/>
-      <c r="AH48" s="159"/>
-      <c r="AI48" s="159"/>
-      <c r="AJ48" s="159"/>
-      <c r="AK48" s="159"/>
-      <c r="AL48" s="159"/>
-      <c r="AM48" s="159"/>
-      <c r="AN48" s="159"/>
-      <c r="AO48" s="159"/>
-      <c r="AP48" s="159"/>
-      <c r="AQ48" s="160"/>
-      <c r="AR48" s="161" t="s">
+      <c r="T48" s="93"/>
+      <c r="U48" s="84" t="s">
+        <v>264</v>
+      </c>
+      <c r="V48" s="85"/>
+      <c r="W48" s="85"/>
+      <c r="X48" s="85"/>
+      <c r="Y48" s="85"/>
+      <c r="Z48" s="86"/>
+      <c r="AA48" s="87" t="s">
+        <v>233</v>
+      </c>
+      <c r="AB48" s="88"/>
+      <c r="AC48" s="88"/>
+      <c r="AD48" s="88"/>
+      <c r="AE48" s="88"/>
+      <c r="AF48" s="88"/>
+      <c r="AG48" s="88"/>
+      <c r="AH48" s="88"/>
+      <c r="AI48" s="88"/>
+      <c r="AJ48" s="88"/>
+      <c r="AK48" s="88"/>
+      <c r="AL48" s="88"/>
+      <c r="AM48" s="88"/>
+      <c r="AN48" s="88"/>
+      <c r="AO48" s="88"/>
+      <c r="AP48" s="88"/>
+      <c r="AQ48" s="89"/>
+      <c r="AR48" s="71" t="s">
         <v>156</v>
       </c>
-      <c r="AS48" s="161" t="s">
+      <c r="AS48" s="71" t="s">
         <v>152</v>
       </c>
-      <c r="AT48" s="172" t="s">
-        <v>270</v>
-      </c>
-      <c r="AU48" s="172" t="s">
-        <v>227</v>
-      </c>
-      <c r="AV48" s="174" t="s">
-        <v>273</v>
-      </c>
-      <c r="AW48" s="175" t="s">
-        <v>281</v>
-      </c>
-      <c r="AX48" s="173" t="s">
+      <c r="AT48" s="72" t="s">
+        <v>254</v>
+      </c>
+      <c r="AU48" s="72" t="s">
+        <v>284</v>
+      </c>
+      <c r="AV48" s="74" t="s">
+        <v>259</v>
+      </c>
+      <c r="AW48" s="75" t="s">
+        <v>258</v>
+      </c>
+      <c r="AX48" s="73" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="49" spans="2:50" ht="203.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="166" t="s">
+      <c r="B49" s="125" t="s">
         <v>165</v>
       </c>
-      <c r="C49" s="162"/>
-      <c r="D49" s="167" t="s">
+      <c r="C49" s="93"/>
+      <c r="D49" s="92" t="s">
         <v>218</v>
       </c>
-      <c r="E49" s="162"/>
-      <c r="F49" s="168" t="s">
+      <c r="E49" s="93"/>
+      <c r="F49" s="120" t="s">
         <v>216</v>
       </c>
-      <c r="G49" s="169"/>
-      <c r="H49" s="170" t="s">
-        <v>261</v>
-      </c>
-      <c r="I49" s="171"/>
-      <c r="J49" s="155" t="s">
-        <v>266</v>
-      </c>
-      <c r="K49" s="156"/>
-      <c r="L49" s="157"/>
-      <c r="M49" s="162">
+      <c r="G49" s="121"/>
+      <c r="H49" s="84" t="s">
+        <v>245</v>
+      </c>
+      <c r="I49" s="86"/>
+      <c r="J49" s="122" t="s">
+        <v>250</v>
+      </c>
+      <c r="K49" s="123"/>
+      <c r="L49" s="124"/>
+      <c r="M49" s="93">
         <v>2</v>
       </c>
-      <c r="N49" s="162"/>
-      <c r="O49" s="162"/>
-      <c r="P49" s="163">
+      <c r="N49" s="93"/>
+      <c r="O49" s="93"/>
+      <c r="P49" s="82">
         <v>1</v>
       </c>
-      <c r="Q49" s="165"/>
-      <c r="R49" s="164"/>
-      <c r="S49" s="162">
+      <c r="Q49" s="176"/>
+      <c r="R49" s="83"/>
+      <c r="S49" s="93">
         <v>3</v>
       </c>
-      <c r="T49" s="162"/>
-      <c r="U49" s="155" t="s">
-        <v>236</v>
-      </c>
-      <c r="V49" s="156"/>
-      <c r="W49" s="156"/>
-      <c r="X49" s="156"/>
-      <c r="Y49" s="156"/>
-      <c r="Z49" s="157"/>
-      <c r="AA49" s="158" t="s">
-        <v>250</v>
-      </c>
-      <c r="AB49" s="159"/>
-      <c r="AC49" s="159"/>
-      <c r="AD49" s="159"/>
-      <c r="AE49" s="159"/>
-      <c r="AF49" s="159"/>
-      <c r="AG49" s="159"/>
-      <c r="AH49" s="159"/>
-      <c r="AI49" s="159"/>
-      <c r="AJ49" s="159"/>
-      <c r="AK49" s="159"/>
-      <c r="AL49" s="159"/>
-      <c r="AM49" s="159"/>
-      <c r="AN49" s="159"/>
-      <c r="AO49" s="159"/>
-      <c r="AP49" s="159"/>
-      <c r="AQ49" s="160"/>
-      <c r="AR49" s="161" t="s">
+      <c r="T49" s="93"/>
+      <c r="U49" s="84" t="s">
+        <v>265</v>
+      </c>
+      <c r="V49" s="85"/>
+      <c r="W49" s="85"/>
+      <c r="X49" s="85"/>
+      <c r="Y49" s="85"/>
+      <c r="Z49" s="86"/>
+      <c r="AA49" s="87" t="s">
+        <v>234</v>
+      </c>
+      <c r="AB49" s="88"/>
+      <c r="AC49" s="88"/>
+      <c r="AD49" s="88"/>
+      <c r="AE49" s="88"/>
+      <c r="AF49" s="88"/>
+      <c r="AG49" s="88"/>
+      <c r="AH49" s="88"/>
+      <c r="AI49" s="88"/>
+      <c r="AJ49" s="88"/>
+      <c r="AK49" s="88"/>
+      <c r="AL49" s="88"/>
+      <c r="AM49" s="88"/>
+      <c r="AN49" s="88"/>
+      <c r="AO49" s="88"/>
+      <c r="AP49" s="88"/>
+      <c r="AQ49" s="89"/>
+      <c r="AR49" s="71" t="s">
         <v>156</v>
       </c>
-      <c r="AS49" s="161" t="s">
+      <c r="AS49" s="71" t="s">
         <v>152</v>
       </c>
-      <c r="AT49" s="172" t="s">
-        <v>270</v>
-      </c>
-      <c r="AU49" s="172" t="s">
-        <v>227</v>
-      </c>
-      <c r="AV49" s="174" t="s">
-        <v>273</v>
-      </c>
-      <c r="AW49" s="175" t="s">
-        <v>281</v>
-      </c>
-      <c r="AX49" s="173" t="s">
+      <c r="AT49" s="72" t="s">
+        <v>254</v>
+      </c>
+      <c r="AU49" s="72" t="s">
+        <v>284</v>
+      </c>
+      <c r="AV49" s="74" t="s">
+        <v>259</v>
+      </c>
+      <c r="AW49" s="75" t="s">
+        <v>258</v>
+      </c>
+      <c r="AX49" s="73" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="50" spans="2:50" ht="203.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="166" t="s">
+      <c r="B50" s="125" t="s">
         <v>166</v>
       </c>
-      <c r="C50" s="162"/>
-      <c r="D50" s="167" t="s">
+      <c r="C50" s="93"/>
+      <c r="D50" s="92" t="s">
         <v>218</v>
       </c>
-      <c r="E50" s="162"/>
-      <c r="F50" s="168" t="s">
+      <c r="E50" s="93"/>
+      <c r="F50" s="120" t="s">
         <v>216</v>
       </c>
-      <c r="G50" s="169"/>
-      <c r="H50" s="170" t="s">
-        <v>261</v>
-      </c>
-      <c r="I50" s="171"/>
-      <c r="J50" s="155" t="s">
+      <c r="G50" s="121"/>
+      <c r="H50" s="84" t="s">
+        <v>245</v>
+      </c>
+      <c r="I50" s="86"/>
+      <c r="J50" s="122" t="s">
+        <v>250</v>
+      </c>
+      <c r="K50" s="123"/>
+      <c r="L50" s="124"/>
+      <c r="M50" s="93">
+        <v>2</v>
+      </c>
+      <c r="N50" s="93"/>
+      <c r="O50" s="93"/>
+      <c r="P50" s="82">
+        <v>1</v>
+      </c>
+      <c r="Q50" s="176"/>
+      <c r="R50" s="83"/>
+      <c r="S50" s="93">
+        <v>3</v>
+      </c>
+      <c r="T50" s="93"/>
+      <c r="U50" s="84" t="s">
         <v>266</v>
       </c>
-      <c r="K50" s="156"/>
-      <c r="L50" s="157"/>
-      <c r="M50" s="162">
-        <v>2</v>
-      </c>
-      <c r="N50" s="162"/>
-      <c r="O50" s="162"/>
-      <c r="P50" s="163">
-        <v>1</v>
-      </c>
-      <c r="Q50" s="165"/>
-      <c r="R50" s="164"/>
-      <c r="S50" s="162">
-        <v>3</v>
-      </c>
-      <c r="T50" s="162"/>
-      <c r="U50" s="155" t="s">
-        <v>237</v>
-      </c>
-      <c r="V50" s="156"/>
-      <c r="W50" s="156"/>
-      <c r="X50" s="156"/>
-      <c r="Y50" s="156"/>
-      <c r="Z50" s="157"/>
-      <c r="AA50" s="158" t="s">
-        <v>251</v>
-      </c>
-      <c r="AB50" s="159"/>
-      <c r="AC50" s="159"/>
-      <c r="AD50" s="159"/>
-      <c r="AE50" s="159"/>
-      <c r="AF50" s="159"/>
-      <c r="AG50" s="159"/>
-      <c r="AH50" s="159"/>
-      <c r="AI50" s="159"/>
-      <c r="AJ50" s="159"/>
-      <c r="AK50" s="159"/>
-      <c r="AL50" s="159"/>
-      <c r="AM50" s="159"/>
-      <c r="AN50" s="159"/>
-      <c r="AO50" s="159"/>
-      <c r="AP50" s="159"/>
-      <c r="AQ50" s="160"/>
-      <c r="AR50" s="161" t="s">
+      <c r="V50" s="85"/>
+      <c r="W50" s="85"/>
+      <c r="X50" s="85"/>
+      <c r="Y50" s="85"/>
+      <c r="Z50" s="86"/>
+      <c r="AA50" s="87" t="s">
+        <v>235</v>
+      </c>
+      <c r="AB50" s="88"/>
+      <c r="AC50" s="88"/>
+      <c r="AD50" s="88"/>
+      <c r="AE50" s="88"/>
+      <c r="AF50" s="88"/>
+      <c r="AG50" s="88"/>
+      <c r="AH50" s="88"/>
+      <c r="AI50" s="88"/>
+      <c r="AJ50" s="88"/>
+      <c r="AK50" s="88"/>
+      <c r="AL50" s="88"/>
+      <c r="AM50" s="88"/>
+      <c r="AN50" s="88"/>
+      <c r="AO50" s="88"/>
+      <c r="AP50" s="88"/>
+      <c r="AQ50" s="89"/>
+      <c r="AR50" s="71" t="s">
         <v>156</v>
       </c>
-      <c r="AS50" s="161" t="s">
+      <c r="AS50" s="71" t="s">
         <v>152</v>
       </c>
-      <c r="AT50" s="172" t="s">
-        <v>270</v>
-      </c>
-      <c r="AU50" s="172" t="s">
-        <v>227</v>
-      </c>
-      <c r="AV50" s="174" t="s">
-        <v>273</v>
-      </c>
-      <c r="AW50" s="175" t="s">
-        <v>281</v>
-      </c>
-      <c r="AX50" s="173" t="s">
+      <c r="AT50" s="72" t="s">
+        <v>254</v>
+      </c>
+      <c r="AU50" s="72" t="s">
+        <v>284</v>
+      </c>
+      <c r="AV50" s="74" t="s">
+        <v>259</v>
+      </c>
+      <c r="AW50" s="75" t="s">
+        <v>258</v>
+      </c>
+      <c r="AX50" s="73" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="51" spans="2:50" ht="203.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="166" t="s">
+      <c r="B51" s="125" t="s">
         <v>167</v>
       </c>
-      <c r="C51" s="162"/>
-      <c r="D51" s="167" t="s">
+      <c r="C51" s="93"/>
+      <c r="D51" s="92" t="s">
         <v>218</v>
       </c>
-      <c r="E51" s="162"/>
-      <c r="F51" s="168" t="s">
+      <c r="E51" s="93"/>
+      <c r="F51" s="120" t="s">
         <v>216</v>
       </c>
-      <c r="G51" s="169"/>
-      <c r="H51" s="170" t="s">
-        <v>261</v>
-      </c>
-      <c r="I51" s="171"/>
-      <c r="J51" s="155" t="s">
-        <v>266</v>
-      </c>
-      <c r="K51" s="156"/>
-      <c r="L51" s="157"/>
-      <c r="M51" s="162">
+      <c r="G51" s="121"/>
+      <c r="H51" s="84" t="s">
+        <v>245</v>
+      </c>
+      <c r="I51" s="86"/>
+      <c r="J51" s="122" t="s">
+        <v>250</v>
+      </c>
+      <c r="K51" s="123"/>
+      <c r="L51" s="124"/>
+      <c r="M51" s="93">
         <v>2</v>
       </c>
-      <c r="N51" s="162"/>
-      <c r="O51" s="162"/>
-      <c r="P51" s="163">
+      <c r="N51" s="93"/>
+      <c r="O51" s="93"/>
+      <c r="P51" s="82">
         <v>1</v>
       </c>
-      <c r="Q51" s="165"/>
-      <c r="R51" s="164"/>
-      <c r="S51" s="162">
+      <c r="Q51" s="176"/>
+      <c r="R51" s="83"/>
+      <c r="S51" s="93">
         <v>3</v>
       </c>
-      <c r="T51" s="162"/>
-      <c r="U51" s="155" t="s">
-        <v>238</v>
-      </c>
-      <c r="V51" s="156"/>
-      <c r="W51" s="156"/>
-      <c r="X51" s="156"/>
-      <c r="Y51" s="156"/>
-      <c r="Z51" s="157"/>
-      <c r="AA51" s="158" t="s">
-        <v>252</v>
-      </c>
-      <c r="AB51" s="159"/>
-      <c r="AC51" s="159"/>
-      <c r="AD51" s="159"/>
-      <c r="AE51" s="159"/>
-      <c r="AF51" s="159"/>
-      <c r="AG51" s="159"/>
-      <c r="AH51" s="159"/>
-      <c r="AI51" s="159"/>
-      <c r="AJ51" s="159"/>
-      <c r="AK51" s="159"/>
-      <c r="AL51" s="159"/>
-      <c r="AM51" s="159"/>
-      <c r="AN51" s="159"/>
-      <c r="AO51" s="159"/>
-      <c r="AP51" s="159"/>
-      <c r="AQ51" s="160"/>
-      <c r="AR51" s="161" t="s">
+      <c r="T51" s="93"/>
+      <c r="U51" s="84" t="s">
+        <v>267</v>
+      </c>
+      <c r="V51" s="85"/>
+      <c r="W51" s="85"/>
+      <c r="X51" s="85"/>
+      <c r="Y51" s="85"/>
+      <c r="Z51" s="86"/>
+      <c r="AA51" s="87" t="s">
+        <v>236</v>
+      </c>
+      <c r="AB51" s="88"/>
+      <c r="AC51" s="88"/>
+      <c r="AD51" s="88"/>
+      <c r="AE51" s="88"/>
+      <c r="AF51" s="88"/>
+      <c r="AG51" s="88"/>
+      <c r="AH51" s="88"/>
+      <c r="AI51" s="88"/>
+      <c r="AJ51" s="88"/>
+      <c r="AK51" s="88"/>
+      <c r="AL51" s="88"/>
+      <c r="AM51" s="88"/>
+      <c r="AN51" s="88"/>
+      <c r="AO51" s="88"/>
+      <c r="AP51" s="88"/>
+      <c r="AQ51" s="89"/>
+      <c r="AR51" s="71" t="s">
         <v>156</v>
       </c>
-      <c r="AS51" s="161" t="s">
+      <c r="AS51" s="71" t="s">
         <v>152</v>
       </c>
-      <c r="AT51" s="172" t="s">
-        <v>270</v>
-      </c>
-      <c r="AU51" s="172" t="s">
-        <v>227</v>
-      </c>
-      <c r="AV51" s="174" t="s">
-        <v>273</v>
-      </c>
-      <c r="AW51" s="175" t="s">
-        <v>281</v>
-      </c>
-      <c r="AX51" s="173" t="s">
+      <c r="AT51" s="72" t="s">
+        <v>254</v>
+      </c>
+      <c r="AU51" s="72" t="s">
+        <v>284</v>
+      </c>
+      <c r="AV51" s="74" t="s">
+        <v>259</v>
+      </c>
+      <c r="AW51" s="75" t="s">
+        <v>258</v>
+      </c>
+      <c r="AX51" s="73" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="52" spans="2:50" ht="203.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="166" t="s">
+      <c r="B52" s="125" t="s">
         <v>168</v>
       </c>
-      <c r="C52" s="162"/>
-      <c r="D52" s="167" t="s">
+      <c r="C52" s="93"/>
+      <c r="D52" s="92" t="s">
         <v>218</v>
       </c>
-      <c r="E52" s="162"/>
-      <c r="F52" s="168" t="s">
+      <c r="E52" s="93"/>
+      <c r="F52" s="120" t="s">
         <v>216</v>
       </c>
-      <c r="G52" s="169"/>
-      <c r="H52" s="170" t="s">
-        <v>261</v>
-      </c>
-      <c r="I52" s="171"/>
-      <c r="J52" s="155" t="s">
-        <v>266</v>
-      </c>
-      <c r="K52" s="156"/>
-      <c r="L52" s="157"/>
-      <c r="M52" s="162">
+      <c r="G52" s="121"/>
+      <c r="H52" s="84" t="s">
+        <v>245</v>
+      </c>
+      <c r="I52" s="86"/>
+      <c r="J52" s="122" t="s">
+        <v>250</v>
+      </c>
+      <c r="K52" s="123"/>
+      <c r="L52" s="124"/>
+      <c r="M52" s="93">
         <v>2</v>
       </c>
-      <c r="N52" s="162"/>
-      <c r="O52" s="162"/>
-      <c r="P52" s="163">
+      <c r="N52" s="93"/>
+      <c r="O52" s="93"/>
+      <c r="P52" s="82">
         <v>1</v>
       </c>
-      <c r="Q52" s="165"/>
-      <c r="R52" s="164"/>
-      <c r="S52" s="162">
+      <c r="Q52" s="176"/>
+      <c r="R52" s="83"/>
+      <c r="S52" s="93">
         <v>3</v>
       </c>
-      <c r="T52" s="162"/>
-      <c r="U52" s="155" t="s">
-        <v>239</v>
-      </c>
-      <c r="V52" s="156"/>
-      <c r="W52" s="156"/>
-      <c r="X52" s="156"/>
-      <c r="Y52" s="156"/>
-      <c r="Z52" s="157"/>
-      <c r="AA52" s="158" t="s">
-        <v>253</v>
-      </c>
-      <c r="AB52" s="159"/>
-      <c r="AC52" s="159"/>
-      <c r="AD52" s="159"/>
-      <c r="AE52" s="159"/>
-      <c r="AF52" s="159"/>
-      <c r="AG52" s="159"/>
-      <c r="AH52" s="159"/>
-      <c r="AI52" s="159"/>
-      <c r="AJ52" s="159"/>
-      <c r="AK52" s="159"/>
-      <c r="AL52" s="159"/>
-      <c r="AM52" s="159"/>
-      <c r="AN52" s="159"/>
-      <c r="AO52" s="159"/>
-      <c r="AP52" s="159"/>
-      <c r="AQ52" s="160"/>
-      <c r="AR52" s="161" t="s">
+      <c r="T52" s="93"/>
+      <c r="U52" s="84" t="s">
+        <v>268</v>
+      </c>
+      <c r="V52" s="85"/>
+      <c r="W52" s="85"/>
+      <c r="X52" s="85"/>
+      <c r="Y52" s="85"/>
+      <c r="Z52" s="86"/>
+      <c r="AA52" s="87" t="s">
+        <v>237</v>
+      </c>
+      <c r="AB52" s="88"/>
+      <c r="AC52" s="88"/>
+      <c r="AD52" s="88"/>
+      <c r="AE52" s="88"/>
+      <c r="AF52" s="88"/>
+      <c r="AG52" s="88"/>
+      <c r="AH52" s="88"/>
+      <c r="AI52" s="88"/>
+      <c r="AJ52" s="88"/>
+      <c r="AK52" s="88"/>
+      <c r="AL52" s="88"/>
+      <c r="AM52" s="88"/>
+      <c r="AN52" s="88"/>
+      <c r="AO52" s="88"/>
+      <c r="AP52" s="88"/>
+      <c r="AQ52" s="89"/>
+      <c r="AR52" s="71" t="s">
         <v>156</v>
       </c>
-      <c r="AS52" s="161" t="s">
+      <c r="AS52" s="71" t="s">
         <v>152</v>
       </c>
-      <c r="AT52" s="172" t="s">
-        <v>270</v>
-      </c>
-      <c r="AU52" s="172" t="s">
-        <v>227</v>
-      </c>
-      <c r="AV52" s="174" t="s">
-        <v>273</v>
-      </c>
-      <c r="AW52" s="175" t="s">
-        <v>281</v>
-      </c>
-      <c r="AX52" s="173" t="s">
+      <c r="AT52" s="72" t="s">
+        <v>254</v>
+      </c>
+      <c r="AU52" s="72" t="s">
+        <v>284</v>
+      </c>
+      <c r="AV52" s="74" t="s">
+        <v>259</v>
+      </c>
+      <c r="AW52" s="75" t="s">
+        <v>258</v>
+      </c>
+      <c r="AX52" s="73" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="53" spans="2:50" ht="203.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="166" t="s">
+      <c r="B53" s="125" t="s">
         <v>169</v>
       </c>
-      <c r="C53" s="162"/>
-      <c r="D53" s="167" t="s">
+      <c r="C53" s="93"/>
+      <c r="D53" s="92" t="s">
         <v>218</v>
       </c>
-      <c r="E53" s="162"/>
-      <c r="F53" s="168" t="s">
+      <c r="E53" s="93"/>
+      <c r="F53" s="120" t="s">
         <v>216</v>
       </c>
-      <c r="G53" s="169"/>
-      <c r="H53" s="170" t="s">
-        <v>262</v>
-      </c>
-      <c r="I53" s="171"/>
-      <c r="J53" s="155" t="s">
-        <v>267</v>
-      </c>
-      <c r="K53" s="156"/>
-      <c r="L53" s="157"/>
-      <c r="M53" s="162">
+      <c r="G53" s="121"/>
+      <c r="H53" s="84" t="s">
+        <v>246</v>
+      </c>
+      <c r="I53" s="86"/>
+      <c r="J53" s="122" t="s">
+        <v>251</v>
+      </c>
+      <c r="K53" s="123"/>
+      <c r="L53" s="124"/>
+      <c r="M53" s="93">
         <v>2</v>
       </c>
-      <c r="N53" s="162"/>
-      <c r="O53" s="162"/>
-      <c r="P53" s="163">
+      <c r="N53" s="93"/>
+      <c r="O53" s="93"/>
+      <c r="P53" s="82">
         <v>1</v>
       </c>
-      <c r="Q53" s="165"/>
-      <c r="R53" s="164"/>
-      <c r="S53" s="162">
+      <c r="Q53" s="176"/>
+      <c r="R53" s="83"/>
+      <c r="S53" s="93">
         <v>3</v>
       </c>
-      <c r="T53" s="162"/>
-      <c r="U53" s="155" t="s">
-        <v>240</v>
-      </c>
-      <c r="V53" s="156"/>
-      <c r="W53" s="156"/>
-      <c r="X53" s="156"/>
-      <c r="Y53" s="156"/>
-      <c r="Z53" s="157"/>
-      <c r="AA53" s="158" t="s">
-        <v>254</v>
-      </c>
-      <c r="AB53" s="159"/>
-      <c r="AC53" s="159"/>
-      <c r="AD53" s="159"/>
-      <c r="AE53" s="159"/>
-      <c r="AF53" s="159"/>
-      <c r="AG53" s="159"/>
-      <c r="AH53" s="159"/>
-      <c r="AI53" s="159"/>
-      <c r="AJ53" s="159"/>
-      <c r="AK53" s="159"/>
-      <c r="AL53" s="159"/>
-      <c r="AM53" s="159"/>
-      <c r="AN53" s="159"/>
-      <c r="AO53" s="159"/>
-      <c r="AP53" s="159"/>
-      <c r="AQ53" s="160"/>
-      <c r="AR53" s="161" t="s">
+      <c r="T53" s="93"/>
+      <c r="U53" s="84" t="s">
+        <v>269</v>
+      </c>
+      <c r="V53" s="85"/>
+      <c r="W53" s="85"/>
+      <c r="X53" s="85"/>
+      <c r="Y53" s="85"/>
+      <c r="Z53" s="86"/>
+      <c r="AA53" s="87" t="s">
+        <v>238</v>
+      </c>
+      <c r="AB53" s="88"/>
+      <c r="AC53" s="88"/>
+      <c r="AD53" s="88"/>
+      <c r="AE53" s="88"/>
+      <c r="AF53" s="88"/>
+      <c r="AG53" s="88"/>
+      <c r="AH53" s="88"/>
+      <c r="AI53" s="88"/>
+      <c r="AJ53" s="88"/>
+      <c r="AK53" s="88"/>
+      <c r="AL53" s="88"/>
+      <c r="AM53" s="88"/>
+      <c r="AN53" s="88"/>
+      <c r="AO53" s="88"/>
+      <c r="AP53" s="88"/>
+      <c r="AQ53" s="89"/>
+      <c r="AR53" s="71" t="s">
         <v>156</v>
       </c>
-      <c r="AS53" s="161" t="s">
+      <c r="AS53" s="71" t="s">
         <v>152</v>
       </c>
-      <c r="AT53" s="172" t="s">
-        <v>228</v>
-      </c>
-      <c r="AU53" s="172" t="s">
+      <c r="AT53" s="72" t="s">
         <v>227</v>
       </c>
-      <c r="AV53" s="174" t="s">
-        <v>273</v>
-      </c>
-      <c r="AW53" s="175" t="s">
-        <v>281</v>
-      </c>
-      <c r="AX53" s="173" t="s">
+      <c r="AU53" s="72" t="s">
+        <v>285</v>
+      </c>
+      <c r="AV53" s="74" t="s">
+        <v>259</v>
+      </c>
+      <c r="AW53" s="75" t="s">
+        <v>258</v>
+      </c>
+      <c r="AX53" s="73" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="54" spans="2:50" ht="203.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="166" t="s">
+      <c r="B54" s="125" t="s">
         <v>170</v>
       </c>
-      <c r="C54" s="162"/>
-      <c r="D54" s="167" t="s">
+      <c r="C54" s="93"/>
+      <c r="D54" s="92" t="s">
         <v>218</v>
       </c>
-      <c r="E54" s="162"/>
-      <c r="F54" s="168" t="s">
+      <c r="E54" s="93"/>
+      <c r="F54" s="120" t="s">
         <v>216</v>
       </c>
-      <c r="G54" s="169"/>
-      <c r="H54" s="170" t="s">
-        <v>262</v>
-      </c>
-      <c r="I54" s="171"/>
-      <c r="J54" s="155" t="s">
-        <v>267</v>
-      </c>
-      <c r="K54" s="156"/>
-      <c r="L54" s="157"/>
-      <c r="M54" s="162">
+      <c r="G54" s="121"/>
+      <c r="H54" s="84" t="s">
+        <v>246</v>
+      </c>
+      <c r="I54" s="86"/>
+      <c r="J54" s="122" t="s">
+        <v>251</v>
+      </c>
+      <c r="K54" s="123"/>
+      <c r="L54" s="124"/>
+      <c r="M54" s="93">
         <v>2</v>
       </c>
-      <c r="N54" s="162"/>
-      <c r="O54" s="162"/>
-      <c r="P54" s="163">
+      <c r="N54" s="93"/>
+      <c r="O54" s="93"/>
+      <c r="P54" s="82">
         <v>1</v>
       </c>
-      <c r="Q54" s="165"/>
-      <c r="R54" s="164"/>
-      <c r="S54" s="162">
+      <c r="Q54" s="176"/>
+      <c r="R54" s="83"/>
+      <c r="S54" s="93">
         <v>3</v>
       </c>
-      <c r="T54" s="162"/>
-      <c r="U54" s="155" t="s">
-        <v>241</v>
-      </c>
-      <c r="V54" s="156"/>
-      <c r="W54" s="156"/>
-      <c r="X54" s="156"/>
-      <c r="Y54" s="156"/>
-      <c r="Z54" s="157"/>
-      <c r="AA54" s="158" t="s">
+      <c r="T54" s="93"/>
+      <c r="U54" s="84" t="s">
+        <v>270</v>
+      </c>
+      <c r="V54" s="85"/>
+      <c r="W54" s="85"/>
+      <c r="X54" s="85"/>
+      <c r="Y54" s="85"/>
+      <c r="Z54" s="86"/>
+      <c r="AA54" s="87" t="s">
         <v>224</v>
       </c>
-      <c r="AB54" s="159"/>
-      <c r="AC54" s="159"/>
-      <c r="AD54" s="159"/>
-      <c r="AE54" s="159"/>
-      <c r="AF54" s="159"/>
-      <c r="AG54" s="159"/>
-      <c r="AH54" s="159"/>
-      <c r="AI54" s="159"/>
-      <c r="AJ54" s="159"/>
-      <c r="AK54" s="159"/>
-      <c r="AL54" s="159"/>
-      <c r="AM54" s="159"/>
-      <c r="AN54" s="159"/>
-      <c r="AO54" s="159"/>
-      <c r="AP54" s="159"/>
-      <c r="AQ54" s="160"/>
-      <c r="AR54" s="161" t="s">
+      <c r="AB54" s="88"/>
+      <c r="AC54" s="88"/>
+      <c r="AD54" s="88"/>
+      <c r="AE54" s="88"/>
+      <c r="AF54" s="88"/>
+      <c r="AG54" s="88"/>
+      <c r="AH54" s="88"/>
+      <c r="AI54" s="88"/>
+      <c r="AJ54" s="88"/>
+      <c r="AK54" s="88"/>
+      <c r="AL54" s="88"/>
+      <c r="AM54" s="88"/>
+      <c r="AN54" s="88"/>
+      <c r="AO54" s="88"/>
+      <c r="AP54" s="88"/>
+      <c r="AQ54" s="89"/>
+      <c r="AR54" s="71" t="s">
         <v>156</v>
       </c>
-      <c r="AS54" s="161" t="s">
+      <c r="AS54" s="71" t="s">
         <v>152</v>
       </c>
-      <c r="AT54" s="172" t="s">
-        <v>228</v>
-      </c>
-      <c r="AU54" s="172" t="s">
+      <c r="AT54" s="72" t="s">
         <v>227</v>
       </c>
-      <c r="AV54" s="174" t="s">
-        <v>273</v>
-      </c>
-      <c r="AW54" s="175" t="s">
-        <v>281</v>
-      </c>
-      <c r="AX54" s="173" t="s">
+      <c r="AU54" s="72" t="s">
+        <v>285</v>
+      </c>
+      <c r="AV54" s="74" t="s">
+        <v>259</v>
+      </c>
+      <c r="AW54" s="75" t="s">
+        <v>258</v>
+      </c>
+      <c r="AX54" s="73" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="55" spans="2:50" ht="203.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="166" t="s">
+      <c r="B55" s="125" t="s">
         <v>171</v>
       </c>
-      <c r="C55" s="162"/>
-      <c r="D55" s="167" t="s">
+      <c r="C55" s="93"/>
+      <c r="D55" s="92" t="s">
         <v>218</v>
       </c>
-      <c r="E55" s="162"/>
-      <c r="F55" s="168" t="s">
+      <c r="E55" s="93"/>
+      <c r="F55" s="120" t="s">
         <v>216</v>
       </c>
-      <c r="G55" s="169"/>
-      <c r="H55" s="170" t="s">
-        <v>263</v>
-      </c>
-      <c r="I55" s="171"/>
-      <c r="J55" s="155" t="s">
-        <v>267</v>
-      </c>
-      <c r="K55" s="156"/>
-      <c r="L55" s="157"/>
-      <c r="M55" s="162">
+      <c r="G55" s="121"/>
+      <c r="H55" s="84" t="s">
+        <v>247</v>
+      </c>
+      <c r="I55" s="86"/>
+      <c r="J55" s="122" t="s">
+        <v>251</v>
+      </c>
+      <c r="K55" s="123"/>
+      <c r="L55" s="124"/>
+      <c r="M55" s="93">
         <v>2</v>
       </c>
-      <c r="N55" s="162"/>
-      <c r="O55" s="162"/>
-      <c r="P55" s="163">
+      <c r="N55" s="93"/>
+      <c r="O55" s="93"/>
+      <c r="P55" s="82">
         <v>1</v>
       </c>
-      <c r="Q55" s="165"/>
-      <c r="R55" s="164"/>
-      <c r="S55" s="162">
+      <c r="Q55" s="176"/>
+      <c r="R55" s="83"/>
+      <c r="S55" s="93">
         <v>3</v>
       </c>
-      <c r="T55" s="162"/>
-      <c r="U55" s="155" t="s">
-        <v>242</v>
-      </c>
-      <c r="V55" s="156"/>
-      <c r="W55" s="156"/>
-      <c r="X55" s="156"/>
-      <c r="Y55" s="156"/>
-      <c r="Z55" s="157"/>
-      <c r="AA55" s="158" t="s">
-        <v>255</v>
-      </c>
-      <c r="AB55" s="159"/>
-      <c r="AC55" s="159"/>
-      <c r="AD55" s="159"/>
-      <c r="AE55" s="159"/>
-      <c r="AF55" s="159"/>
-      <c r="AG55" s="159"/>
-      <c r="AH55" s="159"/>
-      <c r="AI55" s="159"/>
-      <c r="AJ55" s="159"/>
-      <c r="AK55" s="159"/>
-      <c r="AL55" s="159"/>
-      <c r="AM55" s="159"/>
-      <c r="AN55" s="159"/>
-      <c r="AO55" s="159"/>
-      <c r="AP55" s="159"/>
-      <c r="AQ55" s="160"/>
-      <c r="AR55" s="161" t="s">
+      <c r="T55" s="93"/>
+      <c r="U55" s="84" t="s">
+        <v>271</v>
+      </c>
+      <c r="V55" s="85"/>
+      <c r="W55" s="85"/>
+      <c r="X55" s="85"/>
+      <c r="Y55" s="85"/>
+      <c r="Z55" s="86"/>
+      <c r="AA55" s="87" t="s">
+        <v>239</v>
+      </c>
+      <c r="AB55" s="88"/>
+      <c r="AC55" s="88"/>
+      <c r="AD55" s="88"/>
+      <c r="AE55" s="88"/>
+      <c r="AF55" s="88"/>
+      <c r="AG55" s="88"/>
+      <c r="AH55" s="88"/>
+      <c r="AI55" s="88"/>
+      <c r="AJ55" s="88"/>
+      <c r="AK55" s="88"/>
+      <c r="AL55" s="88"/>
+      <c r="AM55" s="88"/>
+      <c r="AN55" s="88"/>
+      <c r="AO55" s="88"/>
+      <c r="AP55" s="88"/>
+      <c r="AQ55" s="89"/>
+      <c r="AR55" s="71" t="s">
         <v>156</v>
       </c>
-      <c r="AS55" s="161" t="s">
+      <c r="AS55" s="71" t="s">
         <v>152</v>
       </c>
-      <c r="AT55" s="172" t="s">
-        <v>228</v>
-      </c>
-      <c r="AU55" s="172" t="s">
+      <c r="AT55" s="72" t="s">
         <v>227</v>
       </c>
-      <c r="AV55" s="174" t="s">
-        <v>273</v>
-      </c>
-      <c r="AW55" s="175" t="s">
-        <v>281</v>
-      </c>
-      <c r="AX55" s="173" t="s">
+      <c r="AU55" s="72" t="s">
+        <v>285</v>
+      </c>
+      <c r="AV55" s="74" t="s">
+        <v>259</v>
+      </c>
+      <c r="AW55" s="75" t="s">
+        <v>258</v>
+      </c>
+      <c r="AX55" s="73" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="56" spans="2:50" ht="203.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="166" t="s">
+      <c r="B56" s="125" t="s">
         <v>172</v>
       </c>
-      <c r="C56" s="162"/>
-      <c r="D56" s="167" t="s">
+      <c r="C56" s="93"/>
+      <c r="D56" s="92" t="s">
         <v>218</v>
       </c>
-      <c r="E56" s="162"/>
-      <c r="F56" s="168" t="s">
+      <c r="E56" s="93"/>
+      <c r="F56" s="120" t="s">
         <v>217</v>
       </c>
-      <c r="G56" s="169"/>
-      <c r="H56" s="170" t="s">
+      <c r="G56" s="121"/>
+      <c r="H56" s="84" t="s">
         <v>219</v>
       </c>
-      <c r="I56" s="171"/>
-      <c r="J56" s="155" t="s">
-        <v>266</v>
-      </c>
-      <c r="K56" s="156"/>
-      <c r="L56" s="157"/>
-      <c r="M56" s="162">
+      <c r="I56" s="86"/>
+      <c r="J56" s="122" t="s">
+        <v>250</v>
+      </c>
+      <c r="K56" s="123"/>
+      <c r="L56" s="124"/>
+      <c r="M56" s="93">
         <v>2</v>
       </c>
-      <c r="N56" s="162"/>
-      <c r="O56" s="162"/>
-      <c r="P56" s="163">
+      <c r="N56" s="93"/>
+      <c r="O56" s="93"/>
+      <c r="P56" s="82">
         <v>1</v>
       </c>
-      <c r="Q56" s="165"/>
-      <c r="R56" s="164"/>
-      <c r="S56" s="162">
+      <c r="Q56" s="176"/>
+      <c r="R56" s="83"/>
+      <c r="S56" s="93">
         <v>3</v>
       </c>
-      <c r="T56" s="162"/>
-      <c r="U56" s="155" t="s">
-        <v>231</v>
-      </c>
-      <c r="V56" s="156"/>
-      <c r="W56" s="156"/>
-      <c r="X56" s="156"/>
-      <c r="Y56" s="156"/>
-      <c r="Z56" s="157"/>
-      <c r="AA56" s="158" t="s">
+      <c r="T56" s="93"/>
+      <c r="U56" s="84" t="s">
+        <v>260</v>
+      </c>
+      <c r="V56" s="85"/>
+      <c r="W56" s="85"/>
+      <c r="X56" s="85"/>
+      <c r="Y56" s="85"/>
+      <c r="Z56" s="86"/>
+      <c r="AA56" s="87" t="s">
         <v>223</v>
       </c>
-      <c r="AB56" s="159"/>
-      <c r="AC56" s="159"/>
-      <c r="AD56" s="159"/>
-      <c r="AE56" s="159"/>
-      <c r="AF56" s="159"/>
-      <c r="AG56" s="159"/>
-      <c r="AH56" s="159"/>
-      <c r="AI56" s="159"/>
-      <c r="AJ56" s="159"/>
-      <c r="AK56" s="159"/>
-      <c r="AL56" s="159"/>
-      <c r="AM56" s="159"/>
-      <c r="AN56" s="159"/>
-      <c r="AO56" s="159"/>
-      <c r="AP56" s="159"/>
-      <c r="AQ56" s="160"/>
-      <c r="AR56" s="161" t="s">
+      <c r="AB56" s="88"/>
+      <c r="AC56" s="88"/>
+      <c r="AD56" s="88"/>
+      <c r="AE56" s="88"/>
+      <c r="AF56" s="88"/>
+      <c r="AG56" s="88"/>
+      <c r="AH56" s="88"/>
+      <c r="AI56" s="88"/>
+      <c r="AJ56" s="88"/>
+      <c r="AK56" s="88"/>
+      <c r="AL56" s="88"/>
+      <c r="AM56" s="88"/>
+      <c r="AN56" s="88"/>
+      <c r="AO56" s="88"/>
+      <c r="AP56" s="88"/>
+      <c r="AQ56" s="89"/>
+      <c r="AR56" s="71" t="s">
         <v>156</v>
       </c>
-      <c r="AS56" s="161" t="s">
+      <c r="AS56" s="71" t="s">
         <v>152</v>
       </c>
-      <c r="AT56" s="172" t="s">
-        <v>270</v>
-      </c>
-      <c r="AU56" s="172" t="s">
-        <v>227</v>
-      </c>
-      <c r="AV56" s="174" t="s">
-        <v>274</v>
-      </c>
-      <c r="AW56" s="175" t="s">
-        <v>281</v>
-      </c>
-      <c r="AX56" s="173" t="s">
+      <c r="AT56" s="72" t="s">
+        <v>254</v>
+      </c>
+      <c r="AU56" s="72" t="s">
+        <v>284</v>
+      </c>
+      <c r="AV56" s="74" t="s">
+        <v>259</v>
+      </c>
+      <c r="AW56" s="75" t="s">
+        <v>258</v>
+      </c>
+      <c r="AX56" s="73" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="57" spans="2:50" ht="203.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="166" t="s">
+      <c r="B57" s="125" t="s">
         <v>173</v>
       </c>
-      <c r="C57" s="162"/>
-      <c r="D57" s="167" t="s">
+      <c r="C57" s="93"/>
+      <c r="D57" s="92" t="s">
         <v>218</v>
       </c>
-      <c r="E57" s="162"/>
-      <c r="F57" s="168" t="s">
+      <c r="E57" s="93"/>
+      <c r="F57" s="120" t="s">
         <v>217</v>
       </c>
-      <c r="G57" s="169"/>
-      <c r="H57" s="170" t="s">
+      <c r="G57" s="121"/>
+      <c r="H57" s="84" t="s">
         <v>219</v>
       </c>
-      <c r="I57" s="171"/>
-      <c r="J57" s="155" t="s">
-        <v>266</v>
-      </c>
-      <c r="K57" s="156"/>
-      <c r="L57" s="157"/>
-      <c r="M57" s="162">
+      <c r="I57" s="86"/>
+      <c r="J57" s="122" t="s">
+        <v>250</v>
+      </c>
+      <c r="K57" s="123"/>
+      <c r="L57" s="124"/>
+      <c r="M57" s="93">
         <v>2</v>
       </c>
-      <c r="N57" s="162"/>
-      <c r="O57" s="162"/>
-      <c r="P57" s="163">
+      <c r="N57" s="93"/>
+      <c r="O57" s="93"/>
+      <c r="P57" s="82">
         <v>1</v>
       </c>
-      <c r="Q57" s="165"/>
-      <c r="R57" s="164"/>
-      <c r="S57" s="162">
+      <c r="Q57" s="176"/>
+      <c r="R57" s="83"/>
+      <c r="S57" s="93">
         <v>3</v>
       </c>
-      <c r="T57" s="162"/>
-      <c r="U57" s="155" t="s">
-        <v>232</v>
-      </c>
-      <c r="V57" s="156"/>
-      <c r="W57" s="156"/>
-      <c r="X57" s="156"/>
-      <c r="Y57" s="156"/>
-      <c r="Z57" s="157"/>
-      <c r="AA57" s="158" t="s">
-        <v>246</v>
-      </c>
-      <c r="AB57" s="159"/>
-      <c r="AC57" s="159"/>
-      <c r="AD57" s="159"/>
-      <c r="AE57" s="159"/>
-      <c r="AF57" s="159"/>
-      <c r="AG57" s="159"/>
-      <c r="AH57" s="159"/>
-      <c r="AI57" s="159"/>
-      <c r="AJ57" s="159"/>
-      <c r="AK57" s="159"/>
-      <c r="AL57" s="159"/>
-      <c r="AM57" s="159"/>
-      <c r="AN57" s="159"/>
-      <c r="AO57" s="159"/>
-      <c r="AP57" s="159"/>
-      <c r="AQ57" s="160"/>
-      <c r="AR57" s="161" t="s">
+      <c r="T57" s="93"/>
+      <c r="U57" s="84" t="s">
+        <v>261</v>
+      </c>
+      <c r="V57" s="85"/>
+      <c r="W57" s="85"/>
+      <c r="X57" s="85"/>
+      <c r="Y57" s="85"/>
+      <c r="Z57" s="86"/>
+      <c r="AA57" s="87" t="s">
+        <v>230</v>
+      </c>
+      <c r="AB57" s="88"/>
+      <c r="AC57" s="88"/>
+      <c r="AD57" s="88"/>
+      <c r="AE57" s="88"/>
+      <c r="AF57" s="88"/>
+      <c r="AG57" s="88"/>
+      <c r="AH57" s="88"/>
+      <c r="AI57" s="88"/>
+      <c r="AJ57" s="88"/>
+      <c r="AK57" s="88"/>
+      <c r="AL57" s="88"/>
+      <c r="AM57" s="88"/>
+      <c r="AN57" s="88"/>
+      <c r="AO57" s="88"/>
+      <c r="AP57" s="88"/>
+      <c r="AQ57" s="89"/>
+      <c r="AR57" s="71" t="s">
         <v>156</v>
       </c>
-      <c r="AS57" s="161" t="s">
+      <c r="AS57" s="71" t="s">
         <v>152</v>
       </c>
-      <c r="AT57" s="172" t="s">
-        <v>270</v>
-      </c>
-      <c r="AU57" s="172" t="s">
-        <v>227</v>
-      </c>
-      <c r="AV57" s="174" t="s">
-        <v>274</v>
-      </c>
-      <c r="AW57" s="175" t="s">
-        <v>281</v>
-      </c>
-      <c r="AX57" s="173" t="s">
+      <c r="AT57" s="72" t="s">
+        <v>254</v>
+      </c>
+      <c r="AU57" s="72" t="s">
+        <v>284</v>
+      </c>
+      <c r="AV57" s="74" t="s">
+        <v>259</v>
+      </c>
+      <c r="AW57" s="75" t="s">
+        <v>258</v>
+      </c>
+      <c r="AX57" s="73" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="58" spans="2:50" ht="203.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="166" t="s">
+      <c r="B58" s="125" t="s">
         <v>174</v>
       </c>
-      <c r="C58" s="162"/>
-      <c r="D58" s="167" t="s">
+      <c r="C58" s="93"/>
+      <c r="D58" s="92" t="s">
         <v>218</v>
       </c>
-      <c r="E58" s="162"/>
-      <c r="F58" s="168" t="s">
+      <c r="E58" s="93"/>
+      <c r="F58" s="120" t="s">
         <v>217</v>
       </c>
-      <c r="G58" s="169"/>
-      <c r="H58" s="170" t="s">
+      <c r="G58" s="121"/>
+      <c r="H58" s="84" t="s">
         <v>219</v>
       </c>
-      <c r="I58" s="171"/>
-      <c r="J58" s="155" t="s">
-        <v>266</v>
-      </c>
-      <c r="K58" s="156"/>
-      <c r="L58" s="157"/>
-      <c r="M58" s="162">
+      <c r="I58" s="86"/>
+      <c r="J58" s="122" t="s">
+        <v>250</v>
+      </c>
+      <c r="K58" s="123"/>
+      <c r="L58" s="124"/>
+      <c r="M58" s="93">
         <v>2</v>
       </c>
-      <c r="N58" s="162"/>
-      <c r="O58" s="162"/>
-      <c r="P58" s="163">
+      <c r="N58" s="93"/>
+      <c r="O58" s="93"/>
+      <c r="P58" s="82">
         <v>1</v>
       </c>
-      <c r="Q58" s="165"/>
-      <c r="R58" s="164"/>
-      <c r="S58" s="162">
+      <c r="Q58" s="176"/>
+      <c r="R58" s="83"/>
+      <c r="S58" s="93">
         <v>3</v>
       </c>
-      <c r="T58" s="162"/>
-      <c r="U58" s="155" t="s">
-        <v>233</v>
-      </c>
-      <c r="V58" s="156"/>
-      <c r="W58" s="156"/>
-      <c r="X58" s="156"/>
-      <c r="Y58" s="156"/>
-      <c r="Z58" s="157"/>
-      <c r="AA58" s="158" t="s">
-        <v>247</v>
-      </c>
-      <c r="AB58" s="159"/>
-      <c r="AC58" s="159"/>
-      <c r="AD58" s="159"/>
-      <c r="AE58" s="159"/>
-      <c r="AF58" s="159"/>
-      <c r="AG58" s="159"/>
-      <c r="AH58" s="159"/>
-      <c r="AI58" s="159"/>
-      <c r="AJ58" s="159"/>
-      <c r="AK58" s="159"/>
-      <c r="AL58" s="159"/>
-      <c r="AM58" s="159"/>
-      <c r="AN58" s="159"/>
-      <c r="AO58" s="159"/>
-      <c r="AP58" s="159"/>
-      <c r="AQ58" s="160"/>
-      <c r="AR58" s="161" t="s">
+      <c r="T58" s="93"/>
+      <c r="U58" s="84" t="s">
+        <v>262</v>
+      </c>
+      <c r="V58" s="85"/>
+      <c r="W58" s="85"/>
+      <c r="X58" s="85"/>
+      <c r="Y58" s="85"/>
+      <c r="Z58" s="86"/>
+      <c r="AA58" s="87" t="s">
+        <v>231</v>
+      </c>
+      <c r="AB58" s="88"/>
+      <c r="AC58" s="88"/>
+      <c r="AD58" s="88"/>
+      <c r="AE58" s="88"/>
+      <c r="AF58" s="88"/>
+      <c r="AG58" s="88"/>
+      <c r="AH58" s="88"/>
+      <c r="AI58" s="88"/>
+      <c r="AJ58" s="88"/>
+      <c r="AK58" s="88"/>
+      <c r="AL58" s="88"/>
+      <c r="AM58" s="88"/>
+      <c r="AN58" s="88"/>
+      <c r="AO58" s="88"/>
+      <c r="AP58" s="88"/>
+      <c r="AQ58" s="89"/>
+      <c r="AR58" s="71" t="s">
         <v>156</v>
       </c>
-      <c r="AS58" s="161" t="s">
+      <c r="AS58" s="71" t="s">
         <v>152</v>
       </c>
-      <c r="AT58" s="172" t="s">
-        <v>270</v>
-      </c>
-      <c r="AU58" s="172" t="s">
-        <v>227</v>
-      </c>
-      <c r="AV58" s="174" t="s">
-        <v>274</v>
-      </c>
-      <c r="AW58" s="175" t="s">
-        <v>281</v>
-      </c>
-      <c r="AX58" s="173" t="s">
+      <c r="AT58" s="72" t="s">
+        <v>254</v>
+      </c>
+      <c r="AU58" s="72" t="s">
+        <v>284</v>
+      </c>
+      <c r="AV58" s="74" t="s">
+        <v>259</v>
+      </c>
+      <c r="AW58" s="75" t="s">
+        <v>258</v>
+      </c>
+      <c r="AX58" s="73" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="59" spans="2:50" ht="203.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="166" t="s">
+      <c r="B59" s="125" t="s">
         <v>175</v>
       </c>
-      <c r="C59" s="162"/>
-      <c r="D59" s="167" t="s">
+      <c r="C59" s="93"/>
+      <c r="D59" s="92" t="s">
         <v>218</v>
       </c>
-      <c r="E59" s="162"/>
-      <c r="F59" s="168" t="s">
+      <c r="E59" s="93"/>
+      <c r="F59" s="120" t="s">
         <v>217</v>
       </c>
-      <c r="G59" s="169"/>
-      <c r="H59" s="170" t="s">
+      <c r="G59" s="121"/>
+      <c r="H59" s="84" t="s">
         <v>219</v>
       </c>
-      <c r="I59" s="171"/>
-      <c r="J59" s="155" t="s">
-        <v>266</v>
-      </c>
-      <c r="K59" s="156"/>
-      <c r="L59" s="157"/>
-      <c r="M59" s="162">
+      <c r="I59" s="86"/>
+      <c r="J59" s="122" t="s">
+        <v>250</v>
+      </c>
+      <c r="K59" s="123"/>
+      <c r="L59" s="124"/>
+      <c r="M59" s="93">
         <v>2</v>
       </c>
-      <c r="N59" s="162"/>
-      <c r="O59" s="162"/>
-      <c r="P59" s="163">
+      <c r="N59" s="93"/>
+      <c r="O59" s="93"/>
+      <c r="P59" s="82">
         <v>1</v>
       </c>
-      <c r="Q59" s="165"/>
-      <c r="R59" s="164"/>
-      <c r="S59" s="162">
+      <c r="Q59" s="176"/>
+      <c r="R59" s="83"/>
+      <c r="S59" s="93">
         <v>3</v>
       </c>
-      <c r="T59" s="162"/>
-      <c r="U59" s="155" t="s">
-        <v>234</v>
-      </c>
-      <c r="V59" s="156"/>
-      <c r="W59" s="156"/>
-      <c r="X59" s="156"/>
-      <c r="Y59" s="156"/>
-      <c r="Z59" s="157"/>
-      <c r="AA59" s="158" t="s">
-        <v>256</v>
-      </c>
-      <c r="AB59" s="159"/>
-      <c r="AC59" s="159"/>
-      <c r="AD59" s="159"/>
-      <c r="AE59" s="159"/>
-      <c r="AF59" s="159"/>
-      <c r="AG59" s="159"/>
-      <c r="AH59" s="159"/>
-      <c r="AI59" s="159"/>
-      <c r="AJ59" s="159"/>
-      <c r="AK59" s="159"/>
-      <c r="AL59" s="159"/>
-      <c r="AM59" s="159"/>
-      <c r="AN59" s="159"/>
-      <c r="AO59" s="159"/>
-      <c r="AP59" s="159"/>
-      <c r="AQ59" s="160"/>
-      <c r="AR59" s="161" t="s">
+      <c r="T59" s="93"/>
+      <c r="U59" s="84" t="s">
+        <v>263</v>
+      </c>
+      <c r="V59" s="85"/>
+      <c r="W59" s="85"/>
+      <c r="X59" s="85"/>
+      <c r="Y59" s="85"/>
+      <c r="Z59" s="86"/>
+      <c r="AA59" s="87" t="s">
+        <v>240</v>
+      </c>
+      <c r="AB59" s="88"/>
+      <c r="AC59" s="88"/>
+      <c r="AD59" s="88"/>
+      <c r="AE59" s="88"/>
+      <c r="AF59" s="88"/>
+      <c r="AG59" s="88"/>
+      <c r="AH59" s="88"/>
+      <c r="AI59" s="88"/>
+      <c r="AJ59" s="88"/>
+      <c r="AK59" s="88"/>
+      <c r="AL59" s="88"/>
+      <c r="AM59" s="88"/>
+      <c r="AN59" s="88"/>
+      <c r="AO59" s="88"/>
+      <c r="AP59" s="88"/>
+      <c r="AQ59" s="89"/>
+      <c r="AR59" s="71" t="s">
         <v>156</v>
       </c>
-      <c r="AS59" s="161" t="s">
+      <c r="AS59" s="71" t="s">
         <v>152</v>
       </c>
-      <c r="AT59" s="172" t="s">
-        <v>270</v>
-      </c>
-      <c r="AU59" s="172" t="s">
-        <v>227</v>
-      </c>
-      <c r="AV59" s="174" t="s">
-        <v>274</v>
-      </c>
-      <c r="AW59" s="175" t="s">
-        <v>281</v>
-      </c>
-      <c r="AX59" s="173" t="s">
+      <c r="AT59" s="72" t="s">
+        <v>254</v>
+      </c>
+      <c r="AU59" s="72" t="s">
+        <v>284</v>
+      </c>
+      <c r="AV59" s="74" t="s">
+        <v>259</v>
+      </c>
+      <c r="AW59" s="75" t="s">
+        <v>258</v>
+      </c>
+      <c r="AX59" s="73" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="60" spans="2:50" ht="203.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="166" t="s">
+      <c r="B60" s="125" t="s">
         <v>176</v>
       </c>
-      <c r="C60" s="162"/>
-      <c r="D60" s="167" t="s">
+      <c r="C60" s="93"/>
+      <c r="D60" s="92" t="s">
         <v>218</v>
       </c>
-      <c r="E60" s="162"/>
-      <c r="F60" s="168" t="s">
+      <c r="E60" s="93"/>
+      <c r="F60" s="120" t="s">
         <v>217</v>
       </c>
-      <c r="G60" s="169"/>
-      <c r="H60" s="170" t="s">
+      <c r="G60" s="121"/>
+      <c r="H60" s="84" t="s">
         <v>219</v>
       </c>
-      <c r="I60" s="171"/>
-      <c r="J60" s="155" t="s">
-        <v>266</v>
-      </c>
-      <c r="K60" s="156"/>
-      <c r="L60" s="157"/>
-      <c r="M60" s="162">
+      <c r="I60" s="86"/>
+      <c r="J60" s="122" t="s">
+        <v>250</v>
+      </c>
+      <c r="K60" s="123"/>
+      <c r="L60" s="124"/>
+      <c r="M60" s="93">
         <v>2</v>
       </c>
-      <c r="N60" s="162"/>
-      <c r="O60" s="162"/>
-      <c r="P60" s="163">
+      <c r="N60" s="93"/>
+      <c r="O60" s="93"/>
+      <c r="P60" s="82">
         <v>1</v>
       </c>
-      <c r="Q60" s="165"/>
-      <c r="R60" s="164"/>
-      <c r="S60" s="162">
+      <c r="Q60" s="176"/>
+      <c r="R60" s="83"/>
+      <c r="S60" s="93">
         <v>3</v>
       </c>
-      <c r="T60" s="162"/>
-      <c r="U60" s="155" t="s">
-        <v>235</v>
-      </c>
-      <c r="V60" s="156"/>
-      <c r="W60" s="156"/>
-      <c r="X60" s="156"/>
-      <c r="Y60" s="156"/>
-      <c r="Z60" s="157"/>
-      <c r="AA60" s="158" t="s">
-        <v>257</v>
-      </c>
-      <c r="AB60" s="159"/>
-      <c r="AC60" s="159"/>
-      <c r="AD60" s="159"/>
-      <c r="AE60" s="159"/>
-      <c r="AF60" s="159"/>
-      <c r="AG60" s="159"/>
-      <c r="AH60" s="159"/>
-      <c r="AI60" s="159"/>
-      <c r="AJ60" s="159"/>
-      <c r="AK60" s="159"/>
-      <c r="AL60" s="159"/>
-      <c r="AM60" s="159"/>
-      <c r="AN60" s="159"/>
-      <c r="AO60" s="159"/>
-      <c r="AP60" s="159"/>
-      <c r="AQ60" s="160"/>
-      <c r="AR60" s="161" t="s">
+      <c r="T60" s="93"/>
+      <c r="U60" s="84" t="s">
+        <v>264</v>
+      </c>
+      <c r="V60" s="85"/>
+      <c r="W60" s="85"/>
+      <c r="X60" s="85"/>
+      <c r="Y60" s="85"/>
+      <c r="Z60" s="86"/>
+      <c r="AA60" s="87" t="s">
+        <v>241</v>
+      </c>
+      <c r="AB60" s="88"/>
+      <c r="AC60" s="88"/>
+      <c r="AD60" s="88"/>
+      <c r="AE60" s="88"/>
+      <c r="AF60" s="88"/>
+      <c r="AG60" s="88"/>
+      <c r="AH60" s="88"/>
+      <c r="AI60" s="88"/>
+      <c r="AJ60" s="88"/>
+      <c r="AK60" s="88"/>
+      <c r="AL60" s="88"/>
+      <c r="AM60" s="88"/>
+      <c r="AN60" s="88"/>
+      <c r="AO60" s="88"/>
+      <c r="AP60" s="88"/>
+      <c r="AQ60" s="89"/>
+      <c r="AR60" s="71" t="s">
         <v>156</v>
       </c>
-      <c r="AS60" s="161" t="s">
+      <c r="AS60" s="71" t="s">
         <v>152</v>
       </c>
-      <c r="AT60" s="172" t="s">
-        <v>270</v>
-      </c>
-      <c r="AU60" s="172" t="s">
-        <v>227</v>
-      </c>
-      <c r="AV60" s="174" t="s">
-        <v>274</v>
-      </c>
-      <c r="AW60" s="175" t="s">
-        <v>281</v>
-      </c>
-      <c r="AX60" s="173" t="s">
+      <c r="AT60" s="72" t="s">
+        <v>254</v>
+      </c>
+      <c r="AU60" s="72" t="s">
+        <v>284</v>
+      </c>
+      <c r="AV60" s="74" t="s">
+        <v>259</v>
+      </c>
+      <c r="AW60" s="75" t="s">
+        <v>258</v>
+      </c>
+      <c r="AX60" s="73" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="61" spans="2:50" ht="203.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="166" t="s">
+      <c r="B61" s="125" t="s">
         <v>177</v>
       </c>
-      <c r="C61" s="162"/>
-      <c r="D61" s="167" t="s">
+      <c r="C61" s="93"/>
+      <c r="D61" s="92" t="s">
         <v>218</v>
       </c>
-      <c r="E61" s="162"/>
-      <c r="F61" s="168" t="s">
+      <c r="E61" s="93"/>
+      <c r="F61" s="120" t="s">
         <v>217</v>
       </c>
-      <c r="G61" s="169"/>
-      <c r="H61" s="170" t="s">
+      <c r="G61" s="121"/>
+      <c r="H61" s="84" t="s">
         <v>219</v>
       </c>
-      <c r="I61" s="171"/>
-      <c r="J61" s="155" t="s">
-        <v>266</v>
-      </c>
-      <c r="K61" s="156"/>
-      <c r="L61" s="157"/>
-      <c r="M61" s="162">
+      <c r="I61" s="86"/>
+      <c r="J61" s="122" t="s">
+        <v>250</v>
+      </c>
+      <c r="K61" s="123"/>
+      <c r="L61" s="124"/>
+      <c r="M61" s="93">
         <v>2</v>
       </c>
-      <c r="N61" s="162"/>
-      <c r="O61" s="162"/>
-      <c r="P61" s="163">
+      <c r="N61" s="93"/>
+      <c r="O61" s="93"/>
+      <c r="P61" s="82">
         <v>1</v>
       </c>
-      <c r="Q61" s="165"/>
-      <c r="R61" s="164"/>
-      <c r="S61" s="162">
+      <c r="Q61" s="176"/>
+      <c r="R61" s="83"/>
+      <c r="S61" s="93">
         <v>3</v>
       </c>
-      <c r="T61" s="162"/>
-      <c r="U61" s="155" t="s">
-        <v>236</v>
-      </c>
-      <c r="V61" s="156"/>
-      <c r="W61" s="156"/>
-      <c r="X61" s="156"/>
-      <c r="Y61" s="156"/>
-      <c r="Z61" s="157"/>
-      <c r="AA61" s="158" t="s">
-        <v>250</v>
-      </c>
-      <c r="AB61" s="159"/>
-      <c r="AC61" s="159"/>
-      <c r="AD61" s="159"/>
-      <c r="AE61" s="159"/>
-      <c r="AF61" s="159"/>
-      <c r="AG61" s="159"/>
-      <c r="AH61" s="159"/>
-      <c r="AI61" s="159"/>
-      <c r="AJ61" s="159"/>
-      <c r="AK61" s="159"/>
-      <c r="AL61" s="159"/>
-      <c r="AM61" s="159"/>
-      <c r="AN61" s="159"/>
-      <c r="AO61" s="159"/>
-      <c r="AP61" s="159"/>
-      <c r="AQ61" s="160"/>
-      <c r="AR61" s="161" t="s">
+      <c r="T61" s="93"/>
+      <c r="U61" s="84" t="s">
+        <v>265</v>
+      </c>
+      <c r="V61" s="85"/>
+      <c r="W61" s="85"/>
+      <c r="X61" s="85"/>
+      <c r="Y61" s="85"/>
+      <c r="Z61" s="86"/>
+      <c r="AA61" s="87" t="s">
+        <v>234</v>
+      </c>
+      <c r="AB61" s="88"/>
+      <c r="AC61" s="88"/>
+      <c r="AD61" s="88"/>
+      <c r="AE61" s="88"/>
+      <c r="AF61" s="88"/>
+      <c r="AG61" s="88"/>
+      <c r="AH61" s="88"/>
+      <c r="AI61" s="88"/>
+      <c r="AJ61" s="88"/>
+      <c r="AK61" s="88"/>
+      <c r="AL61" s="88"/>
+      <c r="AM61" s="88"/>
+      <c r="AN61" s="88"/>
+      <c r="AO61" s="88"/>
+      <c r="AP61" s="88"/>
+      <c r="AQ61" s="89"/>
+      <c r="AR61" s="71" t="s">
         <v>156</v>
       </c>
-      <c r="AS61" s="161" t="s">
+      <c r="AS61" s="71" t="s">
         <v>152</v>
       </c>
-      <c r="AT61" s="172" t="s">
-        <v>270</v>
-      </c>
-      <c r="AU61" s="172" t="s">
-        <v>227</v>
-      </c>
-      <c r="AV61" s="174" t="s">
-        <v>274</v>
-      </c>
-      <c r="AW61" s="175" t="s">
-        <v>281</v>
-      </c>
-      <c r="AX61" s="173" t="s">
+      <c r="AT61" s="72" t="s">
+        <v>254</v>
+      </c>
+      <c r="AU61" s="72" t="s">
+        <v>284</v>
+      </c>
+      <c r="AV61" s="74" t="s">
+        <v>259</v>
+      </c>
+      <c r="AW61" s="75" t="s">
+        <v>258</v>
+      </c>
+      <c r="AX61" s="73" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="62" spans="2:50" ht="203.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="166" t="s">
+      <c r="B62" s="125" t="s">
         <v>178</v>
       </c>
-      <c r="C62" s="162"/>
-      <c r="D62" s="167" t="s">
+      <c r="C62" s="93"/>
+      <c r="D62" s="92" t="s">
         <v>218</v>
       </c>
-      <c r="E62" s="162"/>
-      <c r="F62" s="168" t="s">
+      <c r="E62" s="93"/>
+      <c r="F62" s="120" t="s">
         <v>217</v>
       </c>
-      <c r="G62" s="169"/>
-      <c r="H62" s="170" t="s">
+      <c r="G62" s="121"/>
+      <c r="H62" s="84" t="s">
         <v>219</v>
       </c>
-      <c r="I62" s="171"/>
-      <c r="J62" s="155" t="s">
+      <c r="I62" s="86"/>
+      <c r="J62" s="122" t="s">
+        <v>250</v>
+      </c>
+      <c r="K62" s="123"/>
+      <c r="L62" s="124"/>
+      <c r="M62" s="93">
+        <v>2</v>
+      </c>
+      <c r="N62" s="93"/>
+      <c r="O62" s="93"/>
+      <c r="P62" s="82">
+        <v>1</v>
+      </c>
+      <c r="Q62" s="176"/>
+      <c r="R62" s="83"/>
+      <c r="S62" s="93">
+        <v>3</v>
+      </c>
+      <c r="T62" s="93"/>
+      <c r="U62" s="84" t="s">
         <v>266</v>
       </c>
-      <c r="K62" s="156"/>
-      <c r="L62" s="157"/>
-      <c r="M62" s="162">
-        <v>2</v>
-      </c>
-      <c r="N62" s="162"/>
-      <c r="O62" s="162"/>
-      <c r="P62" s="163">
-        <v>1</v>
-      </c>
-      <c r="Q62" s="165"/>
-      <c r="R62" s="164"/>
-      <c r="S62" s="162">
-        <v>3</v>
-      </c>
-      <c r="T62" s="162"/>
-      <c r="U62" s="155" t="s">
-        <v>237</v>
-      </c>
-      <c r="V62" s="156"/>
-      <c r="W62" s="156"/>
-      <c r="X62" s="156"/>
-      <c r="Y62" s="156"/>
-      <c r="Z62" s="157"/>
-      <c r="AA62" s="158" t="s">
-        <v>251</v>
-      </c>
-      <c r="AB62" s="159"/>
-      <c r="AC62" s="159"/>
-      <c r="AD62" s="159"/>
-      <c r="AE62" s="159"/>
-      <c r="AF62" s="159"/>
-      <c r="AG62" s="159"/>
-      <c r="AH62" s="159"/>
-      <c r="AI62" s="159"/>
-      <c r="AJ62" s="159"/>
-      <c r="AK62" s="159"/>
-      <c r="AL62" s="159"/>
-      <c r="AM62" s="159"/>
-      <c r="AN62" s="159"/>
-      <c r="AO62" s="159"/>
-      <c r="AP62" s="159"/>
-      <c r="AQ62" s="160"/>
-      <c r="AR62" s="161" t="s">
+      <c r="V62" s="85"/>
+      <c r="W62" s="85"/>
+      <c r="X62" s="85"/>
+      <c r="Y62" s="85"/>
+      <c r="Z62" s="86"/>
+      <c r="AA62" s="87" t="s">
+        <v>235</v>
+      </c>
+      <c r="AB62" s="88"/>
+      <c r="AC62" s="88"/>
+      <c r="AD62" s="88"/>
+      <c r="AE62" s="88"/>
+      <c r="AF62" s="88"/>
+      <c r="AG62" s="88"/>
+      <c r="AH62" s="88"/>
+      <c r="AI62" s="88"/>
+      <c r="AJ62" s="88"/>
+      <c r="AK62" s="88"/>
+      <c r="AL62" s="88"/>
+      <c r="AM62" s="88"/>
+      <c r="AN62" s="88"/>
+      <c r="AO62" s="88"/>
+      <c r="AP62" s="88"/>
+      <c r="AQ62" s="89"/>
+      <c r="AR62" s="71" t="s">
         <v>156</v>
       </c>
-      <c r="AS62" s="161" t="s">
+      <c r="AS62" s="71" t="s">
         <v>152</v>
       </c>
-      <c r="AT62" s="172" t="s">
-        <v>270</v>
-      </c>
-      <c r="AU62" s="172" t="s">
-        <v>227</v>
-      </c>
-      <c r="AV62" s="174" t="s">
-        <v>274</v>
-      </c>
-      <c r="AW62" s="175" t="s">
-        <v>281</v>
-      </c>
-      <c r="AX62" s="173" t="s">
+      <c r="AT62" s="72" t="s">
+        <v>254</v>
+      </c>
+      <c r="AU62" s="72" t="s">
+        <v>284</v>
+      </c>
+      <c r="AV62" s="74" t="s">
+        <v>259</v>
+      </c>
+      <c r="AW62" s="75" t="s">
+        <v>258</v>
+      </c>
+      <c r="AX62" s="73" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="63" spans="2:50" ht="203.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="166" t="s">
+      <c r="B63" s="125" t="s">
         <v>179</v>
       </c>
-      <c r="C63" s="162"/>
-      <c r="D63" s="167" t="s">
+      <c r="C63" s="93"/>
+      <c r="D63" s="92" t="s">
         <v>218</v>
       </c>
-      <c r="E63" s="162"/>
-      <c r="F63" s="168" t="s">
+      <c r="E63" s="93"/>
+      <c r="F63" s="120" t="s">
         <v>217</v>
       </c>
-      <c r="G63" s="169"/>
-      <c r="H63" s="170" t="s">
+      <c r="G63" s="121"/>
+      <c r="H63" s="84" t="s">
         <v>219</v>
       </c>
-      <c r="I63" s="171"/>
-      <c r="J63" s="155" t="s">
-        <v>266</v>
-      </c>
-      <c r="K63" s="156"/>
-      <c r="L63" s="157"/>
-      <c r="M63" s="162">
+      <c r="I63" s="86"/>
+      <c r="J63" s="122" t="s">
+        <v>250</v>
+      </c>
+      <c r="K63" s="123"/>
+      <c r="L63" s="124"/>
+      <c r="M63" s="93">
         <v>2</v>
       </c>
-      <c r="N63" s="162"/>
-      <c r="O63" s="162"/>
-      <c r="P63" s="163">
+      <c r="N63" s="93"/>
+      <c r="O63" s="93"/>
+      <c r="P63" s="82">
         <v>1</v>
       </c>
-      <c r="Q63" s="165"/>
-      <c r="R63" s="164"/>
-      <c r="S63" s="162">
+      <c r="Q63" s="176"/>
+      <c r="R63" s="83"/>
+      <c r="S63" s="93">
         <v>3</v>
       </c>
-      <c r="T63" s="162"/>
-      <c r="U63" s="155" t="s">
-        <v>238</v>
-      </c>
-      <c r="V63" s="156"/>
-      <c r="W63" s="156"/>
-      <c r="X63" s="156"/>
-      <c r="Y63" s="156"/>
-      <c r="Z63" s="157"/>
-      <c r="AA63" s="158" t="s">
+      <c r="T63" s="93"/>
+      <c r="U63" s="84" t="s">
+        <v>267</v>
+      </c>
+      <c r="V63" s="85"/>
+      <c r="W63" s="85"/>
+      <c r="X63" s="85"/>
+      <c r="Y63" s="85"/>
+      <c r="Z63" s="86"/>
+      <c r="AA63" s="87" t="s">
+        <v>242</v>
+      </c>
+      <c r="AB63" s="88"/>
+      <c r="AC63" s="88"/>
+      <c r="AD63" s="88"/>
+      <c r="AE63" s="88"/>
+      <c r="AF63" s="88"/>
+      <c r="AG63" s="88"/>
+      <c r="AH63" s="88"/>
+      <c r="AI63" s="88"/>
+      <c r="AJ63" s="88"/>
+      <c r="AK63" s="88"/>
+      <c r="AL63" s="88"/>
+      <c r="AM63" s="88"/>
+      <c r="AN63" s="88"/>
+      <c r="AO63" s="88"/>
+      <c r="AP63" s="88"/>
+      <c r="AQ63" s="89"/>
+      <c r="AR63" s="71" t="s">
+        <v>156</v>
+      </c>
+      <c r="AS63" s="71" t="s">
+        <v>152</v>
+      </c>
+      <c r="AT63" s="72" t="s">
+        <v>254</v>
+      </c>
+      <c r="AU63" s="72" t="s">
+        <v>284</v>
+      </c>
+      <c r="AV63" s="74" t="s">
+        <v>259</v>
+      </c>
+      <c r="AW63" s="75" t="s">
         <v>258</v>
       </c>
-      <c r="AB63" s="159"/>
-      <c r="AC63" s="159"/>
-      <c r="AD63" s="159"/>
-      <c r="AE63" s="159"/>
-      <c r="AF63" s="159"/>
-      <c r="AG63" s="159"/>
-      <c r="AH63" s="159"/>
-      <c r="AI63" s="159"/>
-      <c r="AJ63" s="159"/>
-      <c r="AK63" s="159"/>
-      <c r="AL63" s="159"/>
-      <c r="AM63" s="159"/>
-      <c r="AN63" s="159"/>
-      <c r="AO63" s="159"/>
-      <c r="AP63" s="159"/>
-      <c r="AQ63" s="160"/>
-      <c r="AR63" s="161" t="s">
-        <v>156</v>
-      </c>
-      <c r="AS63" s="161" t="s">
-        <v>152</v>
-      </c>
-      <c r="AT63" s="172" t="s">
-        <v>270</v>
-      </c>
-      <c r="AU63" s="172" t="s">
-        <v>227</v>
-      </c>
-      <c r="AV63" s="174" t="s">
-        <v>274</v>
-      </c>
-      <c r="AW63" s="175" t="s">
-        <v>281</v>
-      </c>
-      <c r="AX63" s="173" t="s">
+      <c r="AX63" s="73" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="64" spans="2:50" ht="203.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="166" t="s">
+      <c r="B64" s="125" t="s">
         <v>180</v>
       </c>
-      <c r="C64" s="162"/>
-      <c r="D64" s="167" t="s">
+      <c r="C64" s="93"/>
+      <c r="D64" s="92" t="s">
         <v>218</v>
       </c>
-      <c r="E64" s="162"/>
-      <c r="F64" s="168" t="s">
+      <c r="E64" s="93"/>
+      <c r="F64" s="120" t="s">
         <v>217</v>
       </c>
-      <c r="G64" s="169"/>
-      <c r="H64" s="170" t="s">
-        <v>264</v>
-      </c>
-      <c r="I64" s="171"/>
-      <c r="J64" s="155" t="s">
-        <v>266</v>
-      </c>
-      <c r="K64" s="156"/>
-      <c r="L64" s="157"/>
-      <c r="M64" s="162">
+      <c r="G64" s="121"/>
+      <c r="H64" s="84" t="s">
+        <v>248</v>
+      </c>
+      <c r="I64" s="86"/>
+      <c r="J64" s="122" t="s">
+        <v>250</v>
+      </c>
+      <c r="K64" s="123"/>
+      <c r="L64" s="124"/>
+      <c r="M64" s="93">
         <v>2</v>
       </c>
-      <c r="N64" s="162"/>
-      <c r="O64" s="162"/>
-      <c r="P64" s="163">
+      <c r="N64" s="93"/>
+      <c r="O64" s="93"/>
+      <c r="P64" s="82">
         <v>1</v>
       </c>
-      <c r="Q64" s="165"/>
-      <c r="R64" s="164"/>
-      <c r="S64" s="162">
+      <c r="Q64" s="176"/>
+      <c r="R64" s="83"/>
+      <c r="S64" s="93">
         <v>3</v>
       </c>
-      <c r="T64" s="162"/>
-      <c r="U64" s="155" t="s">
-        <v>239</v>
-      </c>
-      <c r="V64" s="156"/>
-      <c r="W64" s="156"/>
-      <c r="X64" s="156"/>
-      <c r="Y64" s="156"/>
-      <c r="Z64" s="157"/>
-      <c r="AA64" s="158" t="s">
-        <v>253</v>
-      </c>
-      <c r="AB64" s="159"/>
-      <c r="AC64" s="159"/>
-      <c r="AD64" s="159"/>
-      <c r="AE64" s="159"/>
-      <c r="AF64" s="159"/>
-      <c r="AG64" s="159"/>
-      <c r="AH64" s="159"/>
-      <c r="AI64" s="159"/>
-      <c r="AJ64" s="159"/>
-      <c r="AK64" s="159"/>
-      <c r="AL64" s="159"/>
-      <c r="AM64" s="159"/>
-      <c r="AN64" s="159"/>
-      <c r="AO64" s="159"/>
-      <c r="AP64" s="159"/>
-      <c r="AQ64" s="160"/>
-      <c r="AR64" s="161" t="s">
+      <c r="T64" s="93"/>
+      <c r="U64" s="84" t="s">
+        <v>268</v>
+      </c>
+      <c r="V64" s="85"/>
+      <c r="W64" s="85"/>
+      <c r="X64" s="85"/>
+      <c r="Y64" s="85"/>
+      <c r="Z64" s="86"/>
+      <c r="AA64" s="87" t="s">
+        <v>237</v>
+      </c>
+      <c r="AB64" s="88"/>
+      <c r="AC64" s="88"/>
+      <c r="AD64" s="88"/>
+      <c r="AE64" s="88"/>
+      <c r="AF64" s="88"/>
+      <c r="AG64" s="88"/>
+      <c r="AH64" s="88"/>
+      <c r="AI64" s="88"/>
+      <c r="AJ64" s="88"/>
+      <c r="AK64" s="88"/>
+      <c r="AL64" s="88"/>
+      <c r="AM64" s="88"/>
+      <c r="AN64" s="88"/>
+      <c r="AO64" s="88"/>
+      <c r="AP64" s="88"/>
+      <c r="AQ64" s="89"/>
+      <c r="AR64" s="71" t="s">
         <v>156</v>
       </c>
-      <c r="AS64" s="161" t="s">
+      <c r="AS64" s="71" t="s">
         <v>152</v>
       </c>
-      <c r="AT64" s="172" t="s">
-        <v>270</v>
-      </c>
-      <c r="AU64" s="172" t="s">
-        <v>227</v>
-      </c>
-      <c r="AV64" s="174" t="s">
-        <v>274</v>
-      </c>
-      <c r="AW64" s="175" t="s">
-        <v>281</v>
-      </c>
-      <c r="AX64" s="173" t="s">
+      <c r="AT64" s="72" t="s">
+        <v>254</v>
+      </c>
+      <c r="AU64" s="72" t="s">
+        <v>284</v>
+      </c>
+      <c r="AV64" s="74" t="s">
+        <v>259</v>
+      </c>
+      <c r="AW64" s="75" t="s">
+        <v>258</v>
+      </c>
+      <c r="AX64" s="73" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="65" spans="2:50" ht="203.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="166" t="s">
+      <c r="B65" s="125" t="s">
         <v>181</v>
       </c>
-      <c r="C65" s="162"/>
-      <c r="D65" s="167" t="s">
+      <c r="C65" s="93"/>
+      <c r="D65" s="92" t="s">
         <v>218</v>
       </c>
-      <c r="E65" s="162"/>
-      <c r="F65" s="168" t="s">
+      <c r="E65" s="93"/>
+      <c r="F65" s="120" t="s">
         <v>210</v>
       </c>
-      <c r="G65" s="169"/>
-      <c r="H65" s="170" t="s">
+      <c r="G65" s="121"/>
+      <c r="H65" s="84" t="s">
         <v>220</v>
       </c>
-      <c r="I65" s="171"/>
-      <c r="J65" s="155" t="s">
-        <v>268</v>
-      </c>
-      <c r="K65" s="156"/>
-      <c r="L65" s="157"/>
-      <c r="M65" s="162">
+      <c r="I65" s="86"/>
+      <c r="J65" s="122" t="s">
+        <v>252</v>
+      </c>
+      <c r="K65" s="123"/>
+      <c r="L65" s="124"/>
+      <c r="M65" s="93">
         <v>2</v>
       </c>
-      <c r="N65" s="162"/>
-      <c r="O65" s="162"/>
-      <c r="P65" s="163">
+      <c r="N65" s="93"/>
+      <c r="O65" s="93"/>
+      <c r="P65" s="82">
         <v>1</v>
       </c>
-      <c r="Q65" s="165"/>
-      <c r="R65" s="164"/>
-      <c r="S65" s="162">
+      <c r="Q65" s="176"/>
+      <c r="R65" s="83"/>
+      <c r="S65" s="93">
         <v>3</v>
       </c>
-      <c r="T65" s="162"/>
-      <c r="U65" s="155" t="s">
-        <v>231</v>
-      </c>
-      <c r="V65" s="156"/>
-      <c r="W65" s="156"/>
-      <c r="X65" s="156"/>
-      <c r="Y65" s="156"/>
-      <c r="Z65" s="157"/>
-      <c r="AA65" s="158" t="s">
+      <c r="T65" s="93"/>
+      <c r="U65" s="84" t="s">
+        <v>272</v>
+      </c>
+      <c r="V65" s="85"/>
+      <c r="W65" s="85"/>
+      <c r="X65" s="85"/>
+      <c r="Y65" s="85"/>
+      <c r="Z65" s="86"/>
+      <c r="AA65" s="87" t="s">
         <v>223</v>
       </c>
-      <c r="AB65" s="159"/>
-      <c r="AC65" s="159"/>
-      <c r="AD65" s="159"/>
-      <c r="AE65" s="159"/>
-      <c r="AF65" s="159"/>
-      <c r="AG65" s="159"/>
-      <c r="AH65" s="159"/>
-      <c r="AI65" s="159"/>
-      <c r="AJ65" s="159"/>
-      <c r="AK65" s="159"/>
-      <c r="AL65" s="159"/>
-      <c r="AM65" s="159"/>
-      <c r="AN65" s="159"/>
-      <c r="AO65" s="159"/>
-      <c r="AP65" s="159"/>
-      <c r="AQ65" s="160"/>
-      <c r="AR65" s="161" t="s">
+      <c r="AB65" s="88"/>
+      <c r="AC65" s="88"/>
+      <c r="AD65" s="88"/>
+      <c r="AE65" s="88"/>
+      <c r="AF65" s="88"/>
+      <c r="AG65" s="88"/>
+      <c r="AH65" s="88"/>
+      <c r="AI65" s="88"/>
+      <c r="AJ65" s="88"/>
+      <c r="AK65" s="88"/>
+      <c r="AL65" s="88"/>
+      <c r="AM65" s="88"/>
+      <c r="AN65" s="88"/>
+      <c r="AO65" s="88"/>
+      <c r="AP65" s="88"/>
+      <c r="AQ65" s="89"/>
+      <c r="AR65" s="71" t="s">
         <v>156</v>
       </c>
-      <c r="AS65" s="161" t="s">
+      <c r="AS65" s="71" t="s">
         <v>152</v>
       </c>
-      <c r="AT65" s="172" t="s">
-        <v>271</v>
-      </c>
-      <c r="AU65" s="172" t="s">
-        <v>227</v>
-      </c>
-      <c r="AV65" s="174" t="s">
-        <v>275</v>
-      </c>
-      <c r="AW65" s="175" t="s">
-        <v>281</v>
-      </c>
-      <c r="AX65" s="173" t="s">
+      <c r="AT65" s="72" t="s">
+        <v>255</v>
+      </c>
+      <c r="AU65" s="72" t="s">
+        <v>286</v>
+      </c>
+      <c r="AV65" s="74" t="s">
+        <v>259</v>
+      </c>
+      <c r="AW65" s="75" t="s">
+        <v>258</v>
+      </c>
+      <c r="AX65" s="73" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="66" spans="2:50" ht="203.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B66" s="166" t="s">
+      <c r="B66" s="125" t="s">
         <v>185</v>
       </c>
-      <c r="C66" s="162"/>
-      <c r="D66" s="167" t="s">
+      <c r="C66" s="93"/>
+      <c r="D66" s="92" t="s">
         <v>218</v>
       </c>
-      <c r="E66" s="162"/>
-      <c r="F66" s="168" t="s">
+      <c r="E66" s="93"/>
+      <c r="F66" s="120" t="s">
         <v>210</v>
       </c>
-      <c r="G66" s="169"/>
-      <c r="H66" s="170" t="s">
+      <c r="G66" s="121"/>
+      <c r="H66" s="84" t="s">
         <v>220</v>
       </c>
-      <c r="I66" s="171"/>
-      <c r="J66" s="155" t="s">
-        <v>268</v>
-      </c>
-      <c r="K66" s="156"/>
-      <c r="L66" s="157"/>
-      <c r="M66" s="162">
+      <c r="I66" s="86"/>
+      <c r="J66" s="122" t="s">
+        <v>252</v>
+      </c>
+      <c r="K66" s="123"/>
+      <c r="L66" s="124"/>
+      <c r="M66" s="93">
         <v>2</v>
       </c>
-      <c r="N66" s="162"/>
-      <c r="O66" s="162"/>
-      <c r="P66" s="163">
+      <c r="N66" s="93"/>
+      <c r="O66" s="93"/>
+      <c r="P66" s="82">
         <v>1</v>
       </c>
-      <c r="Q66" s="165"/>
-      <c r="R66" s="164"/>
-      <c r="S66" s="162">
+      <c r="Q66" s="176"/>
+      <c r="R66" s="83"/>
+      <c r="S66" s="93">
         <v>3</v>
       </c>
-      <c r="T66" s="162"/>
-      <c r="U66" s="155" t="s">
-        <v>232</v>
-      </c>
-      <c r="V66" s="156"/>
-      <c r="W66" s="156"/>
-      <c r="X66" s="156"/>
-      <c r="Y66" s="156"/>
-      <c r="Z66" s="157"/>
-      <c r="AA66" s="158" t="s">
-        <v>246</v>
-      </c>
-      <c r="AB66" s="159"/>
-      <c r="AC66" s="159"/>
-      <c r="AD66" s="159"/>
-      <c r="AE66" s="159"/>
-      <c r="AF66" s="159"/>
-      <c r="AG66" s="159"/>
-      <c r="AH66" s="159"/>
-      <c r="AI66" s="159"/>
-      <c r="AJ66" s="159"/>
-      <c r="AK66" s="159"/>
-      <c r="AL66" s="159"/>
-      <c r="AM66" s="159"/>
-      <c r="AN66" s="159"/>
-      <c r="AO66" s="159"/>
-      <c r="AP66" s="159"/>
-      <c r="AQ66" s="160"/>
-      <c r="AR66" s="161" t="s">
+      <c r="T66" s="93"/>
+      <c r="U66" s="84" t="s">
+        <v>273</v>
+      </c>
+      <c r="V66" s="85"/>
+      <c r="W66" s="85"/>
+      <c r="X66" s="85"/>
+      <c r="Y66" s="85"/>
+      <c r="Z66" s="86"/>
+      <c r="AA66" s="87" t="s">
+        <v>230</v>
+      </c>
+      <c r="AB66" s="88"/>
+      <c r="AC66" s="88"/>
+      <c r="AD66" s="88"/>
+      <c r="AE66" s="88"/>
+      <c r="AF66" s="88"/>
+      <c r="AG66" s="88"/>
+      <c r="AH66" s="88"/>
+      <c r="AI66" s="88"/>
+      <c r="AJ66" s="88"/>
+      <c r="AK66" s="88"/>
+      <c r="AL66" s="88"/>
+      <c r="AM66" s="88"/>
+      <c r="AN66" s="88"/>
+      <c r="AO66" s="88"/>
+      <c r="AP66" s="88"/>
+      <c r="AQ66" s="89"/>
+      <c r="AR66" s="71" t="s">
         <v>156</v>
       </c>
-      <c r="AS66" s="161" t="s">
+      <c r="AS66" s="71" t="s">
         <v>152</v>
       </c>
-      <c r="AT66" s="172" t="s">
-        <v>271</v>
-      </c>
-      <c r="AU66" s="172" t="s">
-        <v>227</v>
-      </c>
-      <c r="AV66" s="174" t="s">
-        <v>275</v>
-      </c>
-      <c r="AW66" s="175" t="s">
-        <v>281</v>
-      </c>
-      <c r="AX66" s="173" t="s">
+      <c r="AT66" s="72" t="s">
+        <v>255</v>
+      </c>
+      <c r="AU66" s="72" t="s">
+        <v>286</v>
+      </c>
+      <c r="AV66" s="74" t="s">
+        <v>259</v>
+      </c>
+      <c r="AW66" s="75" t="s">
+        <v>258</v>
+      </c>
+      <c r="AX66" s="73" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="67" spans="2:50" ht="203.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="166" t="s">
+      <c r="B67" s="125" t="s">
         <v>186</v>
       </c>
-      <c r="C67" s="162"/>
-      <c r="D67" s="167" t="s">
+      <c r="C67" s="93"/>
+      <c r="D67" s="92" t="s">
         <v>218</v>
       </c>
-      <c r="E67" s="162"/>
-      <c r="F67" s="168" t="s">
+      <c r="E67" s="93"/>
+      <c r="F67" s="120" t="s">
         <v>210</v>
       </c>
-      <c r="G67" s="169"/>
-      <c r="H67" s="170" t="s">
+      <c r="G67" s="121"/>
+      <c r="H67" s="84" t="s">
         <v>220</v>
       </c>
-      <c r="I67" s="171"/>
-      <c r="J67" s="155" t="s">
-        <v>268</v>
-      </c>
-      <c r="K67" s="156"/>
-      <c r="L67" s="157"/>
-      <c r="M67" s="162">
+      <c r="I67" s="86"/>
+      <c r="J67" s="122" t="s">
+        <v>252</v>
+      </c>
+      <c r="K67" s="123"/>
+      <c r="L67" s="124"/>
+      <c r="M67" s="93">
         <v>2</v>
       </c>
-      <c r="N67" s="162"/>
-      <c r="O67" s="162"/>
-      <c r="P67" s="163">
+      <c r="N67" s="93"/>
+      <c r="O67" s="93"/>
+      <c r="P67" s="82">
         <v>1</v>
       </c>
-      <c r="Q67" s="165"/>
-      <c r="R67" s="164"/>
-      <c r="S67" s="162">
+      <c r="Q67" s="176"/>
+      <c r="R67" s="83"/>
+      <c r="S67" s="93">
         <v>3</v>
       </c>
-      <c r="T67" s="162"/>
-      <c r="U67" s="155" t="s">
-        <v>233</v>
-      </c>
-      <c r="V67" s="156"/>
-      <c r="W67" s="156"/>
-      <c r="X67" s="156"/>
-      <c r="Y67" s="156"/>
-      <c r="Z67" s="157"/>
-      <c r="AA67" s="158" t="s">
-        <v>247</v>
-      </c>
-      <c r="AB67" s="159"/>
-      <c r="AC67" s="159"/>
-      <c r="AD67" s="159"/>
-      <c r="AE67" s="159"/>
-      <c r="AF67" s="159"/>
-      <c r="AG67" s="159"/>
-      <c r="AH67" s="159"/>
-      <c r="AI67" s="159"/>
-      <c r="AJ67" s="159"/>
-      <c r="AK67" s="159"/>
-      <c r="AL67" s="159"/>
-      <c r="AM67" s="159"/>
-      <c r="AN67" s="159"/>
-      <c r="AO67" s="159"/>
-      <c r="AP67" s="159"/>
-      <c r="AQ67" s="160"/>
-      <c r="AR67" s="161" t="s">
+      <c r="T67" s="93"/>
+      <c r="U67" s="84" t="s">
+        <v>274</v>
+      </c>
+      <c r="V67" s="85"/>
+      <c r="W67" s="85"/>
+      <c r="X67" s="85"/>
+      <c r="Y67" s="85"/>
+      <c r="Z67" s="86"/>
+      <c r="AA67" s="87" t="s">
+        <v>231</v>
+      </c>
+      <c r="AB67" s="88"/>
+      <c r="AC67" s="88"/>
+      <c r="AD67" s="88"/>
+      <c r="AE67" s="88"/>
+      <c r="AF67" s="88"/>
+      <c r="AG67" s="88"/>
+      <c r="AH67" s="88"/>
+      <c r="AI67" s="88"/>
+      <c r="AJ67" s="88"/>
+      <c r="AK67" s="88"/>
+      <c r="AL67" s="88"/>
+      <c r="AM67" s="88"/>
+      <c r="AN67" s="88"/>
+      <c r="AO67" s="88"/>
+      <c r="AP67" s="88"/>
+      <c r="AQ67" s="89"/>
+      <c r="AR67" s="71" t="s">
         <v>156</v>
       </c>
-      <c r="AS67" s="161" t="s">
+      <c r="AS67" s="71" t="s">
         <v>152</v>
       </c>
-      <c r="AT67" s="172" t="s">
-        <v>271</v>
-      </c>
-      <c r="AU67" s="172" t="s">
-        <v>227</v>
-      </c>
-      <c r="AV67" s="174" t="s">
-        <v>275</v>
-      </c>
-      <c r="AW67" s="175" t="s">
-        <v>281</v>
-      </c>
-      <c r="AX67" s="173" t="s">
+      <c r="AT67" s="72" t="s">
+        <v>255</v>
+      </c>
+      <c r="AU67" s="72" t="s">
+        <v>286</v>
+      </c>
+      <c r="AV67" s="74" t="s">
+        <v>259</v>
+      </c>
+      <c r="AW67" s="75" t="s">
+        <v>258</v>
+      </c>
+      <c r="AX67" s="73" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="68" spans="2:50" ht="203.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="166" t="s">
+      <c r="B68" s="125" t="s">
         <v>187</v>
       </c>
-      <c r="C68" s="162"/>
-      <c r="D68" s="167" t="s">
+      <c r="C68" s="93"/>
+      <c r="D68" s="92" t="s">
         <v>218</v>
       </c>
-      <c r="E68" s="162"/>
-      <c r="F68" s="168" t="s">
+      <c r="E68" s="93"/>
+      <c r="F68" s="120" t="s">
         <v>210</v>
       </c>
-      <c r="G68" s="169"/>
-      <c r="H68" s="170" t="s">
+      <c r="G68" s="121"/>
+      <c r="H68" s="84" t="s">
         <v>220</v>
       </c>
-      <c r="I68" s="171"/>
-      <c r="J68" s="155" t="s">
-        <v>268</v>
-      </c>
-      <c r="K68" s="156"/>
-      <c r="L68" s="157"/>
-      <c r="M68" s="162">
+      <c r="I68" s="86"/>
+      <c r="J68" s="122" t="s">
+        <v>252</v>
+      </c>
+      <c r="K68" s="123"/>
+      <c r="L68" s="124"/>
+      <c r="M68" s="93">
         <v>2</v>
       </c>
-      <c r="N68" s="162"/>
-      <c r="O68" s="162"/>
-      <c r="P68" s="163">
+      <c r="N68" s="93"/>
+      <c r="O68" s="93"/>
+      <c r="P68" s="82">
         <v>1</v>
       </c>
-      <c r="Q68" s="165"/>
-      <c r="R68" s="164"/>
-      <c r="S68" s="162">
+      <c r="Q68" s="176"/>
+      <c r="R68" s="83"/>
+      <c r="S68" s="93">
         <v>3</v>
       </c>
-      <c r="T68" s="162"/>
-      <c r="U68" s="155" t="s">
-        <v>234</v>
-      </c>
-      <c r="V68" s="156"/>
-      <c r="W68" s="156"/>
-      <c r="X68" s="156"/>
-      <c r="Y68" s="156"/>
-      <c r="Z68" s="157"/>
-      <c r="AA68" s="158" t="s">
-        <v>248</v>
-      </c>
-      <c r="AB68" s="159"/>
-      <c r="AC68" s="159"/>
-      <c r="AD68" s="159"/>
-      <c r="AE68" s="159"/>
-      <c r="AF68" s="159"/>
-      <c r="AG68" s="159"/>
-      <c r="AH68" s="159"/>
-      <c r="AI68" s="159"/>
-      <c r="AJ68" s="159"/>
-      <c r="AK68" s="159"/>
-      <c r="AL68" s="159"/>
-      <c r="AM68" s="159"/>
-      <c r="AN68" s="159"/>
-      <c r="AO68" s="159"/>
-      <c r="AP68" s="159"/>
-      <c r="AQ68" s="160"/>
-      <c r="AR68" s="161" t="s">
+      <c r="T68" s="93"/>
+      <c r="U68" s="84" t="s">
+        <v>275</v>
+      </c>
+      <c r="V68" s="85"/>
+      <c r="W68" s="85"/>
+      <c r="X68" s="85"/>
+      <c r="Y68" s="85"/>
+      <c r="Z68" s="86"/>
+      <c r="AA68" s="87" t="s">
+        <v>232</v>
+      </c>
+      <c r="AB68" s="88"/>
+      <c r="AC68" s="88"/>
+      <c r="AD68" s="88"/>
+      <c r="AE68" s="88"/>
+      <c r="AF68" s="88"/>
+      <c r="AG68" s="88"/>
+      <c r="AH68" s="88"/>
+      <c r="AI68" s="88"/>
+      <c r="AJ68" s="88"/>
+      <c r="AK68" s="88"/>
+      <c r="AL68" s="88"/>
+      <c r="AM68" s="88"/>
+      <c r="AN68" s="88"/>
+      <c r="AO68" s="88"/>
+      <c r="AP68" s="88"/>
+      <c r="AQ68" s="89"/>
+      <c r="AR68" s="71" t="s">
         <v>156</v>
       </c>
-      <c r="AS68" s="161" t="s">
+      <c r="AS68" s="71" t="s">
         <v>152</v>
       </c>
-      <c r="AT68" s="172" t="s">
-        <v>271</v>
-      </c>
-      <c r="AU68" s="172" t="s">
-        <v>227</v>
-      </c>
-      <c r="AV68" s="174" t="s">
-        <v>275</v>
-      </c>
-      <c r="AW68" s="175" t="s">
-        <v>281</v>
-      </c>
-      <c r="AX68" s="173" t="s">
+      <c r="AT68" s="72" t="s">
+        <v>255</v>
+      </c>
+      <c r="AU68" s="72" t="s">
+        <v>286</v>
+      </c>
+      <c r="AV68" s="74" t="s">
+        <v>259</v>
+      </c>
+      <c r="AW68" s="75" t="s">
+        <v>258</v>
+      </c>
+      <c r="AX68" s="73" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="69" spans="2:50" ht="203.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="166" t="s">
+      <c r="B69" s="125" t="s">
         <v>188</v>
       </c>
-      <c r="C69" s="162"/>
-      <c r="D69" s="167" t="s">
+      <c r="C69" s="93"/>
+      <c r="D69" s="92" t="s">
         <v>218</v>
       </c>
-      <c r="E69" s="162"/>
-      <c r="F69" s="168" t="s">
+      <c r="E69" s="93"/>
+      <c r="F69" s="120" t="s">
         <v>210</v>
       </c>
-      <c r="G69" s="169"/>
-      <c r="H69" s="170" t="s">
+      <c r="G69" s="121"/>
+      <c r="H69" s="84" t="s">
         <v>220</v>
       </c>
-      <c r="I69" s="171"/>
-      <c r="J69" s="155" t="s">
-        <v>268</v>
-      </c>
-      <c r="K69" s="156"/>
-      <c r="L69" s="157"/>
-      <c r="M69" s="162">
+      <c r="I69" s="86"/>
+      <c r="J69" s="122" t="s">
+        <v>252</v>
+      </c>
+      <c r="K69" s="123"/>
+      <c r="L69" s="124"/>
+      <c r="M69" s="93">
         <v>2</v>
       </c>
-      <c r="N69" s="162"/>
-      <c r="O69" s="162"/>
-      <c r="P69" s="163">
+      <c r="N69" s="93"/>
+      <c r="O69" s="93"/>
+      <c r="P69" s="82">
         <v>1</v>
       </c>
-      <c r="Q69" s="165"/>
-      <c r="R69" s="164"/>
-      <c r="S69" s="162">
+      <c r="Q69" s="176"/>
+      <c r="R69" s="83"/>
+      <c r="S69" s="93">
         <v>3</v>
       </c>
-      <c r="T69" s="162"/>
-      <c r="U69" s="155" t="s">
-        <v>235</v>
-      </c>
-      <c r="V69" s="156"/>
-      <c r="W69" s="156"/>
-      <c r="X69" s="156"/>
-      <c r="Y69" s="156"/>
-      <c r="Z69" s="157"/>
-      <c r="AA69" s="158" t="s">
-        <v>249</v>
-      </c>
-      <c r="AB69" s="159"/>
-      <c r="AC69" s="159"/>
-      <c r="AD69" s="159"/>
-      <c r="AE69" s="159"/>
-      <c r="AF69" s="159"/>
-      <c r="AG69" s="159"/>
-      <c r="AH69" s="159"/>
-      <c r="AI69" s="159"/>
-      <c r="AJ69" s="159"/>
-      <c r="AK69" s="159"/>
-      <c r="AL69" s="159"/>
-      <c r="AM69" s="159"/>
-      <c r="AN69" s="159"/>
-      <c r="AO69" s="159"/>
-      <c r="AP69" s="159"/>
-      <c r="AQ69" s="160"/>
-      <c r="AR69" s="161" t="s">
+      <c r="T69" s="93"/>
+      <c r="U69" s="84" t="s">
+        <v>276</v>
+      </c>
+      <c r="V69" s="85"/>
+      <c r="W69" s="85"/>
+      <c r="X69" s="85"/>
+      <c r="Y69" s="85"/>
+      <c r="Z69" s="86"/>
+      <c r="AA69" s="87" t="s">
+        <v>233</v>
+      </c>
+      <c r="AB69" s="88"/>
+      <c r="AC69" s="88"/>
+      <c r="AD69" s="88"/>
+      <c r="AE69" s="88"/>
+      <c r="AF69" s="88"/>
+      <c r="AG69" s="88"/>
+      <c r="AH69" s="88"/>
+      <c r="AI69" s="88"/>
+      <c r="AJ69" s="88"/>
+      <c r="AK69" s="88"/>
+      <c r="AL69" s="88"/>
+      <c r="AM69" s="88"/>
+      <c r="AN69" s="88"/>
+      <c r="AO69" s="88"/>
+      <c r="AP69" s="88"/>
+      <c r="AQ69" s="89"/>
+      <c r="AR69" s="71" t="s">
         <v>156</v>
       </c>
-      <c r="AS69" s="161" t="s">
+      <c r="AS69" s="71" t="s">
         <v>152</v>
       </c>
-      <c r="AT69" s="172" t="s">
-        <v>271</v>
-      </c>
-      <c r="AU69" s="172" t="s">
-        <v>227</v>
-      </c>
-      <c r="AV69" s="174" t="s">
-        <v>275</v>
-      </c>
-      <c r="AW69" s="175" t="s">
-        <v>281</v>
-      </c>
-      <c r="AX69" s="173" t="s">
+      <c r="AT69" s="72" t="s">
+        <v>255</v>
+      </c>
+      <c r="AU69" s="72" t="s">
+        <v>286</v>
+      </c>
+      <c r="AV69" s="74" t="s">
+        <v>259</v>
+      </c>
+      <c r="AW69" s="75" t="s">
+        <v>258</v>
+      </c>
+      <c r="AX69" s="73" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="70" spans="2:50" ht="203.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B70" s="166" t="s">
+      <c r="B70" s="125" t="s">
         <v>189</v>
       </c>
-      <c r="C70" s="162"/>
-      <c r="D70" s="167" t="s">
+      <c r="C70" s="93"/>
+      <c r="D70" s="92" t="s">
         <v>218</v>
       </c>
-      <c r="E70" s="162"/>
-      <c r="F70" s="168" t="s">
+      <c r="E70" s="93"/>
+      <c r="F70" s="120" t="s">
         <v>210</v>
       </c>
-      <c r="G70" s="169"/>
-      <c r="H70" s="170" t="s">
+      <c r="G70" s="121"/>
+      <c r="H70" s="84" t="s">
         <v>220</v>
       </c>
-      <c r="I70" s="171"/>
-      <c r="J70" s="155" t="s">
-        <v>268</v>
-      </c>
-      <c r="K70" s="156"/>
-      <c r="L70" s="157"/>
-      <c r="M70" s="162">
+      <c r="I70" s="86"/>
+      <c r="J70" s="122" t="s">
+        <v>252</v>
+      </c>
+      <c r="K70" s="123"/>
+      <c r="L70" s="124"/>
+      <c r="M70" s="93">
         <v>2</v>
       </c>
-      <c r="N70" s="162"/>
-      <c r="O70" s="162"/>
-      <c r="P70" s="163">
+      <c r="N70" s="93"/>
+      <c r="O70" s="93"/>
+      <c r="P70" s="82">
         <v>1</v>
       </c>
-      <c r="Q70" s="165"/>
-      <c r="R70" s="164"/>
-      <c r="S70" s="162">
+      <c r="Q70" s="176"/>
+      <c r="R70" s="83"/>
+      <c r="S70" s="93">
         <v>3</v>
       </c>
-      <c r="T70" s="162"/>
-      <c r="U70" s="155" t="s">
-        <v>236</v>
-      </c>
-      <c r="V70" s="156"/>
-      <c r="W70" s="156"/>
-      <c r="X70" s="156"/>
-      <c r="Y70" s="156"/>
-      <c r="Z70" s="157"/>
-      <c r="AA70" s="158" t="s">
-        <v>250</v>
-      </c>
-      <c r="AB70" s="159"/>
-      <c r="AC70" s="159"/>
-      <c r="AD70" s="159"/>
-      <c r="AE70" s="159"/>
-      <c r="AF70" s="159"/>
-      <c r="AG70" s="159"/>
-      <c r="AH70" s="159"/>
-      <c r="AI70" s="159"/>
-      <c r="AJ70" s="159"/>
-      <c r="AK70" s="159"/>
-      <c r="AL70" s="159"/>
-      <c r="AM70" s="159"/>
-      <c r="AN70" s="159"/>
-      <c r="AO70" s="159"/>
-      <c r="AP70" s="159"/>
-      <c r="AQ70" s="160"/>
-      <c r="AR70" s="161" t="s">
+      <c r="T70" s="93"/>
+      <c r="U70" s="84" t="s">
+        <v>277</v>
+      </c>
+      <c r="V70" s="85"/>
+      <c r="W70" s="85"/>
+      <c r="X70" s="85"/>
+      <c r="Y70" s="85"/>
+      <c r="Z70" s="86"/>
+      <c r="AA70" s="87" t="s">
+        <v>234</v>
+      </c>
+      <c r="AB70" s="88"/>
+      <c r="AC70" s="88"/>
+      <c r="AD70" s="88"/>
+      <c r="AE70" s="88"/>
+      <c r="AF70" s="88"/>
+      <c r="AG70" s="88"/>
+      <c r="AH70" s="88"/>
+      <c r="AI70" s="88"/>
+      <c r="AJ70" s="88"/>
+      <c r="AK70" s="88"/>
+      <c r="AL70" s="88"/>
+      <c r="AM70" s="88"/>
+      <c r="AN70" s="88"/>
+      <c r="AO70" s="88"/>
+      <c r="AP70" s="88"/>
+      <c r="AQ70" s="89"/>
+      <c r="AR70" s="71" t="s">
         <v>156</v>
       </c>
-      <c r="AS70" s="161" t="s">
+      <c r="AS70" s="71" t="s">
         <v>152</v>
       </c>
-      <c r="AT70" s="172" t="s">
-        <v>271</v>
-      </c>
-      <c r="AU70" s="172" t="s">
-        <v>227</v>
-      </c>
-      <c r="AV70" s="174" t="s">
-        <v>275</v>
-      </c>
-      <c r="AW70" s="175" t="s">
-        <v>281</v>
-      </c>
-      <c r="AX70" s="173" t="s">
+      <c r="AT70" s="72" t="s">
+        <v>255</v>
+      </c>
+      <c r="AU70" s="72" t="s">
+        <v>286</v>
+      </c>
+      <c r="AV70" s="74" t="s">
+        <v>259</v>
+      </c>
+      <c r="AW70" s="75" t="s">
+        <v>258</v>
+      </c>
+      <c r="AX70" s="73" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="71" spans="2:50" ht="203.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B71" s="166" t="s">
+      <c r="B71" s="125" t="s">
         <v>190</v>
       </c>
-      <c r="C71" s="162"/>
-      <c r="D71" s="167" t="s">
+      <c r="C71" s="93"/>
+      <c r="D71" s="92" t="s">
         <v>218</v>
       </c>
-      <c r="E71" s="162"/>
-      <c r="F71" s="168" t="s">
+      <c r="E71" s="93"/>
+      <c r="F71" s="120" t="s">
         <v>210</v>
       </c>
-      <c r="G71" s="169"/>
-      <c r="H71" s="170" t="s">
+      <c r="G71" s="121"/>
+      <c r="H71" s="84" t="s">
         <v>220</v>
       </c>
-      <c r="I71" s="171"/>
-      <c r="J71" s="155" t="s">
-        <v>268</v>
-      </c>
-      <c r="K71" s="156"/>
-      <c r="L71" s="157"/>
-      <c r="M71" s="162">
+      <c r="I71" s="86"/>
+      <c r="J71" s="122" t="s">
+        <v>252</v>
+      </c>
+      <c r="K71" s="123"/>
+      <c r="L71" s="124"/>
+      <c r="M71" s="93">
         <v>2</v>
       </c>
-      <c r="N71" s="162"/>
-      <c r="O71" s="162"/>
-      <c r="P71" s="163">
+      <c r="N71" s="93"/>
+      <c r="O71" s="93"/>
+      <c r="P71" s="82">
         <v>1</v>
       </c>
-      <c r="Q71" s="165"/>
-      <c r="R71" s="164"/>
-      <c r="S71" s="162">
+      <c r="Q71" s="176"/>
+      <c r="R71" s="83"/>
+      <c r="S71" s="93">
         <v>3</v>
       </c>
-      <c r="T71" s="162"/>
-      <c r="U71" s="155" t="s">
-        <v>237</v>
-      </c>
-      <c r="V71" s="156"/>
-      <c r="W71" s="156"/>
-      <c r="X71" s="156"/>
-      <c r="Y71" s="156"/>
-      <c r="Z71" s="157"/>
-      <c r="AA71" s="158" t="s">
-        <v>251</v>
-      </c>
-      <c r="AB71" s="159"/>
-      <c r="AC71" s="159"/>
-      <c r="AD71" s="159"/>
-      <c r="AE71" s="159"/>
-      <c r="AF71" s="159"/>
-      <c r="AG71" s="159"/>
-      <c r="AH71" s="159"/>
-      <c r="AI71" s="159"/>
-      <c r="AJ71" s="159"/>
-      <c r="AK71" s="159"/>
-      <c r="AL71" s="159"/>
-      <c r="AM71" s="159"/>
-      <c r="AN71" s="159"/>
-      <c r="AO71" s="159"/>
-      <c r="AP71" s="159"/>
-      <c r="AQ71" s="160"/>
-      <c r="AR71" s="161" t="s">
+      <c r="T71" s="93"/>
+      <c r="U71" s="84" t="s">
+        <v>278</v>
+      </c>
+      <c r="V71" s="85"/>
+      <c r="W71" s="85"/>
+      <c r="X71" s="85"/>
+      <c r="Y71" s="85"/>
+      <c r="Z71" s="86"/>
+      <c r="AA71" s="87" t="s">
+        <v>235</v>
+      </c>
+      <c r="AB71" s="88"/>
+      <c r="AC71" s="88"/>
+      <c r="AD71" s="88"/>
+      <c r="AE71" s="88"/>
+      <c r="AF71" s="88"/>
+      <c r="AG71" s="88"/>
+      <c r="AH71" s="88"/>
+      <c r="AI71" s="88"/>
+      <c r="AJ71" s="88"/>
+      <c r="AK71" s="88"/>
+      <c r="AL71" s="88"/>
+      <c r="AM71" s="88"/>
+      <c r="AN71" s="88"/>
+      <c r="AO71" s="88"/>
+      <c r="AP71" s="88"/>
+      <c r="AQ71" s="89"/>
+      <c r="AR71" s="71" t="s">
         <v>156</v>
       </c>
-      <c r="AS71" s="161" t="s">
+      <c r="AS71" s="71" t="s">
         <v>152</v>
       </c>
-      <c r="AT71" s="172" t="s">
-        <v>271</v>
-      </c>
-      <c r="AU71" s="172" t="s">
-        <v>227</v>
-      </c>
-      <c r="AV71" s="174" t="s">
-        <v>275</v>
-      </c>
-      <c r="AW71" s="175" t="s">
-        <v>281</v>
-      </c>
-      <c r="AX71" s="173" t="s">
+      <c r="AT71" s="72" t="s">
+        <v>255</v>
+      </c>
+      <c r="AU71" s="72" t="s">
+        <v>286</v>
+      </c>
+      <c r="AV71" s="74" t="s">
+        <v>259</v>
+      </c>
+      <c r="AW71" s="75" t="s">
+        <v>258</v>
+      </c>
+      <c r="AX71" s="73" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="72" spans="2:50" ht="203.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B72" s="166" t="s">
+      <c r="B72" s="125" t="s">
         <v>191</v>
       </c>
-      <c r="C72" s="162"/>
-      <c r="D72" s="167" t="s">
+      <c r="C72" s="93"/>
+      <c r="D72" s="92" t="s">
         <v>218</v>
       </c>
-      <c r="E72" s="162"/>
-      <c r="F72" s="168" t="s">
+      <c r="E72" s="93"/>
+      <c r="F72" s="120" t="s">
         <v>210</v>
       </c>
-      <c r="G72" s="169"/>
-      <c r="H72" s="170" t="s">
+      <c r="G72" s="121"/>
+      <c r="H72" s="84" t="s">
         <v>220</v>
       </c>
-      <c r="I72" s="171"/>
-      <c r="J72" s="155" t="s">
-        <v>268</v>
-      </c>
-      <c r="K72" s="156"/>
-      <c r="L72" s="157"/>
-      <c r="M72" s="162">
+      <c r="I72" s="86"/>
+      <c r="J72" s="122" t="s">
+        <v>252</v>
+      </c>
+      <c r="K72" s="123"/>
+      <c r="L72" s="124"/>
+      <c r="M72" s="93">
         <v>2</v>
       </c>
-      <c r="N72" s="162"/>
-      <c r="O72" s="162"/>
-      <c r="P72" s="163">
+      <c r="N72" s="93"/>
+      <c r="O72" s="93"/>
+      <c r="P72" s="82">
         <v>1</v>
       </c>
-      <c r="Q72" s="165"/>
-      <c r="R72" s="164"/>
-      <c r="S72" s="162">
+      <c r="Q72" s="176"/>
+      <c r="R72" s="83"/>
+      <c r="S72" s="93">
         <v>3</v>
       </c>
-      <c r="T72" s="162"/>
-      <c r="U72" s="155" t="s">
-        <v>238</v>
-      </c>
-      <c r="V72" s="156"/>
-      <c r="W72" s="156"/>
-      <c r="X72" s="156"/>
-      <c r="Y72" s="156"/>
-      <c r="Z72" s="157"/>
-      <c r="AA72" s="158" t="s">
-        <v>252</v>
-      </c>
-      <c r="AB72" s="159"/>
-      <c r="AC72" s="159"/>
-      <c r="AD72" s="159"/>
-      <c r="AE72" s="159"/>
-      <c r="AF72" s="159"/>
-      <c r="AG72" s="159"/>
-      <c r="AH72" s="159"/>
-      <c r="AI72" s="159"/>
-      <c r="AJ72" s="159"/>
-      <c r="AK72" s="159"/>
-      <c r="AL72" s="159"/>
-      <c r="AM72" s="159"/>
-      <c r="AN72" s="159"/>
-      <c r="AO72" s="159"/>
-      <c r="AP72" s="159"/>
-      <c r="AQ72" s="160"/>
-      <c r="AR72" s="161" t="s">
+      <c r="T72" s="93"/>
+      <c r="U72" s="84" t="s">
+        <v>279</v>
+      </c>
+      <c r="V72" s="85"/>
+      <c r="W72" s="85"/>
+      <c r="X72" s="85"/>
+      <c r="Y72" s="85"/>
+      <c r="Z72" s="86"/>
+      <c r="AA72" s="87" t="s">
+        <v>236</v>
+      </c>
+      <c r="AB72" s="88"/>
+      <c r="AC72" s="88"/>
+      <c r="AD72" s="88"/>
+      <c r="AE72" s="88"/>
+      <c r="AF72" s="88"/>
+      <c r="AG72" s="88"/>
+      <c r="AH72" s="88"/>
+      <c r="AI72" s="88"/>
+      <c r="AJ72" s="88"/>
+      <c r="AK72" s="88"/>
+      <c r="AL72" s="88"/>
+      <c r="AM72" s="88"/>
+      <c r="AN72" s="88"/>
+      <c r="AO72" s="88"/>
+      <c r="AP72" s="88"/>
+      <c r="AQ72" s="89"/>
+      <c r="AR72" s="71" t="s">
         <v>156</v>
       </c>
-      <c r="AS72" s="161" t="s">
+      <c r="AS72" s="71" t="s">
         <v>152</v>
       </c>
-      <c r="AT72" s="172" t="s">
-        <v>271</v>
-      </c>
-      <c r="AU72" s="172" t="s">
-        <v>227</v>
-      </c>
-      <c r="AV72" s="174" t="s">
-        <v>275</v>
-      </c>
-      <c r="AW72" s="175" t="s">
-        <v>281</v>
-      </c>
-      <c r="AX72" s="173" t="s">
+      <c r="AT72" s="72" t="s">
+        <v>255</v>
+      </c>
+      <c r="AU72" s="72" t="s">
+        <v>286</v>
+      </c>
+      <c r="AV72" s="74" t="s">
+        <v>259</v>
+      </c>
+      <c r="AW72" s="75" t="s">
+        <v>258</v>
+      </c>
+      <c r="AX72" s="73" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="73" spans="2:50" ht="203.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="166" t="s">
+      <c r="B73" s="125" t="s">
         <v>192</v>
       </c>
-      <c r="C73" s="162"/>
-      <c r="D73" s="167" t="s">
+      <c r="C73" s="93"/>
+      <c r="D73" s="92" t="s">
         <v>218</v>
       </c>
-      <c r="E73" s="162"/>
-      <c r="F73" s="168" t="s">
+      <c r="E73" s="93"/>
+      <c r="F73" s="120" t="s">
         <v>210</v>
       </c>
-      <c r="G73" s="169"/>
-      <c r="H73" s="170" t="s">
+      <c r="G73" s="121"/>
+      <c r="H73" s="84" t="s">
         <v>220</v>
       </c>
-      <c r="I73" s="171"/>
-      <c r="J73" s="155" t="s">
-        <v>268</v>
-      </c>
-      <c r="K73" s="156"/>
-      <c r="L73" s="157"/>
-      <c r="M73" s="162">
+      <c r="I73" s="86"/>
+      <c r="J73" s="122" t="s">
+        <v>252</v>
+      </c>
+      <c r="K73" s="123"/>
+      <c r="L73" s="124"/>
+      <c r="M73" s="93">
         <v>2</v>
       </c>
-      <c r="N73" s="162"/>
-      <c r="O73" s="162"/>
-      <c r="P73" s="163">
+      <c r="N73" s="93"/>
+      <c r="O73" s="93"/>
+      <c r="P73" s="82">
         <v>1</v>
       </c>
-      <c r="Q73" s="165"/>
-      <c r="R73" s="164"/>
-      <c r="S73" s="162">
+      <c r="Q73" s="176"/>
+      <c r="R73" s="83"/>
+      <c r="S73" s="93">
         <v>3</v>
       </c>
-      <c r="T73" s="162"/>
-      <c r="U73" s="155" t="s">
-        <v>239</v>
-      </c>
-      <c r="V73" s="156"/>
-      <c r="W73" s="156"/>
-      <c r="X73" s="156"/>
-      <c r="Y73" s="156"/>
-      <c r="Z73" s="157"/>
-      <c r="AA73" s="158" t="s">
-        <v>253</v>
-      </c>
-      <c r="AB73" s="159"/>
-      <c r="AC73" s="159"/>
-      <c r="AD73" s="159"/>
-      <c r="AE73" s="159"/>
-      <c r="AF73" s="159"/>
-      <c r="AG73" s="159"/>
-      <c r="AH73" s="159"/>
-      <c r="AI73" s="159"/>
-      <c r="AJ73" s="159"/>
-      <c r="AK73" s="159"/>
-      <c r="AL73" s="159"/>
-      <c r="AM73" s="159"/>
-      <c r="AN73" s="159"/>
-      <c r="AO73" s="159"/>
-      <c r="AP73" s="159"/>
-      <c r="AQ73" s="160"/>
-      <c r="AR73" s="161" t="s">
+      <c r="T73" s="93"/>
+      <c r="U73" s="84" t="s">
+        <v>280</v>
+      </c>
+      <c r="V73" s="85"/>
+      <c r="W73" s="85"/>
+      <c r="X73" s="85"/>
+      <c r="Y73" s="85"/>
+      <c r="Z73" s="86"/>
+      <c r="AA73" s="87" t="s">
+        <v>237</v>
+      </c>
+      <c r="AB73" s="88"/>
+      <c r="AC73" s="88"/>
+      <c r="AD73" s="88"/>
+      <c r="AE73" s="88"/>
+      <c r="AF73" s="88"/>
+      <c r="AG73" s="88"/>
+      <c r="AH73" s="88"/>
+      <c r="AI73" s="88"/>
+      <c r="AJ73" s="88"/>
+      <c r="AK73" s="88"/>
+      <c r="AL73" s="88"/>
+      <c r="AM73" s="88"/>
+      <c r="AN73" s="88"/>
+      <c r="AO73" s="88"/>
+      <c r="AP73" s="88"/>
+      <c r="AQ73" s="89"/>
+      <c r="AR73" s="71" t="s">
         <v>156</v>
       </c>
-      <c r="AS73" s="161" t="s">
+      <c r="AS73" s="71" t="s">
         <v>152</v>
       </c>
-      <c r="AT73" s="172" t="s">
-        <v>271</v>
-      </c>
-      <c r="AU73" s="172" t="s">
-        <v>227</v>
-      </c>
-      <c r="AV73" s="174" t="s">
-        <v>275</v>
-      </c>
-      <c r="AW73" s="175" t="s">
-        <v>281</v>
-      </c>
-      <c r="AX73" s="173" t="s">
+      <c r="AT73" s="72" t="s">
+        <v>255</v>
+      </c>
+      <c r="AU73" s="72" t="s">
+        <v>286</v>
+      </c>
+      <c r="AV73" s="74" t="s">
+        <v>259</v>
+      </c>
+      <c r="AW73" s="75" t="s">
+        <v>258</v>
+      </c>
+      <c r="AX73" s="73" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="74" spans="2:50" ht="203.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B74" s="166" t="s">
+      <c r="B74" s="125" t="s">
         <v>193</v>
       </c>
-      <c r="C74" s="162"/>
-      <c r="D74" s="167" t="s">
+      <c r="C74" s="93"/>
+      <c r="D74" s="92" t="s">
         <v>218</v>
       </c>
-      <c r="E74" s="162"/>
-      <c r="F74" s="168" t="s">
+      <c r="E74" s="93"/>
+      <c r="F74" s="120" t="s">
         <v>211</v>
       </c>
-      <c r="G74" s="169"/>
-      <c r="H74" s="170" t="s">
+      <c r="G74" s="121"/>
+      <c r="H74" s="84" t="s">
         <v>214</v>
       </c>
-      <c r="I74" s="171"/>
-      <c r="J74" s="155" t="s">
-        <v>269</v>
-      </c>
-      <c r="K74" s="156"/>
-      <c r="L74" s="157"/>
-      <c r="M74" s="162">
+      <c r="I74" s="86"/>
+      <c r="J74" s="122" t="s">
+        <v>253</v>
+      </c>
+      <c r="K74" s="123"/>
+      <c r="L74" s="124"/>
+      <c r="M74" s="93">
         <v>2</v>
       </c>
-      <c r="N74" s="162"/>
-      <c r="O74" s="162"/>
-      <c r="P74" s="163">
+      <c r="N74" s="93"/>
+      <c r="O74" s="93"/>
+      <c r="P74" s="82">
         <v>1</v>
       </c>
-      <c r="Q74" s="165"/>
-      <c r="R74" s="164"/>
-      <c r="S74" s="162">
+      <c r="Q74" s="176"/>
+      <c r="R74" s="83"/>
+      <c r="S74" s="93">
         <v>3</v>
       </c>
-      <c r="T74" s="162"/>
-      <c r="U74" s="155" t="s">
-        <v>231</v>
-      </c>
-      <c r="V74" s="156"/>
-      <c r="W74" s="156"/>
-      <c r="X74" s="156"/>
-      <c r="Y74" s="156"/>
-      <c r="Z74" s="157"/>
-      <c r="AA74" s="158" t="s">
+      <c r="T74" s="93"/>
+      <c r="U74" s="84" t="s">
+        <v>260</v>
+      </c>
+      <c r="V74" s="85"/>
+      <c r="W74" s="85"/>
+      <c r="X74" s="85"/>
+      <c r="Y74" s="85"/>
+      <c r="Z74" s="86"/>
+      <c r="AA74" s="87" t="s">
         <v>223</v>
       </c>
-      <c r="AB74" s="159"/>
-      <c r="AC74" s="159"/>
-      <c r="AD74" s="159"/>
-      <c r="AE74" s="159"/>
-      <c r="AF74" s="159"/>
-      <c r="AG74" s="159"/>
-      <c r="AH74" s="159"/>
-      <c r="AI74" s="159"/>
-      <c r="AJ74" s="159"/>
-      <c r="AK74" s="159"/>
-      <c r="AL74" s="159"/>
-      <c r="AM74" s="159"/>
-      <c r="AN74" s="159"/>
-      <c r="AO74" s="159"/>
-      <c r="AP74" s="159"/>
-      <c r="AQ74" s="160"/>
-      <c r="AR74" s="161" t="s">
+      <c r="AB74" s="88"/>
+      <c r="AC74" s="88"/>
+      <c r="AD74" s="88"/>
+      <c r="AE74" s="88"/>
+      <c r="AF74" s="88"/>
+      <c r="AG74" s="88"/>
+      <c r="AH74" s="88"/>
+      <c r="AI74" s="88"/>
+      <c r="AJ74" s="88"/>
+      <c r="AK74" s="88"/>
+      <c r="AL74" s="88"/>
+      <c r="AM74" s="88"/>
+      <c r="AN74" s="88"/>
+      <c r="AO74" s="88"/>
+      <c r="AP74" s="88"/>
+      <c r="AQ74" s="89"/>
+      <c r="AR74" s="71" t="s">
         <v>156</v>
       </c>
-      <c r="AS74" s="161" t="s">
+      <c r="AS74" s="71" t="s">
         <v>152</v>
       </c>
-      <c r="AT74" s="172" t="s">
-        <v>272</v>
-      </c>
-      <c r="AU74" s="172" t="s">
-        <v>227</v>
-      </c>
-      <c r="AV74" s="174" t="s">
-        <v>276</v>
-      </c>
-      <c r="AW74" s="175" t="s">
-        <v>281</v>
-      </c>
-      <c r="AX74" s="173" t="s">
+      <c r="AT74" s="72" t="s">
+        <v>256</v>
+      </c>
+      <c r="AU74" s="72" t="s">
+        <v>284</v>
+      </c>
+      <c r="AV74" s="74" t="s">
+        <v>259</v>
+      </c>
+      <c r="AW74" s="75" t="s">
+        <v>258</v>
+      </c>
+      <c r="AX74" s="73" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="75" spans="2:50" ht="203.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B75" s="166" t="s">
+      <c r="B75" s="125" t="s">
         <v>194</v>
       </c>
-      <c r="C75" s="162"/>
-      <c r="D75" s="167" t="s">
+      <c r="C75" s="93"/>
+      <c r="D75" s="92" t="s">
         <v>218</v>
       </c>
-      <c r="E75" s="162"/>
-      <c r="F75" s="168" t="s">
+      <c r="E75" s="93"/>
+      <c r="F75" s="120" t="s">
         <v>211</v>
       </c>
-      <c r="G75" s="169"/>
-      <c r="H75" s="170" t="s">
+      <c r="G75" s="121"/>
+      <c r="H75" s="84" t="s">
         <v>214</v>
       </c>
-      <c r="I75" s="171"/>
-      <c r="J75" s="155" t="s">
-        <v>266</v>
-      </c>
-      <c r="K75" s="156"/>
-      <c r="L75" s="157"/>
-      <c r="M75" s="162">
+      <c r="I75" s="86"/>
+      <c r="J75" s="122" t="s">
+        <v>250</v>
+      </c>
+      <c r="K75" s="123"/>
+      <c r="L75" s="124"/>
+      <c r="M75" s="93">
         <v>2</v>
       </c>
-      <c r="N75" s="162"/>
-      <c r="O75" s="162"/>
-      <c r="P75" s="163">
+      <c r="N75" s="93"/>
+      <c r="O75" s="93"/>
+      <c r="P75" s="82">
         <v>1</v>
       </c>
-      <c r="Q75" s="165"/>
-      <c r="R75" s="164"/>
-      <c r="S75" s="162">
+      <c r="Q75" s="176"/>
+      <c r="R75" s="83"/>
+      <c r="S75" s="93">
         <v>3</v>
       </c>
-      <c r="T75" s="162"/>
-      <c r="U75" s="155" t="s">
-        <v>232</v>
-      </c>
-      <c r="V75" s="156"/>
-      <c r="W75" s="156"/>
-      <c r="X75" s="156"/>
-      <c r="Y75" s="156"/>
-      <c r="Z75" s="157"/>
-      <c r="AA75" s="158" t="s">
-        <v>246</v>
-      </c>
-      <c r="AB75" s="159"/>
-      <c r="AC75" s="159"/>
-      <c r="AD75" s="159"/>
-      <c r="AE75" s="159"/>
-      <c r="AF75" s="159"/>
-      <c r="AG75" s="159"/>
-      <c r="AH75" s="159"/>
-      <c r="AI75" s="159"/>
-      <c r="AJ75" s="159"/>
-      <c r="AK75" s="159"/>
-      <c r="AL75" s="159"/>
-      <c r="AM75" s="159"/>
-      <c r="AN75" s="159"/>
-      <c r="AO75" s="159"/>
-      <c r="AP75" s="159"/>
-      <c r="AQ75" s="160"/>
-      <c r="AR75" s="161" t="s">
+      <c r="T75" s="93"/>
+      <c r="U75" s="84" t="s">
+        <v>261</v>
+      </c>
+      <c r="V75" s="85"/>
+      <c r="W75" s="85"/>
+      <c r="X75" s="85"/>
+      <c r="Y75" s="85"/>
+      <c r="Z75" s="86"/>
+      <c r="AA75" s="87" t="s">
+        <v>230</v>
+      </c>
+      <c r="AB75" s="88"/>
+      <c r="AC75" s="88"/>
+      <c r="AD75" s="88"/>
+      <c r="AE75" s="88"/>
+      <c r="AF75" s="88"/>
+      <c r="AG75" s="88"/>
+      <c r="AH75" s="88"/>
+      <c r="AI75" s="88"/>
+      <c r="AJ75" s="88"/>
+      <c r="AK75" s="88"/>
+      <c r="AL75" s="88"/>
+      <c r="AM75" s="88"/>
+      <c r="AN75" s="88"/>
+      <c r="AO75" s="88"/>
+      <c r="AP75" s="88"/>
+      <c r="AQ75" s="89"/>
+      <c r="AR75" s="71" t="s">
         <v>156</v>
       </c>
-      <c r="AS75" s="161" t="s">
+      <c r="AS75" s="71" t="s">
         <v>152</v>
       </c>
-      <c r="AT75" s="172" t="s">
-        <v>272</v>
-      </c>
-      <c r="AU75" s="172" t="s">
-        <v>227</v>
-      </c>
-      <c r="AV75" s="174" t="s">
-        <v>276</v>
-      </c>
-      <c r="AW75" s="175" t="s">
-        <v>281</v>
-      </c>
-      <c r="AX75" s="173" t="s">
+      <c r="AT75" s="72" t="s">
+        <v>256</v>
+      </c>
+      <c r="AU75" s="72" t="s">
+        <v>284</v>
+      </c>
+      <c r="AV75" s="74" t="s">
+        <v>259</v>
+      </c>
+      <c r="AW75" s="75" t="s">
+        <v>258</v>
+      </c>
+      <c r="AX75" s="73" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="76" spans="2:50" ht="203.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B76" s="166" t="s">
+      <c r="B76" s="125" t="s">
         <v>195</v>
       </c>
-      <c r="C76" s="162"/>
-      <c r="D76" s="167" t="s">
+      <c r="C76" s="93"/>
+      <c r="D76" s="92" t="s">
         <v>218</v>
       </c>
-      <c r="E76" s="162"/>
-      <c r="F76" s="168" t="s">
+      <c r="E76" s="93"/>
+      <c r="F76" s="120" t="s">
         <v>211</v>
       </c>
-      <c r="G76" s="169"/>
-      <c r="H76" s="170" t="s">
+      <c r="G76" s="121"/>
+      <c r="H76" s="84" t="s">
         <v>214</v>
       </c>
-      <c r="I76" s="171"/>
-      <c r="J76" s="155" t="s">
-        <v>266</v>
-      </c>
-      <c r="K76" s="156"/>
-      <c r="L76" s="157"/>
-      <c r="M76" s="162">
+      <c r="I76" s="86"/>
+      <c r="J76" s="122" t="s">
+        <v>250</v>
+      </c>
+      <c r="K76" s="123"/>
+      <c r="L76" s="124"/>
+      <c r="M76" s="93">
         <v>2</v>
       </c>
-      <c r="N76" s="162"/>
-      <c r="O76" s="162"/>
-      <c r="P76" s="163">
+      <c r="N76" s="93"/>
+      <c r="O76" s="93"/>
+      <c r="P76" s="82">
         <v>1</v>
       </c>
-      <c r="Q76" s="165"/>
-      <c r="R76" s="164"/>
-      <c r="S76" s="162">
+      <c r="Q76" s="176"/>
+      <c r="R76" s="83"/>
+      <c r="S76" s="93">
         <v>3</v>
       </c>
-      <c r="T76" s="162"/>
-      <c r="U76" s="155" t="s">
-        <v>233</v>
-      </c>
-      <c r="V76" s="156"/>
-      <c r="W76" s="156"/>
-      <c r="X76" s="156"/>
-      <c r="Y76" s="156"/>
-      <c r="Z76" s="157"/>
-      <c r="AA76" s="158" t="s">
-        <v>247</v>
-      </c>
-      <c r="AB76" s="159"/>
-      <c r="AC76" s="159"/>
-      <c r="AD76" s="159"/>
-      <c r="AE76" s="159"/>
-      <c r="AF76" s="159"/>
-      <c r="AG76" s="159"/>
-      <c r="AH76" s="159"/>
-      <c r="AI76" s="159"/>
-      <c r="AJ76" s="159"/>
-      <c r="AK76" s="159"/>
-      <c r="AL76" s="159"/>
-      <c r="AM76" s="159"/>
-      <c r="AN76" s="159"/>
-      <c r="AO76" s="159"/>
-      <c r="AP76" s="159"/>
-      <c r="AQ76" s="160"/>
-      <c r="AR76" s="161" t="s">
+      <c r="T76" s="93"/>
+      <c r="U76" s="84" t="s">
+        <v>262</v>
+      </c>
+      <c r="V76" s="85"/>
+      <c r="W76" s="85"/>
+      <c r="X76" s="85"/>
+      <c r="Y76" s="85"/>
+      <c r="Z76" s="86"/>
+      <c r="AA76" s="87" t="s">
+        <v>231</v>
+      </c>
+      <c r="AB76" s="88"/>
+      <c r="AC76" s="88"/>
+      <c r="AD76" s="88"/>
+      <c r="AE76" s="88"/>
+      <c r="AF76" s="88"/>
+      <c r="AG76" s="88"/>
+      <c r="AH76" s="88"/>
+      <c r="AI76" s="88"/>
+      <c r="AJ76" s="88"/>
+      <c r="AK76" s="88"/>
+      <c r="AL76" s="88"/>
+      <c r="AM76" s="88"/>
+      <c r="AN76" s="88"/>
+      <c r="AO76" s="88"/>
+      <c r="AP76" s="88"/>
+      <c r="AQ76" s="89"/>
+      <c r="AR76" s="71" t="s">
         <v>156</v>
       </c>
-      <c r="AS76" s="161" t="s">
+      <c r="AS76" s="71" t="s">
         <v>152</v>
       </c>
-      <c r="AT76" s="172" t="s">
-        <v>272</v>
-      </c>
-      <c r="AU76" s="172" t="s">
-        <v>227</v>
-      </c>
-      <c r="AV76" s="174" t="s">
-        <v>276</v>
-      </c>
-      <c r="AW76" s="175" t="s">
-        <v>281</v>
-      </c>
-      <c r="AX76" s="173" t="s">
+      <c r="AT76" s="72" t="s">
+        <v>256</v>
+      </c>
+      <c r="AU76" s="72" t="s">
+        <v>284</v>
+      </c>
+      <c r="AV76" s="74" t="s">
+        <v>259</v>
+      </c>
+      <c r="AW76" s="75" t="s">
+        <v>258</v>
+      </c>
+      <c r="AX76" s="73" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="77" spans="2:50" ht="203.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B77" s="166" t="s">
+      <c r="B77" s="125" t="s">
         <v>196</v>
       </c>
-      <c r="C77" s="162"/>
-      <c r="D77" s="167" t="s">
+      <c r="C77" s="93"/>
+      <c r="D77" s="92" t="s">
         <v>218</v>
       </c>
-      <c r="E77" s="162"/>
-      <c r="F77" s="168" t="s">
+      <c r="E77" s="93"/>
+      <c r="F77" s="120" t="s">
         <v>211</v>
       </c>
-      <c r="G77" s="169"/>
-      <c r="H77" s="170" t="s">
+      <c r="G77" s="121"/>
+      <c r="H77" s="84" t="s">
         <v>214</v>
       </c>
-      <c r="I77" s="171"/>
-      <c r="J77" s="155" t="s">
-        <v>266</v>
-      </c>
-      <c r="K77" s="156"/>
-      <c r="L77" s="157"/>
-      <c r="M77" s="162">
+      <c r="I77" s="86"/>
+      <c r="J77" s="122" t="s">
+        <v>250</v>
+      </c>
+      <c r="K77" s="123"/>
+      <c r="L77" s="124"/>
+      <c r="M77" s="93">
         <v>2</v>
       </c>
-      <c r="N77" s="162"/>
-      <c r="O77" s="162"/>
-      <c r="P77" s="163">
+      <c r="N77" s="93"/>
+      <c r="O77" s="93"/>
+      <c r="P77" s="82">
         <v>1</v>
       </c>
-      <c r="Q77" s="165"/>
-      <c r="R77" s="164"/>
-      <c r="S77" s="162">
+      <c r="Q77" s="176"/>
+      <c r="R77" s="83"/>
+      <c r="S77" s="93">
         <v>3</v>
       </c>
-      <c r="T77" s="162"/>
-      <c r="U77" s="155" t="s">
-        <v>234</v>
-      </c>
-      <c r="V77" s="156"/>
-      <c r="W77" s="156"/>
-      <c r="X77" s="156"/>
-      <c r="Y77" s="156"/>
-      <c r="Z77" s="157"/>
-      <c r="AA77" s="158" t="s">
-        <v>248</v>
-      </c>
-      <c r="AB77" s="159"/>
-      <c r="AC77" s="159"/>
-      <c r="AD77" s="159"/>
-      <c r="AE77" s="159"/>
-      <c r="AF77" s="159"/>
-      <c r="AG77" s="159"/>
-      <c r="AH77" s="159"/>
-      <c r="AI77" s="159"/>
-      <c r="AJ77" s="159"/>
-      <c r="AK77" s="159"/>
-      <c r="AL77" s="159"/>
-      <c r="AM77" s="159"/>
-      <c r="AN77" s="159"/>
-      <c r="AO77" s="159"/>
-      <c r="AP77" s="159"/>
-      <c r="AQ77" s="160"/>
-      <c r="AR77" s="161" t="s">
+      <c r="T77" s="93"/>
+      <c r="U77" s="84" t="s">
+        <v>263</v>
+      </c>
+      <c r="V77" s="85"/>
+      <c r="W77" s="85"/>
+      <c r="X77" s="85"/>
+      <c r="Y77" s="85"/>
+      <c r="Z77" s="86"/>
+      <c r="AA77" s="87" t="s">
+        <v>232</v>
+      </c>
+      <c r="AB77" s="88"/>
+      <c r="AC77" s="88"/>
+      <c r="AD77" s="88"/>
+      <c r="AE77" s="88"/>
+      <c r="AF77" s="88"/>
+      <c r="AG77" s="88"/>
+      <c r="AH77" s="88"/>
+      <c r="AI77" s="88"/>
+      <c r="AJ77" s="88"/>
+      <c r="AK77" s="88"/>
+      <c r="AL77" s="88"/>
+      <c r="AM77" s="88"/>
+      <c r="AN77" s="88"/>
+      <c r="AO77" s="88"/>
+      <c r="AP77" s="88"/>
+      <c r="AQ77" s="89"/>
+      <c r="AR77" s="71" t="s">
         <v>156</v>
       </c>
-      <c r="AS77" s="161" t="s">
+      <c r="AS77" s="71" t="s">
         <v>152</v>
       </c>
-      <c r="AT77" s="172" t="s">
-        <v>272</v>
-      </c>
-      <c r="AU77" s="172" t="s">
-        <v>227</v>
-      </c>
-      <c r="AV77" s="174" t="s">
-        <v>276</v>
-      </c>
-      <c r="AW77" s="175" t="s">
-        <v>281</v>
-      </c>
-      <c r="AX77" s="173" t="s">
+      <c r="AT77" s="72" t="s">
+        <v>256</v>
+      </c>
+      <c r="AU77" s="72" t="s">
+        <v>284</v>
+      </c>
+      <c r="AV77" s="74" t="s">
+        <v>259</v>
+      </c>
+      <c r="AW77" s="75" t="s">
+        <v>258</v>
+      </c>
+      <c r="AX77" s="73" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="78" spans="2:50" ht="203.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B78" s="166" t="s">
+      <c r="B78" s="125" t="s">
         <v>197</v>
       </c>
-      <c r="C78" s="162"/>
-      <c r="D78" s="167" t="s">
+      <c r="C78" s="93"/>
+      <c r="D78" s="92" t="s">
         <v>218</v>
       </c>
-      <c r="E78" s="162"/>
-      <c r="F78" s="168" t="s">
+      <c r="E78" s="93"/>
+      <c r="F78" s="120" t="s">
         <v>211</v>
       </c>
-      <c r="G78" s="169"/>
-      <c r="H78" s="170" t="s">
+      <c r="G78" s="121"/>
+      <c r="H78" s="84" t="s">
         <v>214</v>
       </c>
-      <c r="I78" s="171"/>
-      <c r="J78" s="155" t="s">
-        <v>266</v>
-      </c>
-      <c r="K78" s="156"/>
-      <c r="L78" s="157"/>
-      <c r="M78" s="162">
+      <c r="I78" s="86"/>
+      <c r="J78" s="122" t="s">
+        <v>250</v>
+      </c>
+      <c r="K78" s="123"/>
+      <c r="L78" s="124"/>
+      <c r="M78" s="93">
         <v>2</v>
       </c>
-      <c r="N78" s="162"/>
-      <c r="O78" s="162"/>
-      <c r="P78" s="163">
+      <c r="N78" s="93"/>
+      <c r="O78" s="93"/>
+      <c r="P78" s="82">
         <v>1</v>
       </c>
-      <c r="Q78" s="165"/>
-      <c r="R78" s="164"/>
-      <c r="S78" s="162">
+      <c r="Q78" s="176"/>
+      <c r="R78" s="83"/>
+      <c r="S78" s="93">
         <v>3</v>
       </c>
-      <c r="T78" s="162"/>
-      <c r="U78" s="155" t="s">
-        <v>235</v>
-      </c>
-      <c r="V78" s="156"/>
-      <c r="W78" s="156"/>
-      <c r="X78" s="156"/>
-      <c r="Y78" s="156"/>
-      <c r="Z78" s="157"/>
-      <c r="AA78" s="158" t="s">
-        <v>249</v>
-      </c>
-      <c r="AB78" s="159"/>
-      <c r="AC78" s="159"/>
-      <c r="AD78" s="159"/>
-      <c r="AE78" s="159"/>
-      <c r="AF78" s="159"/>
-      <c r="AG78" s="159"/>
-      <c r="AH78" s="159"/>
-      <c r="AI78" s="159"/>
-      <c r="AJ78" s="159"/>
-      <c r="AK78" s="159"/>
-      <c r="AL78" s="159"/>
-      <c r="AM78" s="159"/>
-      <c r="AN78" s="159"/>
-      <c r="AO78" s="159"/>
-      <c r="AP78" s="159"/>
-      <c r="AQ78" s="160"/>
-      <c r="AR78" s="161" t="s">
+      <c r="T78" s="93"/>
+      <c r="U78" s="84" t="s">
+        <v>264</v>
+      </c>
+      <c r="V78" s="85"/>
+      <c r="W78" s="85"/>
+      <c r="X78" s="85"/>
+      <c r="Y78" s="85"/>
+      <c r="Z78" s="86"/>
+      <c r="AA78" s="87" t="s">
+        <v>233</v>
+      </c>
+      <c r="AB78" s="88"/>
+      <c r="AC78" s="88"/>
+      <c r="AD78" s="88"/>
+      <c r="AE78" s="88"/>
+      <c r="AF78" s="88"/>
+      <c r="AG78" s="88"/>
+      <c r="AH78" s="88"/>
+      <c r="AI78" s="88"/>
+      <c r="AJ78" s="88"/>
+      <c r="AK78" s="88"/>
+      <c r="AL78" s="88"/>
+      <c r="AM78" s="88"/>
+      <c r="AN78" s="88"/>
+      <c r="AO78" s="88"/>
+      <c r="AP78" s="88"/>
+      <c r="AQ78" s="89"/>
+      <c r="AR78" s="71" t="s">
         <v>156</v>
       </c>
-      <c r="AS78" s="161" t="s">
+      <c r="AS78" s="71" t="s">
         <v>152</v>
       </c>
-      <c r="AT78" s="172" t="s">
-        <v>272</v>
-      </c>
-      <c r="AU78" s="172" t="s">
-        <v>227</v>
-      </c>
-      <c r="AV78" s="174" t="s">
-        <v>276</v>
-      </c>
-      <c r="AW78" s="175" t="s">
-        <v>281</v>
-      </c>
-      <c r="AX78" s="173" t="s">
+      <c r="AT78" s="72" t="s">
+        <v>256</v>
+      </c>
+      <c r="AU78" s="72" t="s">
+        <v>284</v>
+      </c>
+      <c r="AV78" s="74" t="s">
+        <v>259</v>
+      </c>
+      <c r="AW78" s="75" t="s">
+        <v>258</v>
+      </c>
+      <c r="AX78" s="73" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="79" spans="2:50" ht="203.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B79" s="166" t="s">
+      <c r="B79" s="125" t="s">
         <v>198</v>
       </c>
-      <c r="C79" s="162"/>
-      <c r="D79" s="167" t="s">
+      <c r="C79" s="93"/>
+      <c r="D79" s="92" t="s">
         <v>218</v>
       </c>
-      <c r="E79" s="162"/>
-      <c r="F79" s="168" t="s">
+      <c r="E79" s="93"/>
+      <c r="F79" s="120" t="s">
         <v>211</v>
       </c>
-      <c r="G79" s="169"/>
-      <c r="H79" s="170" t="s">
+      <c r="G79" s="121"/>
+      <c r="H79" s="84" t="s">
         <v>214</v>
       </c>
-      <c r="I79" s="171"/>
-      <c r="J79" s="155" t="s">
-        <v>266</v>
-      </c>
-      <c r="K79" s="156"/>
-      <c r="L79" s="157"/>
-      <c r="M79" s="162">
+      <c r="I79" s="86"/>
+      <c r="J79" s="122" t="s">
+        <v>250</v>
+      </c>
+      <c r="K79" s="123"/>
+      <c r="L79" s="124"/>
+      <c r="M79" s="93">
         <v>2</v>
       </c>
-      <c r="N79" s="162"/>
-      <c r="O79" s="162"/>
-      <c r="P79" s="163">
+      <c r="N79" s="93"/>
+      <c r="O79" s="93"/>
+      <c r="P79" s="82">
         <v>1</v>
       </c>
-      <c r="Q79" s="165"/>
-      <c r="R79" s="164"/>
-      <c r="S79" s="162">
+      <c r="Q79" s="176"/>
+      <c r="R79" s="83"/>
+      <c r="S79" s="93">
         <v>3</v>
       </c>
-      <c r="T79" s="162"/>
-      <c r="U79" s="155" t="s">
-        <v>236</v>
-      </c>
-      <c r="V79" s="156"/>
-      <c r="W79" s="156"/>
-      <c r="X79" s="156"/>
-      <c r="Y79" s="156"/>
-      <c r="Z79" s="157"/>
-      <c r="AA79" s="158" t="s">
-        <v>250</v>
-      </c>
-      <c r="AB79" s="159"/>
-      <c r="AC79" s="159"/>
-      <c r="AD79" s="159"/>
-      <c r="AE79" s="159"/>
-      <c r="AF79" s="159"/>
-      <c r="AG79" s="159"/>
-      <c r="AH79" s="159"/>
-      <c r="AI79" s="159"/>
-      <c r="AJ79" s="159"/>
-      <c r="AK79" s="159"/>
-      <c r="AL79" s="159"/>
-      <c r="AM79" s="159"/>
-      <c r="AN79" s="159"/>
-      <c r="AO79" s="159"/>
-      <c r="AP79" s="159"/>
-      <c r="AQ79" s="160"/>
-      <c r="AR79" s="161" t="s">
+      <c r="T79" s="93"/>
+      <c r="U79" s="84" t="s">
+        <v>265</v>
+      </c>
+      <c r="V79" s="85"/>
+      <c r="W79" s="85"/>
+      <c r="X79" s="85"/>
+      <c r="Y79" s="85"/>
+      <c r="Z79" s="86"/>
+      <c r="AA79" s="87" t="s">
+        <v>234</v>
+      </c>
+      <c r="AB79" s="88"/>
+      <c r="AC79" s="88"/>
+      <c r="AD79" s="88"/>
+      <c r="AE79" s="88"/>
+      <c r="AF79" s="88"/>
+      <c r="AG79" s="88"/>
+      <c r="AH79" s="88"/>
+      <c r="AI79" s="88"/>
+      <c r="AJ79" s="88"/>
+      <c r="AK79" s="88"/>
+      <c r="AL79" s="88"/>
+      <c r="AM79" s="88"/>
+      <c r="AN79" s="88"/>
+      <c r="AO79" s="88"/>
+      <c r="AP79" s="88"/>
+      <c r="AQ79" s="89"/>
+      <c r="AR79" s="71" t="s">
         <v>156</v>
       </c>
-      <c r="AS79" s="161" t="s">
+      <c r="AS79" s="71" t="s">
         <v>152</v>
       </c>
-      <c r="AT79" s="172" t="s">
-        <v>272</v>
-      </c>
-      <c r="AU79" s="172" t="s">
-        <v>227</v>
-      </c>
-      <c r="AV79" s="174" t="s">
-        <v>276</v>
-      </c>
-      <c r="AW79" s="175" t="s">
-        <v>281</v>
-      </c>
-      <c r="AX79" s="173" t="s">
+      <c r="AT79" s="72" t="s">
+        <v>256</v>
+      </c>
+      <c r="AU79" s="72" t="s">
+        <v>284</v>
+      </c>
+      <c r="AV79" s="74" t="s">
+        <v>259</v>
+      </c>
+      <c r="AW79" s="75" t="s">
+        <v>258</v>
+      </c>
+      <c r="AX79" s="73" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="80" spans="2:50" ht="203.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B80" s="166" t="s">
+      <c r="B80" s="125" t="s">
         <v>199</v>
       </c>
-      <c r="C80" s="162"/>
-      <c r="D80" s="167" t="s">
+      <c r="C80" s="93"/>
+      <c r="D80" s="92" t="s">
         <v>218</v>
       </c>
-      <c r="E80" s="162"/>
-      <c r="F80" s="168" t="s">
+      <c r="E80" s="93"/>
+      <c r="F80" s="120" t="s">
         <v>211</v>
       </c>
-      <c r="G80" s="169"/>
-      <c r="H80" s="170" t="s">
+      <c r="G80" s="121"/>
+      <c r="H80" s="84" t="s">
         <v>214</v>
       </c>
-      <c r="I80" s="171"/>
-      <c r="J80" s="155" t="s">
+      <c r="I80" s="86"/>
+      <c r="J80" s="122" t="s">
+        <v>250</v>
+      </c>
+      <c r="K80" s="123"/>
+      <c r="L80" s="124"/>
+      <c r="M80" s="93">
+        <v>2</v>
+      </c>
+      <c r="N80" s="93"/>
+      <c r="O80" s="93"/>
+      <c r="P80" s="82">
+        <v>1</v>
+      </c>
+      <c r="Q80" s="176"/>
+      <c r="R80" s="83"/>
+      <c r="S80" s="93">
+        <v>3</v>
+      </c>
+      <c r="T80" s="93"/>
+      <c r="U80" s="84" t="s">
         <v>266</v>
       </c>
-      <c r="K80" s="156"/>
-      <c r="L80" s="157"/>
-      <c r="M80" s="162">
-        <v>2</v>
-      </c>
-      <c r="N80" s="162"/>
-      <c r="O80" s="162"/>
-      <c r="P80" s="163">
-        <v>1</v>
-      </c>
-      <c r="Q80" s="165"/>
-      <c r="R80" s="164"/>
-      <c r="S80" s="162">
-        <v>3</v>
-      </c>
-      <c r="T80" s="162"/>
-      <c r="U80" s="155" t="s">
-        <v>237</v>
-      </c>
-      <c r="V80" s="156"/>
-      <c r="W80" s="156"/>
-      <c r="X80" s="156"/>
-      <c r="Y80" s="156"/>
-      <c r="Z80" s="157"/>
-      <c r="AA80" s="158" t="s">
-        <v>251</v>
-      </c>
-      <c r="AB80" s="159"/>
-      <c r="AC80" s="159"/>
-      <c r="AD80" s="159"/>
-      <c r="AE80" s="159"/>
-      <c r="AF80" s="159"/>
-      <c r="AG80" s="159"/>
-      <c r="AH80" s="159"/>
-      <c r="AI80" s="159"/>
-      <c r="AJ80" s="159"/>
-      <c r="AK80" s="159"/>
-      <c r="AL80" s="159"/>
-      <c r="AM80" s="159"/>
-      <c r="AN80" s="159"/>
-      <c r="AO80" s="159"/>
-      <c r="AP80" s="159"/>
-      <c r="AQ80" s="160"/>
-      <c r="AR80" s="161" t="s">
+      <c r="V80" s="85"/>
+      <c r="W80" s="85"/>
+      <c r="X80" s="85"/>
+      <c r="Y80" s="85"/>
+      <c r="Z80" s="86"/>
+      <c r="AA80" s="87" t="s">
+        <v>235</v>
+      </c>
+      <c r="AB80" s="88"/>
+      <c r="AC80" s="88"/>
+      <c r="AD80" s="88"/>
+      <c r="AE80" s="88"/>
+      <c r="AF80" s="88"/>
+      <c r="AG80" s="88"/>
+      <c r="AH80" s="88"/>
+      <c r="AI80" s="88"/>
+      <c r="AJ80" s="88"/>
+      <c r="AK80" s="88"/>
+      <c r="AL80" s="88"/>
+      <c r="AM80" s="88"/>
+      <c r="AN80" s="88"/>
+      <c r="AO80" s="88"/>
+      <c r="AP80" s="88"/>
+      <c r="AQ80" s="89"/>
+      <c r="AR80" s="71" t="s">
         <v>156</v>
       </c>
-      <c r="AS80" s="161" t="s">
+      <c r="AS80" s="71" t="s">
         <v>152</v>
       </c>
-      <c r="AT80" s="172" t="s">
-        <v>272</v>
-      </c>
-      <c r="AU80" s="172" t="s">
-        <v>227</v>
-      </c>
-      <c r="AV80" s="174" t="s">
-        <v>276</v>
-      </c>
-      <c r="AW80" s="175" t="s">
-        <v>281</v>
-      </c>
-      <c r="AX80" s="173" t="s">
+      <c r="AT80" s="72" t="s">
+        <v>256</v>
+      </c>
+      <c r="AU80" s="72" t="s">
+        <v>284</v>
+      </c>
+      <c r="AV80" s="74" t="s">
+        <v>259</v>
+      </c>
+      <c r="AW80" s="75" t="s">
+        <v>258</v>
+      </c>
+      <c r="AX80" s="73" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="81" spans="2:50" ht="203.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B81" s="166" t="s">
+      <c r="B81" s="125" t="s">
         <v>200</v>
       </c>
-      <c r="C81" s="162"/>
-      <c r="D81" s="167" t="s">
+      <c r="C81" s="93"/>
+      <c r="D81" s="92" t="s">
         <v>218</v>
       </c>
-      <c r="E81" s="162"/>
-      <c r="F81" s="168" t="s">
+      <c r="E81" s="93"/>
+      <c r="F81" s="120" t="s">
         <v>211</v>
       </c>
-      <c r="G81" s="169"/>
-      <c r="H81" s="170" t="s">
+      <c r="G81" s="121"/>
+      <c r="H81" s="84" t="s">
         <v>214</v>
       </c>
-      <c r="I81" s="171"/>
-      <c r="J81" s="155" t="s">
-        <v>266</v>
-      </c>
-      <c r="K81" s="156"/>
-      <c r="L81" s="157"/>
-      <c r="M81" s="162">
+      <c r="I81" s="86"/>
+      <c r="J81" s="122" t="s">
+        <v>250</v>
+      </c>
+      <c r="K81" s="123"/>
+      <c r="L81" s="124"/>
+      <c r="M81" s="93">
         <v>2</v>
       </c>
-      <c r="N81" s="162"/>
-      <c r="O81" s="162"/>
-      <c r="P81" s="163">
+      <c r="N81" s="93"/>
+      <c r="O81" s="93"/>
+      <c r="P81" s="82">
         <v>1</v>
       </c>
-      <c r="Q81" s="165"/>
-      <c r="R81" s="164"/>
-      <c r="S81" s="162">
+      <c r="Q81" s="176"/>
+      <c r="R81" s="83"/>
+      <c r="S81" s="93">
         <v>3</v>
       </c>
-      <c r="T81" s="162"/>
-      <c r="U81" s="155" t="s">
-        <v>238</v>
-      </c>
-      <c r="V81" s="156"/>
-      <c r="W81" s="156"/>
-      <c r="X81" s="156"/>
-      <c r="Y81" s="156"/>
-      <c r="Z81" s="157"/>
-      <c r="AA81" s="158" t="s">
-        <v>252</v>
-      </c>
-      <c r="AB81" s="159"/>
-      <c r="AC81" s="159"/>
-      <c r="AD81" s="159"/>
-      <c r="AE81" s="159"/>
-      <c r="AF81" s="159"/>
-      <c r="AG81" s="159"/>
-      <c r="AH81" s="159"/>
-      <c r="AI81" s="159"/>
-      <c r="AJ81" s="159"/>
-      <c r="AK81" s="159"/>
-      <c r="AL81" s="159"/>
-      <c r="AM81" s="159"/>
-      <c r="AN81" s="159"/>
-      <c r="AO81" s="159"/>
-      <c r="AP81" s="159"/>
-      <c r="AQ81" s="160"/>
-      <c r="AR81" s="161" t="s">
+      <c r="T81" s="93"/>
+      <c r="U81" s="84" t="s">
+        <v>267</v>
+      </c>
+      <c r="V81" s="85"/>
+      <c r="W81" s="85"/>
+      <c r="X81" s="85"/>
+      <c r="Y81" s="85"/>
+      <c r="Z81" s="86"/>
+      <c r="AA81" s="87" t="s">
+        <v>236</v>
+      </c>
+      <c r="AB81" s="88"/>
+      <c r="AC81" s="88"/>
+      <c r="AD81" s="88"/>
+      <c r="AE81" s="88"/>
+      <c r="AF81" s="88"/>
+      <c r="AG81" s="88"/>
+      <c r="AH81" s="88"/>
+      <c r="AI81" s="88"/>
+      <c r="AJ81" s="88"/>
+      <c r="AK81" s="88"/>
+      <c r="AL81" s="88"/>
+      <c r="AM81" s="88"/>
+      <c r="AN81" s="88"/>
+      <c r="AO81" s="88"/>
+      <c r="AP81" s="88"/>
+      <c r="AQ81" s="89"/>
+      <c r="AR81" s="71" t="s">
         <v>156</v>
       </c>
-      <c r="AS81" s="161" t="s">
+      <c r="AS81" s="71" t="s">
         <v>152</v>
       </c>
-      <c r="AT81" s="172" t="s">
-        <v>272</v>
-      </c>
-      <c r="AU81" s="172" t="s">
-        <v>227</v>
-      </c>
-      <c r="AV81" s="174" t="s">
-        <v>276</v>
-      </c>
-      <c r="AW81" s="175" t="s">
-        <v>281</v>
-      </c>
-      <c r="AX81" s="173" t="s">
+      <c r="AT81" s="72" t="s">
+        <v>256</v>
+      </c>
+      <c r="AU81" s="72" t="s">
+        <v>284</v>
+      </c>
+      <c r="AV81" s="74" t="s">
+        <v>259</v>
+      </c>
+      <c r="AW81" s="75" t="s">
+        <v>258</v>
+      </c>
+      <c r="AX81" s="73" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="82" spans="2:50" ht="203.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B82" s="166" t="s">
+      <c r="B82" s="125" t="s">
         <v>201</v>
       </c>
-      <c r="C82" s="162"/>
-      <c r="D82" s="167" t="s">
+      <c r="C82" s="93"/>
+      <c r="D82" s="92" t="s">
         <v>218</v>
       </c>
-      <c r="E82" s="162"/>
-      <c r="F82" s="168" t="s">
+      <c r="E82" s="93"/>
+      <c r="F82" s="120" t="s">
         <v>211</v>
       </c>
-      <c r="G82" s="169"/>
-      <c r="H82" s="170" t="s">
+      <c r="G82" s="121"/>
+      <c r="H82" s="84" t="s">
         <v>214</v>
       </c>
-      <c r="I82" s="171"/>
-      <c r="J82" s="155" t="s">
-        <v>266</v>
-      </c>
-      <c r="K82" s="156"/>
-      <c r="L82" s="157"/>
-      <c r="M82" s="162">
+      <c r="I82" s="86"/>
+      <c r="J82" s="122" t="s">
+        <v>250</v>
+      </c>
+      <c r="K82" s="123"/>
+      <c r="L82" s="124"/>
+      <c r="M82" s="93">
         <v>2</v>
       </c>
-      <c r="N82" s="162"/>
-      <c r="O82" s="162"/>
-      <c r="P82" s="163">
+      <c r="N82" s="93"/>
+      <c r="O82" s="93"/>
+      <c r="P82" s="82">
         <v>1</v>
       </c>
-      <c r="Q82" s="165"/>
-      <c r="R82" s="164"/>
-      <c r="S82" s="162">
+      <c r="Q82" s="176"/>
+      <c r="R82" s="83"/>
+      <c r="S82" s="93">
         <v>3</v>
       </c>
-      <c r="T82" s="162"/>
-      <c r="U82" s="155" t="s">
-        <v>239</v>
-      </c>
-      <c r="V82" s="156"/>
-      <c r="W82" s="156"/>
-      <c r="X82" s="156"/>
-      <c r="Y82" s="156"/>
-      <c r="Z82" s="157"/>
-      <c r="AA82" s="158" t="s">
-        <v>253</v>
-      </c>
-      <c r="AB82" s="159"/>
-      <c r="AC82" s="159"/>
-      <c r="AD82" s="159"/>
-      <c r="AE82" s="159"/>
-      <c r="AF82" s="159"/>
-      <c r="AG82" s="159"/>
-      <c r="AH82" s="159"/>
-      <c r="AI82" s="159"/>
-      <c r="AJ82" s="159"/>
-      <c r="AK82" s="159"/>
-      <c r="AL82" s="159"/>
-      <c r="AM82" s="159"/>
-      <c r="AN82" s="159"/>
-      <c r="AO82" s="159"/>
-      <c r="AP82" s="159"/>
-      <c r="AQ82" s="160"/>
-      <c r="AR82" s="161" t="s">
+      <c r="T82" s="93"/>
+      <c r="U82" s="84" t="s">
+        <v>268</v>
+      </c>
+      <c r="V82" s="85"/>
+      <c r="W82" s="85"/>
+      <c r="X82" s="85"/>
+      <c r="Y82" s="85"/>
+      <c r="Z82" s="86"/>
+      <c r="AA82" s="87" t="s">
+        <v>237</v>
+      </c>
+      <c r="AB82" s="88"/>
+      <c r="AC82" s="88"/>
+      <c r="AD82" s="88"/>
+      <c r="AE82" s="88"/>
+      <c r="AF82" s="88"/>
+      <c r="AG82" s="88"/>
+      <c r="AH82" s="88"/>
+      <c r="AI82" s="88"/>
+      <c r="AJ82" s="88"/>
+      <c r="AK82" s="88"/>
+      <c r="AL82" s="88"/>
+      <c r="AM82" s="88"/>
+      <c r="AN82" s="88"/>
+      <c r="AO82" s="88"/>
+      <c r="AP82" s="88"/>
+      <c r="AQ82" s="89"/>
+      <c r="AR82" s="71" t="s">
         <v>156</v>
       </c>
-      <c r="AS82" s="161" t="s">
+      <c r="AS82" s="71" t="s">
         <v>152</v>
       </c>
-      <c r="AT82" s="172" t="s">
-        <v>272</v>
-      </c>
-      <c r="AU82" s="172" t="s">
-        <v>227</v>
-      </c>
-      <c r="AV82" s="174" t="s">
-        <v>276</v>
-      </c>
-      <c r="AW82" s="175" t="s">
-        <v>281</v>
-      </c>
-      <c r="AX82" s="173" t="s">
+      <c r="AT82" s="72" t="s">
+        <v>256</v>
+      </c>
+      <c r="AU82" s="72" t="s">
+        <v>284</v>
+      </c>
+      <c r="AV82" s="74" t="s">
+        <v>259</v>
+      </c>
+      <c r="AW82" s="75" t="s">
+        <v>258</v>
+      </c>
+      <c r="AX82" s="73" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="83" spans="2:50" ht="203.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B83" s="166" t="s">
+      <c r="B83" s="125" t="s">
         <v>202</v>
       </c>
-      <c r="C83" s="162"/>
-      <c r="D83" s="167" t="s">
+      <c r="C83" s="93"/>
+      <c r="D83" s="92" t="s">
         <v>218</v>
       </c>
-      <c r="E83" s="162"/>
-      <c r="F83" s="168" t="s">
+      <c r="E83" s="93"/>
+      <c r="F83" s="120" t="s">
         <v>211</v>
       </c>
-      <c r="G83" s="169"/>
-      <c r="H83" s="170" t="s">
+      <c r="G83" s="121"/>
+      <c r="H83" s="84" t="s">
         <v>214</v>
       </c>
-      <c r="I83" s="171"/>
-      <c r="J83" s="155" t="s">
+      <c r="I83" s="86"/>
+      <c r="J83" s="122" t="s">
         <v>222</v>
       </c>
-      <c r="K83" s="156"/>
-      <c r="L83" s="157"/>
-      <c r="M83" s="162">
+      <c r="K83" s="123"/>
+      <c r="L83" s="124"/>
+      <c r="M83" s="93">
         <v>2</v>
       </c>
-      <c r="N83" s="162"/>
-      <c r="O83" s="162"/>
-      <c r="P83" s="163">
+      <c r="N83" s="93"/>
+      <c r="O83" s="93"/>
+      <c r="P83" s="82">
         <v>1</v>
       </c>
-      <c r="Q83" s="165"/>
-      <c r="R83" s="164"/>
-      <c r="S83" s="162">
+      <c r="Q83" s="176"/>
+      <c r="R83" s="83"/>
+      <c r="S83" s="93">
         <v>3</v>
       </c>
-      <c r="T83" s="162"/>
-      <c r="U83" s="155" t="s">
-        <v>240</v>
-      </c>
-      <c r="V83" s="156"/>
-      <c r="W83" s="156"/>
-      <c r="X83" s="156"/>
-      <c r="Y83" s="156"/>
-      <c r="Z83" s="157"/>
-      <c r="AA83" s="158" t="s">
-        <v>254</v>
-      </c>
-      <c r="AB83" s="159"/>
-      <c r="AC83" s="159"/>
-      <c r="AD83" s="159"/>
-      <c r="AE83" s="159"/>
-      <c r="AF83" s="159"/>
-      <c r="AG83" s="159"/>
-      <c r="AH83" s="159"/>
-      <c r="AI83" s="159"/>
-      <c r="AJ83" s="159"/>
-      <c r="AK83" s="159"/>
-      <c r="AL83" s="159"/>
-      <c r="AM83" s="159"/>
-      <c r="AN83" s="159"/>
-      <c r="AO83" s="159"/>
-      <c r="AP83" s="159"/>
-      <c r="AQ83" s="160"/>
-      <c r="AR83" s="161" t="s">
+      <c r="T83" s="93"/>
+      <c r="U83" s="84" t="s">
+        <v>269</v>
+      </c>
+      <c r="V83" s="85"/>
+      <c r="W83" s="85"/>
+      <c r="X83" s="85"/>
+      <c r="Y83" s="85"/>
+      <c r="Z83" s="86"/>
+      <c r="AA83" s="87" t="s">
+        <v>238</v>
+      </c>
+      <c r="AB83" s="88"/>
+      <c r="AC83" s="88"/>
+      <c r="AD83" s="88"/>
+      <c r="AE83" s="88"/>
+      <c r="AF83" s="88"/>
+      <c r="AG83" s="88"/>
+      <c r="AH83" s="88"/>
+      <c r="AI83" s="88"/>
+      <c r="AJ83" s="88"/>
+      <c r="AK83" s="88"/>
+      <c r="AL83" s="88"/>
+      <c r="AM83" s="88"/>
+      <c r="AN83" s="88"/>
+      <c r="AO83" s="88"/>
+      <c r="AP83" s="88"/>
+      <c r="AQ83" s="89"/>
+      <c r="AR83" s="71" t="s">
         <v>156</v>
       </c>
-      <c r="AS83" s="161" t="s">
+      <c r="AS83" s="71" t="s">
         <v>152</v>
       </c>
-      <c r="AT83" s="172" t="s">
-        <v>229</v>
-      </c>
-      <c r="AU83" s="172" t="s">
-        <v>227</v>
-      </c>
-      <c r="AV83" s="174" t="s">
-        <v>276</v>
-      </c>
-      <c r="AW83" s="175" t="s">
-        <v>281</v>
-      </c>
-      <c r="AX83" s="173" t="s">
+      <c r="AT83" s="72" t="s">
+        <v>228</v>
+      </c>
+      <c r="AU83" s="72" t="s">
+        <v>285</v>
+      </c>
+      <c r="AV83" s="74" t="s">
+        <v>259</v>
+      </c>
+      <c r="AW83" s="75" t="s">
+        <v>258</v>
+      </c>
+      <c r="AX83" s="73" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="84" spans="2:50" ht="203.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B84" s="166" t="s">
+      <c r="B84" s="125" t="s">
         <v>203</v>
       </c>
-      <c r="C84" s="162"/>
-      <c r="D84" s="167" t="s">
+      <c r="C84" s="93"/>
+      <c r="D84" s="92" t="s">
         <v>218</v>
       </c>
-      <c r="E84" s="162"/>
-      <c r="F84" s="168" t="s">
+      <c r="E84" s="93"/>
+      <c r="F84" s="120" t="s">
         <v>211</v>
       </c>
-      <c r="G84" s="169"/>
-      <c r="H84" s="170" t="s">
+      <c r="G84" s="121"/>
+      <c r="H84" s="84" t="s">
         <v>214</v>
       </c>
-      <c r="I84" s="171"/>
-      <c r="J84" s="155" t="s">
+      <c r="I84" s="86"/>
+      <c r="J84" s="122" t="s">
         <v>222</v>
       </c>
-      <c r="K84" s="156"/>
-      <c r="L84" s="157"/>
-      <c r="M84" s="162">
+      <c r="K84" s="123"/>
+      <c r="L84" s="124"/>
+      <c r="M84" s="93">
         <v>2</v>
       </c>
-      <c r="N84" s="162"/>
-      <c r="O84" s="162"/>
-      <c r="P84" s="163">
+      <c r="N84" s="93"/>
+      <c r="O84" s="93"/>
+      <c r="P84" s="82">
         <v>1</v>
       </c>
-      <c r="Q84" s="165"/>
-      <c r="R84" s="164"/>
-      <c r="S84" s="162">
+      <c r="Q84" s="176"/>
+      <c r="R84" s="83"/>
+      <c r="S84" s="93">
         <v>3</v>
       </c>
-      <c r="T84" s="162"/>
-      <c r="U84" s="155" t="s">
-        <v>241</v>
-      </c>
-      <c r="V84" s="156"/>
-      <c r="W84" s="156"/>
-      <c r="X84" s="156"/>
-      <c r="Y84" s="156"/>
-      <c r="Z84" s="157"/>
-      <c r="AA84" s="158" t="s">
+      <c r="T84" s="93"/>
+      <c r="U84" s="84" t="s">
+        <v>270</v>
+      </c>
+      <c r="V84" s="85"/>
+      <c r="W84" s="85"/>
+      <c r="X84" s="85"/>
+      <c r="Y84" s="85"/>
+      <c r="Z84" s="86"/>
+      <c r="AA84" s="87" t="s">
         <v>224</v>
       </c>
-      <c r="AB84" s="159"/>
-      <c r="AC84" s="159"/>
-      <c r="AD84" s="159"/>
-      <c r="AE84" s="159"/>
-      <c r="AF84" s="159"/>
-      <c r="AG84" s="159"/>
-      <c r="AH84" s="159"/>
-      <c r="AI84" s="159"/>
-      <c r="AJ84" s="159"/>
-      <c r="AK84" s="159"/>
-      <c r="AL84" s="159"/>
-      <c r="AM84" s="159"/>
-      <c r="AN84" s="159"/>
-      <c r="AO84" s="159"/>
-      <c r="AP84" s="159"/>
-      <c r="AQ84" s="160"/>
-      <c r="AR84" s="161" t="s">
+      <c r="AB84" s="88"/>
+      <c r="AC84" s="88"/>
+      <c r="AD84" s="88"/>
+      <c r="AE84" s="88"/>
+      <c r="AF84" s="88"/>
+      <c r="AG84" s="88"/>
+      <c r="AH84" s="88"/>
+      <c r="AI84" s="88"/>
+      <c r="AJ84" s="88"/>
+      <c r="AK84" s="88"/>
+      <c r="AL84" s="88"/>
+      <c r="AM84" s="88"/>
+      <c r="AN84" s="88"/>
+      <c r="AO84" s="88"/>
+      <c r="AP84" s="88"/>
+      <c r="AQ84" s="89"/>
+      <c r="AR84" s="71" t="s">
         <v>156</v>
       </c>
-      <c r="AS84" s="161" t="s">
+      <c r="AS84" s="71" t="s">
         <v>152</v>
       </c>
-      <c r="AT84" s="172" t="s">
-        <v>229</v>
-      </c>
-      <c r="AU84" s="172" t="s">
-        <v>227</v>
-      </c>
-      <c r="AV84" s="174" t="s">
-        <v>276</v>
-      </c>
-      <c r="AW84" s="175" t="s">
-        <v>281</v>
-      </c>
-      <c r="AX84" s="173" t="s">
+      <c r="AT84" s="72" t="s">
+        <v>228</v>
+      </c>
+      <c r="AU84" s="72" t="s">
+        <v>285</v>
+      </c>
+      <c r="AV84" s="74" t="s">
+        <v>259</v>
+      </c>
+      <c r="AW84" s="75" t="s">
+        <v>258</v>
+      </c>
+      <c r="AX84" s="73" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="85" spans="2:50" ht="203.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B85" s="166" t="s">
+      <c r="B85" s="125" t="s">
         <v>204</v>
       </c>
-      <c r="C85" s="162"/>
-      <c r="D85" s="167" t="s">
+      <c r="C85" s="93"/>
+      <c r="D85" s="92" t="s">
         <v>218</v>
       </c>
-      <c r="E85" s="162"/>
-      <c r="F85" s="168" t="s">
+      <c r="E85" s="93"/>
+      <c r="F85" s="120" t="s">
         <v>211</v>
       </c>
-      <c r="G85" s="169"/>
-      <c r="H85" s="170" t="s">
-        <v>265</v>
-      </c>
-      <c r="I85" s="171"/>
-      <c r="J85" s="155" t="s">
+      <c r="G85" s="121"/>
+      <c r="H85" s="84" t="s">
+        <v>249</v>
+      </c>
+      <c r="I85" s="86"/>
+      <c r="J85" s="122" t="s">
         <v>222</v>
       </c>
-      <c r="K85" s="156"/>
-      <c r="L85" s="157"/>
-      <c r="M85" s="162">
+      <c r="K85" s="123"/>
+      <c r="L85" s="124"/>
+      <c r="M85" s="93">
         <v>2</v>
       </c>
-      <c r="N85" s="162"/>
-      <c r="O85" s="162"/>
-      <c r="P85" s="163">
+      <c r="N85" s="93"/>
+      <c r="O85" s="93"/>
+      <c r="P85" s="82">
         <v>1</v>
       </c>
-      <c r="Q85" s="165"/>
-      <c r="R85" s="164"/>
-      <c r="S85" s="162">
+      <c r="Q85" s="176"/>
+      <c r="R85" s="83"/>
+      <c r="S85" s="93">
         <v>3</v>
       </c>
-      <c r="T85" s="162"/>
-      <c r="U85" s="155" t="s">
-        <v>242</v>
-      </c>
-      <c r="V85" s="156"/>
-      <c r="W85" s="156"/>
-      <c r="X85" s="156"/>
-      <c r="Y85" s="156"/>
-      <c r="Z85" s="157"/>
-      <c r="AA85" s="158" t="s">
+      <c r="T85" s="93"/>
+      <c r="U85" s="84" t="s">
+        <v>271</v>
+      </c>
+      <c r="V85" s="85"/>
+      <c r="W85" s="85"/>
+      <c r="X85" s="85"/>
+      <c r="Y85" s="85"/>
+      <c r="Z85" s="86"/>
+      <c r="AA85" s="87" t="s">
+        <v>243</v>
+      </c>
+      <c r="AB85" s="88"/>
+      <c r="AC85" s="88"/>
+      <c r="AD85" s="88"/>
+      <c r="AE85" s="88"/>
+      <c r="AF85" s="88"/>
+      <c r="AG85" s="88"/>
+      <c r="AH85" s="88"/>
+      <c r="AI85" s="88"/>
+      <c r="AJ85" s="88"/>
+      <c r="AK85" s="88"/>
+      <c r="AL85" s="88"/>
+      <c r="AM85" s="88"/>
+      <c r="AN85" s="88"/>
+      <c r="AO85" s="88"/>
+      <c r="AP85" s="88"/>
+      <c r="AQ85" s="89"/>
+      <c r="AR85" s="71" t="s">
+        <v>156</v>
+      </c>
+      <c r="AS85" s="71" t="s">
+        <v>152</v>
+      </c>
+      <c r="AT85" s="72" t="s">
+        <v>228</v>
+      </c>
+      <c r="AU85" s="72" t="s">
+        <v>285</v>
+      </c>
+      <c r="AV85" s="74" t="s">
         <v>259</v>
       </c>
-      <c r="AB85" s="159"/>
-      <c r="AC85" s="159"/>
-      <c r="AD85" s="159"/>
-      <c r="AE85" s="159"/>
-      <c r="AF85" s="159"/>
-      <c r="AG85" s="159"/>
-      <c r="AH85" s="159"/>
-      <c r="AI85" s="159"/>
-      <c r="AJ85" s="159"/>
-      <c r="AK85" s="159"/>
-      <c r="AL85" s="159"/>
-      <c r="AM85" s="159"/>
-      <c r="AN85" s="159"/>
-      <c r="AO85" s="159"/>
-      <c r="AP85" s="159"/>
-      <c r="AQ85" s="160"/>
-      <c r="AR85" s="161" t="s">
-        <v>156</v>
-      </c>
-      <c r="AS85" s="161" t="s">
-        <v>152</v>
-      </c>
-      <c r="AT85" s="172" t="s">
-        <v>229</v>
-      </c>
-      <c r="AU85" s="172" t="s">
-        <v>227</v>
-      </c>
-      <c r="AV85" s="174" t="s">
-        <v>276</v>
-      </c>
-      <c r="AW85" s="175" t="s">
-        <v>281</v>
-      </c>
-      <c r="AX85" s="173" t="s">
+      <c r="AW85" s="75" t="s">
+        <v>258</v>
+      </c>
+      <c r="AX85" s="73" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="86" spans="2:50" ht="203.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B86" s="166" t="s">
+      <c r="B86" s="125" t="s">
         <v>205</v>
       </c>
-      <c r="C86" s="162"/>
-      <c r="D86" s="167" t="s">
+      <c r="C86" s="93"/>
+      <c r="D86" s="92" t="s">
         <v>218</v>
       </c>
-      <c r="E86" s="162"/>
-      <c r="F86" s="168" t="s">
+      <c r="E86" s="93"/>
+      <c r="F86" s="120" t="s">
         <v>212</v>
       </c>
-      <c r="G86" s="169"/>
-      <c r="H86" s="170" t="s">
+      <c r="G86" s="121"/>
+      <c r="H86" s="84" t="s">
         <v>215</v>
       </c>
-      <c r="I86" s="171"/>
-      <c r="J86" s="155" t="s">
+      <c r="I86" s="86"/>
+      <c r="J86" s="122" t="s">
         <v>222</v>
       </c>
-      <c r="K86" s="156"/>
-      <c r="L86" s="157"/>
-      <c r="M86" s="162">
+      <c r="K86" s="123"/>
+      <c r="L86" s="124"/>
+      <c r="M86" s="93">
         <v>2</v>
       </c>
-      <c r="N86" s="162"/>
-      <c r="O86" s="162"/>
-      <c r="P86" s="163">
+      <c r="N86" s="93"/>
+      <c r="O86" s="93"/>
+      <c r="P86" s="82">
         <v>1</v>
       </c>
-      <c r="Q86" s="165"/>
-      <c r="R86" s="164"/>
-      <c r="S86" s="162">
+      <c r="Q86" s="176"/>
+      <c r="R86" s="83"/>
+      <c r="S86" s="93">
         <v>3</v>
       </c>
-      <c r="T86" s="162"/>
-      <c r="U86" s="155" t="s">
-        <v>243</v>
-      </c>
-      <c r="V86" s="156"/>
-      <c r="W86" s="156"/>
-      <c r="X86" s="156"/>
-      <c r="Y86" s="156"/>
-      <c r="Z86" s="157"/>
-      <c r="AA86" s="158" t="s">
+      <c r="T86" s="93"/>
+      <c r="U86" s="84" t="s">
+        <v>281</v>
+      </c>
+      <c r="V86" s="85"/>
+      <c r="W86" s="85"/>
+      <c r="X86" s="85"/>
+      <c r="Y86" s="85"/>
+      <c r="Z86" s="86"/>
+      <c r="AA86" s="87" t="s">
         <v>225</v>
       </c>
-      <c r="AB86" s="159"/>
-      <c r="AC86" s="159"/>
-      <c r="AD86" s="159"/>
-      <c r="AE86" s="159"/>
-      <c r="AF86" s="159"/>
-      <c r="AG86" s="159"/>
-      <c r="AH86" s="159"/>
-      <c r="AI86" s="159"/>
-      <c r="AJ86" s="159"/>
-      <c r="AK86" s="159"/>
-      <c r="AL86" s="159"/>
-      <c r="AM86" s="159"/>
-      <c r="AN86" s="159"/>
-      <c r="AO86" s="159"/>
-      <c r="AP86" s="159"/>
-      <c r="AQ86" s="160"/>
-      <c r="AR86" s="161" t="s">
+      <c r="AB86" s="88"/>
+      <c r="AC86" s="88"/>
+      <c r="AD86" s="88"/>
+      <c r="AE86" s="88"/>
+      <c r="AF86" s="88"/>
+      <c r="AG86" s="88"/>
+      <c r="AH86" s="88"/>
+      <c r="AI86" s="88"/>
+      <c r="AJ86" s="88"/>
+      <c r="AK86" s="88"/>
+      <c r="AL86" s="88"/>
+      <c r="AM86" s="88"/>
+      <c r="AN86" s="88"/>
+      <c r="AO86" s="88"/>
+      <c r="AP86" s="88"/>
+      <c r="AQ86" s="89"/>
+      <c r="AR86" s="71" t="s">
         <v>156</v>
       </c>
-      <c r="AS86" s="161" t="s">
+      <c r="AS86" s="71" t="s">
         <v>152</v>
       </c>
-      <c r="AT86" s="172" t="s">
-        <v>229</v>
-      </c>
-      <c r="AU86" s="172" t="s">
-        <v>227</v>
-      </c>
-      <c r="AV86" s="174" t="s">
-        <v>277</v>
-      </c>
-      <c r="AW86" s="175" t="s">
-        <v>281</v>
-      </c>
-      <c r="AX86" s="173" t="s">
+      <c r="AT86" s="72" t="s">
+        <v>228</v>
+      </c>
+      <c r="AU86" s="72" t="s">
+        <v>284</v>
+      </c>
+      <c r="AV86" s="74" t="s">
+        <v>259</v>
+      </c>
+      <c r="AW86" s="75" t="s">
+        <v>258</v>
+      </c>
+      <c r="AX86" s="73" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="87" spans="2:50" ht="203.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B87" s="166" t="s">
+      <c r="B87" s="125" t="s">
         <v>206</v>
       </c>
-      <c r="C87" s="162"/>
-      <c r="D87" s="167" t="s">
+      <c r="C87" s="93"/>
+      <c r="D87" s="92" t="s">
         <v>218</v>
       </c>
-      <c r="E87" s="162"/>
-      <c r="F87" s="168" t="s">
+      <c r="E87" s="93"/>
+      <c r="F87" s="120" t="s">
         <v>212</v>
       </c>
-      <c r="G87" s="169"/>
-      <c r="H87" s="170" t="s">
+      <c r="G87" s="121"/>
+      <c r="H87" s="84" t="s">
         <v>215</v>
       </c>
-      <c r="I87" s="171"/>
-      <c r="J87" s="155" t="s">
+      <c r="I87" s="86"/>
+      <c r="J87" s="122" t="s">
         <v>221</v>
       </c>
-      <c r="K87" s="156"/>
-      <c r="L87" s="157"/>
-      <c r="M87" s="162">
+      <c r="K87" s="123"/>
+      <c r="L87" s="124"/>
+      <c r="M87" s="93">
         <v>2</v>
       </c>
-      <c r="N87" s="162"/>
-      <c r="O87" s="162"/>
-      <c r="P87" s="163">
+      <c r="N87" s="93"/>
+      <c r="O87" s="93"/>
+      <c r="P87" s="82">
         <v>1</v>
       </c>
-      <c r="Q87" s="165"/>
-      <c r="R87" s="164"/>
-      <c r="S87" s="162">
+      <c r="Q87" s="176"/>
+      <c r="R87" s="83"/>
+      <c r="S87" s="93">
         <v>3</v>
       </c>
-      <c r="T87" s="162"/>
-      <c r="U87" s="155" t="s">
+      <c r="T87" s="93"/>
+      <c r="U87" s="84" t="s">
+        <v>282</v>
+      </c>
+      <c r="V87" s="85"/>
+      <c r="W87" s="85"/>
+      <c r="X87" s="85"/>
+      <c r="Y87" s="85"/>
+      <c r="Z87" s="86"/>
+      <c r="AA87" s="87" t="s">
         <v>244</v>
       </c>
-      <c r="V87" s="156"/>
-      <c r="W87" s="156"/>
-      <c r="X87" s="156"/>
-      <c r="Y87" s="156"/>
-      <c r="Z87" s="157"/>
-      <c r="AA87" s="158" t="s">
-        <v>260</v>
-      </c>
-      <c r="AB87" s="159"/>
-      <c r="AC87" s="159"/>
-      <c r="AD87" s="159"/>
-      <c r="AE87" s="159"/>
-      <c r="AF87" s="159"/>
-      <c r="AG87" s="159"/>
-      <c r="AH87" s="159"/>
-      <c r="AI87" s="159"/>
-      <c r="AJ87" s="159"/>
-      <c r="AK87" s="159"/>
-      <c r="AL87" s="159"/>
-      <c r="AM87" s="159"/>
-      <c r="AN87" s="159"/>
-      <c r="AO87" s="159"/>
-      <c r="AP87" s="159"/>
-      <c r="AQ87" s="160"/>
-      <c r="AR87" s="161" t="s">
+      <c r="AB87" s="88"/>
+      <c r="AC87" s="88"/>
+      <c r="AD87" s="88"/>
+      <c r="AE87" s="88"/>
+      <c r="AF87" s="88"/>
+      <c r="AG87" s="88"/>
+      <c r="AH87" s="88"/>
+      <c r="AI87" s="88"/>
+      <c r="AJ87" s="88"/>
+      <c r="AK87" s="88"/>
+      <c r="AL87" s="88"/>
+      <c r="AM87" s="88"/>
+      <c r="AN87" s="88"/>
+      <c r="AO87" s="88"/>
+      <c r="AP87" s="88"/>
+      <c r="AQ87" s="89"/>
+      <c r="AR87" s="71" t="s">
         <v>156</v>
       </c>
-      <c r="AS87" s="161" t="s">
+      <c r="AS87" s="71" t="s">
         <v>152</v>
       </c>
-      <c r="AT87" s="172" t="s">
-        <v>229</v>
-      </c>
-      <c r="AU87" s="172" t="s">
-        <v>227</v>
-      </c>
-      <c r="AV87" s="174" t="s">
-        <v>278</v>
-      </c>
-      <c r="AW87" s="175" t="s">
-        <v>281</v>
-      </c>
-      <c r="AX87" s="173" t="s">
+      <c r="AT87" s="72" t="s">
+        <v>228</v>
+      </c>
+      <c r="AU87" s="72" t="s">
+        <v>284</v>
+      </c>
+      <c r="AV87" s="74" t="s">
+        <v>259</v>
+      </c>
+      <c r="AW87" s="75" t="s">
+        <v>258</v>
+      </c>
+      <c r="AX87" s="73" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="88" spans="2:50" ht="203.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B88" s="166" t="s">
+      <c r="B88" s="125" t="s">
         <v>207</v>
       </c>
-      <c r="C88" s="162"/>
-      <c r="D88" s="168" t="s">
+      <c r="C88" s="93"/>
+      <c r="D88" s="120" t="s">
         <v>218</v>
       </c>
-      <c r="E88" s="169"/>
-      <c r="F88" s="168" t="s">
+      <c r="E88" s="121"/>
+      <c r="F88" s="120" t="s">
         <v>212</v>
       </c>
-      <c r="G88" s="169"/>
-      <c r="H88" s="170" t="s">
+      <c r="G88" s="121"/>
+      <c r="H88" s="84" t="s">
         <v>215</v>
       </c>
-      <c r="I88" s="171"/>
-      <c r="J88" s="155" t="s">
+      <c r="I88" s="86"/>
+      <c r="J88" s="122" t="s">
         <v>221</v>
       </c>
-      <c r="K88" s="156"/>
-      <c r="L88" s="157"/>
-      <c r="M88" s="162">
+      <c r="K88" s="123"/>
+      <c r="L88" s="124"/>
+      <c r="M88" s="93">
         <v>2</v>
       </c>
-      <c r="N88" s="162"/>
-      <c r="O88" s="162"/>
-      <c r="P88" s="163">
+      <c r="N88" s="93"/>
+      <c r="O88" s="93"/>
+      <c r="P88" s="82">
         <v>1</v>
       </c>
-      <c r="Q88" s="165"/>
-      <c r="R88" s="164"/>
-      <c r="S88" s="162">
+      <c r="Q88" s="176"/>
+      <c r="R88" s="83"/>
+      <c r="S88" s="93">
         <v>3</v>
       </c>
-      <c r="T88" s="162"/>
-      <c r="U88" s="155" t="s">
-        <v>245</v>
-      </c>
-      <c r="V88" s="156"/>
-      <c r="W88" s="156"/>
-      <c r="X88" s="156"/>
-      <c r="Y88" s="156"/>
-      <c r="Z88" s="157"/>
-      <c r="AA88" s="158" t="s">
+      <c r="T88" s="93"/>
+      <c r="U88" s="84" t="s">
+        <v>283</v>
+      </c>
+      <c r="V88" s="85"/>
+      <c r="W88" s="85"/>
+      <c r="X88" s="85"/>
+      <c r="Y88" s="85"/>
+      <c r="Z88" s="86"/>
+      <c r="AA88" s="87" t="s">
         <v>226</v>
       </c>
-      <c r="AB88" s="159"/>
-      <c r="AC88" s="159"/>
-      <c r="AD88" s="159"/>
-      <c r="AE88" s="159"/>
-      <c r="AF88" s="159"/>
-      <c r="AG88" s="159"/>
-      <c r="AH88" s="159"/>
-      <c r="AI88" s="159"/>
-      <c r="AJ88" s="159"/>
-      <c r="AK88" s="159"/>
-      <c r="AL88" s="159"/>
-      <c r="AM88" s="159"/>
-      <c r="AN88" s="159"/>
-      <c r="AO88" s="159"/>
-      <c r="AP88" s="159"/>
-      <c r="AQ88" s="160"/>
-      <c r="AR88" s="161" t="s">
+      <c r="AB88" s="88"/>
+      <c r="AC88" s="88"/>
+      <c r="AD88" s="88"/>
+      <c r="AE88" s="88"/>
+      <c r="AF88" s="88"/>
+      <c r="AG88" s="88"/>
+      <c r="AH88" s="88"/>
+      <c r="AI88" s="88"/>
+      <c r="AJ88" s="88"/>
+      <c r="AK88" s="88"/>
+      <c r="AL88" s="88"/>
+      <c r="AM88" s="88"/>
+      <c r="AN88" s="88"/>
+      <c r="AO88" s="88"/>
+      <c r="AP88" s="88"/>
+      <c r="AQ88" s="89"/>
+      <c r="AR88" s="71" t="s">
         <v>156</v>
       </c>
-      <c r="AS88" s="161" t="s">
+      <c r="AS88" s="71" t="s">
         <v>152</v>
       </c>
-      <c r="AT88" s="172" t="s">
-        <v>229</v>
-      </c>
-      <c r="AU88" s="172" t="s">
-        <v>227</v>
-      </c>
-      <c r="AV88" s="174" t="s">
-        <v>279</v>
-      </c>
-      <c r="AW88" s="175" t="s">
-        <v>281</v>
-      </c>
-      <c r="AX88" s="173" t="s">
+      <c r="AT88" s="72" t="s">
+        <v>228</v>
+      </c>
+      <c r="AU88" s="72" t="s">
+        <v>284</v>
+      </c>
+      <c r="AV88" s="74" t="s">
+        <v>259</v>
+      </c>
+      <c r="AW88" s="75" t="s">
+        <v>258</v>
+      </c>
+      <c r="AX88" s="73" t="s">
         <v>131</v>
       </c>
     </row>
@@ -24885,25 +24910,25 @@
       <c r="AQ111" s="5"/>
     </row>
     <row r="112" spans="2:43" x14ac:dyDescent="0.2">
-      <c r="B112" s="102" t="s">
+      <c r="B112" s="117" t="s">
         <v>208</v>
       </c>
-      <c r="C112" s="102"/>
-      <c r="D112" s="102"/>
-      <c r="E112" s="102"/>
-      <c r="F112" s="102"/>
-      <c r="G112" s="102"/>
-      <c r="H112" s="102"/>
-      <c r="I112" s="102"/>
-      <c r="J112" s="102"/>
-      <c r="K112" s="102"/>
-      <c r="L112" s="102"/>
-      <c r="M112" s="102"/>
-      <c r="N112" s="102"/>
-      <c r="O112" s="102"/>
-      <c r="P112" s="102"/>
-      <c r="Q112" s="102"/>
-      <c r="R112" s="102"/>
+      <c r="C112" s="117"/>
+      <c r="D112" s="117"/>
+      <c r="E112" s="117"/>
+      <c r="F112" s="117"/>
+      <c r="G112" s="117"/>
+      <c r="H112" s="117"/>
+      <c r="I112" s="117"/>
+      <c r="J112" s="117"/>
+      <c r="K112" s="117"/>
+      <c r="L112" s="117"/>
+      <c r="M112" s="117"/>
+      <c r="N112" s="117"/>
+      <c r="O112" s="117"/>
+      <c r="P112" s="117"/>
+      <c r="Q112" s="117"/>
+      <c r="R112" s="117"/>
       <c r="AB112" s="10" t="s">
         <v>23</v>
       </c>
@@ -24936,20 +24961,20 @@
       <c r="E114" s="5"/>
       <c r="F114" s="5"/>
       <c r="G114" s="5"/>
-      <c r="H114" s="103" t="s">
+      <c r="H114" s="118" t="s">
         <v>209</v>
       </c>
-      <c r="I114" s="103"/>
-      <c r="J114" s="103"/>
-      <c r="K114" s="103"/>
-      <c r="L114" s="103"/>
-      <c r="M114" s="103"/>
-      <c r="N114" s="103"/>
-      <c r="O114" s="103"/>
-      <c r="P114" s="103"/>
-      <c r="Q114" s="103"/>
-      <c r="R114" s="103"/>
-      <c r="S114" s="103"/>
+      <c r="I114" s="118"/>
+      <c r="J114" s="118"/>
+      <c r="K114" s="118"/>
+      <c r="L114" s="118"/>
+      <c r="M114" s="118"/>
+      <c r="N114" s="118"/>
+      <c r="O114" s="118"/>
+      <c r="P114" s="118"/>
+      <c r="Q114" s="118"/>
+      <c r="R114" s="118"/>
+      <c r="S114" s="118"/>
       <c r="AM114" t="s">
         <v>81</v>
       </c>
@@ -24999,6 +25024,40 @@
       <c r="AS115" s="41"/>
     </row>
   </sheetData>
+  <autoFilter ref="A43:BA88">
+    <filterColumn colId="1" showButton="0"/>
+    <filterColumn colId="3" showButton="0"/>
+    <filterColumn colId="5" showButton="0"/>
+    <filterColumn colId="7" showButton="0"/>
+    <filterColumn colId="9" showButton="0"/>
+    <filterColumn colId="10" showButton="0"/>
+    <filterColumn colId="12" showButton="0"/>
+    <filterColumn colId="13" showButton="0"/>
+    <filterColumn colId="15" showButton="0"/>
+    <filterColumn colId="16" showButton="0"/>
+    <filterColumn colId="18" showButton="0"/>
+    <filterColumn colId="20" showButton="0"/>
+    <filterColumn colId="21" showButton="0"/>
+    <filterColumn colId="22" showButton="0"/>
+    <filterColumn colId="23" showButton="0"/>
+    <filterColumn colId="24" showButton="0"/>
+    <filterColumn colId="26" showButton="0"/>
+    <filterColumn colId="27" showButton="0"/>
+    <filterColumn colId="28" showButton="0"/>
+    <filterColumn colId="29" showButton="0"/>
+    <filterColumn colId="30" showButton="0"/>
+    <filterColumn colId="31" showButton="0"/>
+    <filterColumn colId="32" showButton="0"/>
+    <filterColumn colId="33" showButton="0"/>
+    <filterColumn colId="34" showButton="0"/>
+    <filterColumn colId="35" showButton="0"/>
+    <filterColumn colId="36" showButton="0"/>
+    <filterColumn colId="37" showButton="0"/>
+    <filterColumn colId="38" showButton="0"/>
+    <filterColumn colId="39" showButton="0"/>
+    <filterColumn colId="40" showButton="0"/>
+    <filterColumn colId="41" showButton="0"/>
+  </autoFilter>
   <mergeCells count="525">
     <mergeCell ref="AA87:AQ87"/>
     <mergeCell ref="B88:C88"/>
@@ -25528,25 +25587,25 @@
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M89:O89" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M89:O89">
       <formula1>Tecnicas_Pruebas</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H89:I89" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H89:I89">
       <formula1>Componentes</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P89:R89" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P89:R89">
       <formula1>Caracteristica_Evaluar</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AX89" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AX89">
       <formula1>Estado_CP</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F89:G89" xr:uid="{00000000-0002-0000-0000-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F89:G89">
       <formula1>Requerimientos</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S89:T89" xr:uid="{00000000-0002-0000-0000-000005000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S89:T89">
       <formula1>Metodos_Pruebas</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS44:AS88" xr:uid="{00000000-0002-0000-0000-000006000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS44:AS88">
       <formula1>"Crítico,Mayor,Menor"</formula1>
     </dataValidation>
   </dataValidations>
@@ -25560,37 +25619,37 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{85B2D4D3-4F73-4147-A2C9-944AB7CAAAE1}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>ejemplo!$A$69:$A$87</xm:f>
           </x14:formula1>
           <xm:sqref>D44:E88</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6C85D490-1E1C-48C9-9C49-5B3E0AAC0A99}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>ejemplo!$A$98:$A$99</xm:f>
           </x14:formula1>
           <xm:sqref>AR44:AR88</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{AB697AAF-5F00-49A1-8F6D-0CB2913A5334}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>ejemplo!$A$24:$A$29</xm:f>
           </x14:formula1>
           <xm:sqref>M44:O88</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{175E4247-2007-40D6-9917-123D40E92C5E}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>ejemplo!$A$33:$A$37</xm:f>
           </x14:formula1>
           <xm:sqref>P44:R88</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2DE09161-DC11-4A8F-A922-B50BAC23379F}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>ejemplo!$A$42:$A$51</xm:f>
           </x14:formula1>
           <xm:sqref>S44:T88</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BCC09B40-E055-4B6D-B605-1BD456407C11}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>ejemplo!$A$62:$A$66</xm:f>
           </x14:formula1>
@@ -25603,7 +25662,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q99"/>
   <sheetViews>
     <sheetView topLeftCell="A41" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -26364,10 +26423,10 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H20" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H20">
       <formula1>Metodos_Pruebas</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F20:G20 K20:L20 Q20" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F20:G20 K20:L20 Q20">
       <formula1>Tecnicas_Pruebas</formula1>
     </dataValidation>
   </dataValidations>
@@ -26376,15 +26435,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="9f8772a7-fa38-4be3-8f6b-d40e0755735f" xsi:nil="true"/>
@@ -26396,7 +26446,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CBC7F57751F3F343A56393DD202D817F" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="39c6f7f9cec71677675bb2863d384c02">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9f8772a7-fa38-4be3-8f6b-d40e0755735f" xmlns:ns3="328335c8-173a-4c26-85d0-3846c13a1e29" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b0daab8a5ec0935cc933c650856a513a" ns2:_="" ns3:_="">
     <xsd:import namespace="9f8772a7-fa38-4be3-8f6b-d40e0755735f"/>
@@ -26657,15 +26707,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F43F8E13-BFB7-4F04-949A-CC463DD69229}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3417CADE-5092-43B2-B113-7A7B92C601DB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -26676,7 +26727,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE3C03EB-AAE9-44E0-B37E-7D2BFE463A20}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -26693,4 +26744,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F43F8E13-BFB7-4F04-949A-CC463DD69229}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>